--- a/Finanzas/1_Ene-Abr_2018.xlsx
+++ b/Finanzas/1_Ene-Abr_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="341">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1032,6 +1032,21 @@
   </si>
   <si>
     <t>Clases 2 y 3</t>
+  </si>
+  <si>
+    <t>Café Ale</t>
+  </si>
+  <si>
+    <t>Ale Trabajo</t>
+  </si>
+  <si>
+    <t>Cihina</t>
+  </si>
+  <si>
+    <t>Depósito</t>
+  </si>
+  <si>
+    <t>Mamá Depósito</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1609,6 +1624,7 @@
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1905,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,7 +1999,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="114">
         <f>N3-D2</f>
-        <v>4865</v>
+        <v>5865</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -2110,7 +2126,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>5763</v>
+        <v>6763</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -2186,7 +2202,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>40131</v>
+        <v>41761</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2365,7 +2381,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1548</v>
+        <v>1178</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2453,12 +2469,12 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>548</v>
+        <v>1178</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
         <f>(SUM(X11:X499))-(SUM(K11:K499))</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S7" s="116"/>
       <c r="T7" s="118">
@@ -4233,11 +4249,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="56"/>
+      <c r="G24" s="99">
+        <v>43209</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="101"/>
       <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
+      <c r="K24" s="103">
+        <v>1000</v>
+      </c>
       <c r="M24" s="59">
         <v>42802</v>
       </c>
@@ -5895,7 +5917,9 @@
         <v>106</v>
       </c>
       <c r="V41" s="35"/>
-      <c r="W41" s="37"/>
+      <c r="W41" s="37">
+        <v>150</v>
+      </c>
       <c r="X41" s="37"/>
       <c r="Z41" s="47">
         <v>43145</v>
@@ -5984,7 +6008,9 @@
         <v>317</v>
       </c>
       <c r="V42" s="35"/>
-      <c r="W42" s="37"/>
+      <c r="W42" s="37">
+        <v>500</v>
+      </c>
       <c r="X42" s="37"/>
       <c r="Z42" s="47">
         <v>43146</v>
@@ -6070,11 +6096,13 @@
         <v>43209</v>
       </c>
       <c r="U43" s="35" t="s">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="V43" s="35"/>
       <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
+      <c r="X43" s="37">
+        <v>1000</v>
+      </c>
       <c r="Z43" s="47">
         <v>43147</v>
       </c>
@@ -6158,10 +6186,16 @@
         <v>0</v>
       </c>
       <c r="T44" s="36"/>
-      <c r="U44" s="35"/>
+      <c r="U44" s="35" t="s">
+        <v>340</v>
+      </c>
       <c r="V44" s="35"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="87"/>
+      <c r="W44" s="37">
+        <v>1000</v>
+      </c>
+      <c r="X44" s="124">
+        <v>1000</v>
+      </c>
       <c r="Z44" s="47">
         <v>43148</v>
       </c>
@@ -11155,7 +11189,7 @@
       </c>
       <c r="AC102" s="41">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AD102" s="107">
         <v>120</v>
@@ -11164,7 +11198,7 @@
       <c r="AF102" s="56"/>
       <c r="AG102" s="51">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AH102" s="56">
         <v>70</v>
@@ -11173,7 +11207,9 @@
         <v>155</v>
       </c>
       <c r="AJ102" s="56"/>
-      <c r="AK102" s="56"/>
+      <c r="AK102" s="56">
+        <v>10</v>
+      </c>
       <c r="AL102" s="56"/>
       <c r="AM102" s="56"/>
       <c r="AN102" s="56"/>
@@ -11246,7 +11282,7 @@
       </c>
       <c r="AC103" s="41">
         <f t="shared" si="12"/>
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="AD103" s="107">
         <v>80</v>
@@ -11255,10 +11291,14 @@
       <c r="AF103" s="56"/>
       <c r="AG103" s="51">
         <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="AH103" s="56"/>
-      <c r="AI103" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="AH103" s="56">
+        <v>50</v>
+      </c>
+      <c r="AI103" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="AJ103" s="56"/>
       <c r="AK103" s="56"/>
       <c r="AL103" s="56"/>
@@ -11326,22 +11366,32 @@
       <c r="AA104" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB104" s="49"/>
+      <c r="AB104" s="49" t="s">
+        <v>314</v>
+      </c>
       <c r="AC104" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD104" s="107"/>
+        <v>20</v>
+      </c>
+      <c r="AD104" s="107">
+        <v>80</v>
+      </c>
       <c r="AE104" s="107"/>
       <c r="AF104" s="56"/>
       <c r="AG104" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH104" s="56"/>
-      <c r="AI104" s="56"/>
+        <v>60</v>
+      </c>
+      <c r="AH104" s="56">
+        <v>50</v>
+      </c>
+      <c r="AI104" s="56" t="s">
+        <v>114</v>
+      </c>
       <c r="AJ104" s="56"/>
-      <c r="AK104" s="56"/>
+      <c r="AK104" s="56">
+        <v>10</v>
+      </c>
       <c r="AL104" s="56"/>
       <c r="AM104" s="56"/>
       <c r="AN104" s="56"/>
@@ -11403,22 +11453,34 @@
       <c r="AA105" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB105" s="49"/>
+      <c r="AB105" s="49" t="s">
+        <v>337</v>
+      </c>
       <c r="AC105" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD105" s="107"/>
+        <v>-60</v>
+      </c>
+      <c r="AD105" s="107">
+        <v>80</v>
+      </c>
       <c r="AE105" s="107"/>
       <c r="AF105" s="56"/>
       <c r="AG105" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH105" s="56"/>
-      <c r="AI105" s="56"/>
-      <c r="AJ105" s="56"/>
-      <c r="AK105" s="56"/>
+        <v>140</v>
+      </c>
+      <c r="AH105" s="56">
+        <v>70</v>
+      </c>
+      <c r="AI105" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ105" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK105" s="56">
+        <v>70</v>
+      </c>
       <c r="AL105" s="56"/>
       <c r="AM105" s="56"/>
       <c r="AN105" s="56"/>
@@ -11483,9 +11545,11 @@
       <c r="AB106" s="49"/>
       <c r="AC106" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD106" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="AD106" s="107">
+        <v>80</v>
+      </c>
       <c r="AE106" s="107"/>
       <c r="AF106" s="56"/>
       <c r="AG106" s="51">

--- a/Finanzas/1_Ene-Abr_2018.xlsx
+++ b/Finanzas/1_Ene-Abr_2018.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="343">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1047,6 +1042,12 @@
   </si>
   <si>
     <t>Mamá Depósito</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Taxi1, Taxi2, Taxi3, Taxi 4</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1921,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2203,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41761</v>
+        <v>41786</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2275,7 +2276,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2381,7 +2382,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1178</v>
+        <v>1203</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1178</v>
+        <v>1203</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -12009,22 +12010,40 @@
       <c r="AB112" s="49"/>
       <c r="AC112" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD112" s="107"/>
-      <c r="AE112" s="107"/>
+        <v>25</v>
+      </c>
+      <c r="AD112" s="107">
+        <v>250</v>
+      </c>
+      <c r="AE112" s="107">
+        <v>200</v>
+      </c>
       <c r="AF112" s="56"/>
       <c r="AG112" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH112" s="56"/>
-      <c r="AI112" s="56"/>
-      <c r="AJ112" s="56"/>
-      <c r="AK112" s="56"/>
-      <c r="AL112" s="56"/>
-      <c r="AM112" s="56"/>
-      <c r="AN112" s="56"/>
+        <v>425</v>
+      </c>
+      <c r="AH112" s="56">
+        <v>200</v>
+      </c>
+      <c r="AI112" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ112" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK112" s="56">
+        <v>55</v>
+      </c>
+      <c r="AL112" s="56">
+        <v>50</v>
+      </c>
+      <c r="AM112" s="56">
+        <v>45</v>
+      </c>
+      <c r="AN112" s="56">
+        <v>50</v>
+      </c>
       <c r="AO112" s="56"/>
       <c r="AP112" s="56"/>
       <c r="AQ112" s="56"/>
@@ -12033,22 +12052,28 @@
       <c r="AT112" s="56"/>
       <c r="AU112">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV112" s="56"/>
+        <v>25</v>
+      </c>
+      <c r="AV112" s="56">
+        <v>20</v>
+      </c>
       <c r="AW112" s="56"/>
       <c r="AX112" s="56"/>
-      <c r="AY112" s="56"/>
+      <c r="AY112" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ112" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA112" s="56"/>
       <c r="BB112">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC112" s="56"/>
+      <c r="BC112" s="56">
+        <v>5</v>
+      </c>
       <c r="BD112" s="56"/>
       <c r="BE112" s="56"/>
       <c r="BF112" s="56"/>

--- a/Finanzas/1_Ene-Abr_2018.xlsx
+++ b/Finanzas/1_Ene-Abr_2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="348">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1047,13 +1047,34 @@
   </si>
   <si>
     <t>Mamá Depósito</t>
+  </si>
+  <si>
+    <t>Papá medicinas</t>
+  </si>
+  <si>
+    <t>Papá depósito medicinas</t>
+  </si>
+  <si>
+    <t>Operación!</t>
+  </si>
+  <si>
+    <t>Clase Janneth Lab 1 Ferula</t>
+  </si>
+  <si>
+    <t>Pizzas sin alcohol</t>
+  </si>
+  <si>
+    <t>Medicinas</t>
+  </si>
+  <si>
+    <t>Niño Gratitud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,13 +1208,6 @@
       <u/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1569,7 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1609,7 +1622,7 @@
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1618,13 +1631,14 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1921,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1966,7 @@
         <v>43107</v>
       </c>
       <c r="E1" s="56"/>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="112" t="s">
         <v>117</v>
       </c>
       <c r="Z1" s="44"/>
@@ -1997,9 +2011,9 @@
         <v>898</v>
       </c>
       <c r="E2" s="56"/>
-      <c r="F2" s="114">
+      <c r="F2" s="113">
         <f>N3-D2</f>
-        <v>5865</v>
+        <v>6865</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>2</v>
@@ -2118,7 +2132,7 @@
       <c r="BH2" s="8"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="D3" s="98"/>
+      <c r="D3" s="97"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="17" t="s">
@@ -2126,7 +2140,7 @@
       </c>
       <c r="N3" s="25">
         <f>(SUM(D2,(K11:K499)))-(SUM((J11:J499),(I11:I499)))</f>
-        <v>6763</v>
+        <v>7763</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -2202,7 +2216,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41761</v>
+        <v>42191</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2275,7 +2289,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2300,10 +2314,10 @@
         <v>91</v>
       </c>
       <c r="R5" s="33"/>
-      <c r="S5" s="117" t="s">
+      <c r="S5" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="T5" s="115"/>
+      <c r="T5" s="114"/>
       <c r="Z5" s="47">
         <v>43109</v>
       </c>
@@ -2381,7 +2395,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>1178</v>
+        <v>608</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2389,8 +2403,8 @@
       <c r="R6" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
       <c r="Z6" s="47">
         <v>43110</v>
       </c>
@@ -2415,7 +2429,7 @@
       <c r="AH6">
         <v>0</v>
       </c>
-      <c r="AI6" s="100"/>
+      <c r="AI6" s="99"/>
       <c r="AJ6" s="56" t="s">
         <v>109</v>
       </c>
@@ -2469,15 +2483,15 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>1178</v>
+        <v>608</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
         <f>(SUM(X11:X499))-(SUM(K11:K499))</f>
         <v>0</v>
       </c>
-      <c r="S7" s="116"/>
-      <c r="T7" s="118">
+      <c r="S7" s="115"/>
+      <c r="T7" s="117">
         <f>E9</f>
         <v>9960</v>
       </c>
@@ -2505,7 +2519,7 @@
       <c r="AH7">
         <v>70</v>
       </c>
-      <c r="AI7" s="100" t="s">
+      <c r="AI7" s="99" t="s">
         <v>114</v>
       </c>
       <c r="AJ7" s="56"/>
@@ -2570,7 +2584,7 @@
       <c r="AH8">
         <v>90</v>
       </c>
-      <c r="AI8" s="100" t="s">
+      <c r="AI8" s="99" t="s">
         <v>118</v>
       </c>
       <c r="AJ8" s="56" t="s">
@@ -2611,7 +2625,7 @@
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="61"/>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="118" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="61"/>
@@ -2675,7 +2689,7 @@
       <c r="AH9">
         <v>250</v>
       </c>
-      <c r="AI9" s="100" t="s">
+      <c r="AI9" s="99" t="s">
         <v>121</v>
       </c>
       <c r="AJ9" s="56" t="s">
@@ -2795,7 +2809,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="100"/>
+      <c r="AI10" s="99"/>
       <c r="AJ10" s="56"/>
       <c r="AK10" s="56"/>
       <c r="AL10" s="56"/>
@@ -2826,23 +2840,23 @@
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="35">
         <v>3700</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="35">
         <v>3700</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="35">
         <f>C11-D11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="98">
         <v>43108</v>
       </c>
       <c r="H11" s="56" t="s">
@@ -2850,7 +2864,7 @@
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="100">
+      <c r="K11" s="99">
         <v>2800</v>
       </c>
       <c r="M11" s="18" t="s">
@@ -2909,7 +2923,7 @@
       <c r="AH11">
         <v>0</v>
       </c>
-      <c r="AI11" s="100"/>
+      <c r="AI11" s="99"/>
       <c r="AJ11" s="56" t="s">
         <v>128</v>
       </c>
@@ -2966,7 +2980,7 @@
         <f t="shared" ref="E12:E75" si="6">C12-D12</f>
         <v>500</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="98">
         <v>43112</v>
       </c>
       <c r="H12" s="56" t="s">
@@ -3021,7 +3035,7 @@
       <c r="AD12" s="50">
         <v>80</v>
       </c>
-      <c r="AE12" s="112"/>
+      <c r="AE12" s="111"/>
       <c r="AG12" s="51">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -3029,7 +3043,7 @@
       <c r="AH12">
         <v>60</v>
       </c>
-      <c r="AI12" s="100" t="s">
+      <c r="AI12" s="99" t="s">
         <v>142</v>
       </c>
       <c r="AJ12" s="56" t="s">
@@ -3087,17 +3101,17 @@
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="98">
         <v>43114</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102">
+      <c r="I13" s="100"/>
+      <c r="J13" s="101">
         <v>163</v>
       </c>
-      <c r="K13" s="103"/>
+      <c r="K13" s="102"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18" t="s">
         <v>24</v>
@@ -3155,7 +3169,7 @@
       <c r="AH13">
         <v>70</v>
       </c>
-      <c r="AI13" s="100" t="s">
+      <c r="AI13" s="99" t="s">
         <v>114</v>
       </c>
       <c r="AJ13" s="56"/>
@@ -3183,7 +3197,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA13" s="110">
+      <c r="BA13" s="109">
         <v>2</v>
       </c>
       <c r="BB13">
@@ -3195,7 +3209,7 @@
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>140</v>
       </c>
       <c r="B14" t="s">
@@ -3209,17 +3223,17 @@
         <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="98">
         <v>43116</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102">
+      <c r="I14" s="100"/>
+      <c r="J14" s="101">
         <v>244</v>
       </c>
-      <c r="K14" s="103"/>
+      <c r="K14" s="102"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18" t="s">
         <v>24</v>
@@ -3274,7 +3288,7 @@
       <c r="AH14">
         <v>100</v>
       </c>
-      <c r="AI14" s="100" t="s">
+      <c r="AI14" s="99" t="s">
         <v>150</v>
       </c>
       <c r="AJ14" s="56" t="s">
@@ -3320,7 +3334,7 @@
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="119" t="s">
         <v>323</v>
       </c>
       <c r="B15" t="s">
@@ -3333,7 +3347,7 @@
         <f t="shared" si="6"/>
         <v>1300</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="98">
         <v>43123</v>
       </c>
       <c r="H15" s="56" t="s">
@@ -3439,7 +3453,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G16" s="99"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -3541,15 +3555,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="99"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="102">
+      <c r="I17" s="103"/>
+      <c r="J17" s="101">
         <v>300</v>
       </c>
-      <c r="K17" s="103"/>
+      <c r="K17" s="102"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18" t="s">
         <v>24</v>
@@ -3600,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="56"/>
-      <c r="AJ17" s="100"/>
+      <c r="AJ17" s="99"/>
       <c r="AK17" s="56"/>
       <c r="AL17" s="56"/>
       <c r="AM17" s="56"/>
@@ -3608,7 +3622,7 @@
       <c r="AO17" s="56"/>
       <c r="AP17" s="56"/>
       <c r="AQ17" s="56"/>
-      <c r="AR17" s="109"/>
+      <c r="AR17" s="108"/>
       <c r="AS17" s="56"/>
       <c r="AT17" s="56"/>
       <c r="AU17">
@@ -3634,17 +3648,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G18" s="99">
+      <c r="G18" s="98">
         <v>43150</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="101">
+      <c r="I18" s="100">
         <v>2500</v>
       </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18" t="s">
         <v>24</v>
@@ -3700,7 +3714,7 @@
       <c r="AI18" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AJ18" s="100" t="s">
+      <c r="AJ18" s="99" t="s">
         <v>154</v>
       </c>
       <c r="AK18" s="56">
@@ -3743,15 +3757,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G19" s="99"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="I19" s="101"/>
-      <c r="J19" s="102">
+      <c r="I19" s="100"/>
+      <c r="J19" s="101">
         <v>130</v>
       </c>
-      <c r="K19" s="103"/>
+      <c r="K19" s="102"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18" t="s">
         <v>24</v>
@@ -3813,7 +3827,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV19" s="109"/>
+      <c r="AV19" s="108"/>
       <c r="AW19" s="56"/>
       <c r="AX19" s="56"/>
       <c r="AY19" s="56"/>
@@ -3833,15 +3847,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="99"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="102">
+      <c r="I20" s="100"/>
+      <c r="J20" s="101">
         <v>200</v>
       </c>
-      <c r="K20" s="103"/>
+      <c r="K20" s="102"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18" t="s">
         <v>24</v>
@@ -3894,7 +3908,7 @@
       <c r="AI20" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="AJ20" s="100"/>
+      <c r="AJ20" s="99"/>
       <c r="AK20" s="56"/>
       <c r="AL20" s="56"/>
       <c r="AM20" s="56"/>
@@ -3911,8 +3925,8 @@
       </c>
       <c r="AV20" s="56"/>
       <c r="AW20" s="56"/>
-      <c r="AX20" s="109"/>
-      <c r="AY20" s="109"/>
+      <c r="AX20" s="108"/>
+      <c r="AY20" s="108"/>
       <c r="AZ20" s="56">
         <f>(AW20*6)+(AX20*8)+(AY20*5)</f>
         <v>0</v>
@@ -3934,15 +3948,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="98">
         <v>43194</v>
       </c>
       <c r="H21" s="56"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102">
+      <c r="I21" s="100"/>
+      <c r="J21" s="101">
         <v>18</v>
       </c>
-      <c r="K21" s="103"/>
+      <c r="K21" s="102"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18" t="s">
         <v>24</v>
@@ -3995,11 +4009,11 @@
       <c r="AH21">
         <v>70</v>
       </c>
-      <c r="AI21" s="100" t="s">
+      <c r="AI21" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="100"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
       <c r="AL21" s="56"/>
       <c r="AM21" s="56"/>
       <c r="AN21" s="56"/>
@@ -4018,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="AX21" s="56"/>
-      <c r="AY21" s="109">
+      <c r="AY21" s="108">
         <v>2</v>
       </c>
       <c r="AZ21" s="56">
@@ -4038,13 +4052,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22" s="99"/>
+      <c r="G22" s="98"/>
       <c r="H22" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="103">
+      <c r="I22" s="100"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102">
         <v>1000</v>
       </c>
       <c r="M22" s="18"/>
@@ -4146,15 +4160,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="99"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102">
+      <c r="I23" s="100"/>
+      <c r="J23" s="101">
         <v>200</v>
       </c>
-      <c r="K23" s="103"/>
+      <c r="K23" s="102"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18" t="s">
         <v>24</v>
@@ -4215,7 +4229,7 @@
       <c r="AK23" s="56">
         <v>10</v>
       </c>
-      <c r="AL23" s="109"/>
+      <c r="AL23" s="108"/>
       <c r="AM23" s="56"/>
       <c r="AN23" s="56"/>
       <c r="AO23" s="56"/>
@@ -4249,15 +4263,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="98">
         <v>43209</v>
       </c>
       <c r="H24" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103">
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102">
         <v>1000</v>
       </c>
       <c r="M24" s="59">
@@ -4296,7 +4310,7 @@
       <c r="AA24" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AB24" s="121"/>
+      <c r="AB24" s="120"/>
       <c r="AC24" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4310,7 +4324,7 @@
       <c r="AI24" s="56"/>
       <c r="AJ24" s="56"/>
       <c r="AK24" s="56"/>
-      <c r="AL24" s="95"/>
+      <c r="AL24" s="94"/>
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="56"/>
@@ -4324,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="56"/>
-      <c r="AW24" s="109"/>
+      <c r="AW24" s="108"/>
       <c r="AX24" s="56"/>
       <c r="AY24" s="56"/>
       <c r="AZ24" s="56">
@@ -4342,11 +4356,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="99"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="103"/>
+      <c r="G25" s="98">
+        <v>43213</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="I25" s="100"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102">
+        <v>1000</v>
+      </c>
       <c r="M25" s="59">
         <v>42802</v>
       </c>
@@ -4406,7 +4426,7 @@
       <c r="AK25" s="56"/>
       <c r="AL25" s="56"/>
       <c r="AM25" s="56"/>
-      <c r="AN25" s="95"/>
+      <c r="AN25" s="94"/>
       <c r="AO25" s="56"/>
       <c r="AP25" s="56"/>
       <c r="AQ25" s="56"/>
@@ -4445,11 +4465,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G26" s="99"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="103"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18" t="s">
         <v>66</v>
@@ -4544,11 +4564,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G27" s="99"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="103"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
       <c r="M27" s="59">
         <v>43005</v>
       </c>
@@ -4605,7 +4625,7 @@
         <v>171</v>
       </c>
       <c r="AJ27" s="56"/>
-      <c r="AK27" s="109"/>
+      <c r="AK27" s="108"/>
       <c r="AL27" s="56"/>
       <c r="AM27" s="56"/>
       <c r="AN27" s="56"/>
@@ -4643,11 +4663,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G28" s="99"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
       <c r="M28" s="59">
         <v>43010</v>
       </c>
@@ -4746,11 +4766,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G29" s="99"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="103"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="102"/>
       <c r="M29" s="18" t="s">
         <v>97</v>
       </c>
@@ -4825,19 +4845,19 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AV29" s="109">
+      <c r="AV29" s="108">
         <v>5</v>
       </c>
       <c r="AW29" s="56">
         <v>2</v>
       </c>
       <c r="AX29" s="56"/>
-      <c r="AY29" s="109"/>
+      <c r="AY29" s="108"/>
       <c r="AZ29" s="56">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="BA29" s="109"/>
+      <c r="BA29" s="108"/>
       <c r="BB29">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4848,11 +4868,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G30" s="99"/>
+      <c r="G30" s="98"/>
       <c r="H30" s="56"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="103"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18" t="s">
         <v>26</v>
@@ -4929,7 +4949,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AV30" s="95"/>
+      <c r="AV30" s="94"/>
       <c r="AW30" s="56"/>
       <c r="AX30" s="56"/>
       <c r="AY30" s="56"/>
@@ -4950,11 +4970,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G31" s="99"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="56"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="103"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="102"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18" t="s">
         <v>23</v>
@@ -5000,7 +5020,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="109"/>
+      <c r="AI31" s="108"/>
       <c r="AJ31" s="56"/>
       <c r="AK31" s="56"/>
       <c r="AL31" s="56"/>
@@ -5024,7 +5044,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BA31" s="102"/>
+      <c r="BA31" s="101"/>
       <c r="BB31">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5035,11 +5055,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G32" s="99"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="103"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="102"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18" t="s">
         <v>26</v>
@@ -5133,11 +5153,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G33" s="99"/>
+      <c r="G33" s="98"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="103"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
       <c r="M33" s="59">
         <v>43117</v>
       </c>
@@ -5198,7 +5218,7 @@
       <c r="AJ33" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="AK33" s="109">
+      <c r="AK33" s="108">
         <v>89</v>
       </c>
       <c r="AL33" s="56"/>
@@ -5238,11 +5258,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G34" s="99"/>
+      <c r="G34" s="98"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="103"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="102"/>
       <c r="M34" s="18" t="s">
         <v>194</v>
       </c>
@@ -5345,11 +5365,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G35" s="99"/>
+      <c r="G35" s="98"/>
       <c r="H35" s="56"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="103"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="102"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18" t="s">
         <v>249</v>
@@ -5444,11 +5464,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G36" s="99"/>
+      <c r="G36" s="98"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="103"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="102"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18" t="s">
         <v>26</v>
@@ -5546,11 +5566,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G37" s="105"/>
+      <c r="G37" s="104"/>
       <c r="H37" s="56"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="103"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="102"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
@@ -5627,11 +5647,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G38" s="99"/>
+      <c r="G38" s="98"/>
       <c r="H38" s="56"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="102"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
@@ -5688,7 +5708,7 @@
         <v>40</v>
       </c>
       <c r="AL38" s="56"/>
-      <c r="AM38" s="102"/>
+      <c r="AM38" s="101"/>
       <c r="AN38" s="56"/>
       <c r="AO38" s="56"/>
       <c r="AP38" s="56"/>
@@ -5721,11 +5741,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G39" s="99"/>
+      <c r="G39" s="98"/>
       <c r="H39" s="56"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="102"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
@@ -5805,11 +5825,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G40" s="99"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="102"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
@@ -5896,11 +5916,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G41" s="99"/>
+      <c r="G41" s="98"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="102"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
@@ -5937,7 +5957,7 @@
       <c r="AD41" s="50">
         <v>80</v>
       </c>
-      <c r="AE41" s="111"/>
+      <c r="AE41" s="110"/>
       <c r="AG41" s="51">
         <f t="shared" si="0"/>
         <v>166</v>
@@ -5987,11 +6007,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G42" s="99"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="56"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="103"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="102"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
@@ -6078,11 +6098,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G43" s="99"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="56"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="103"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="102"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
@@ -6149,7 +6169,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AV43" s="102"/>
+      <c r="AV43" s="101"/>
       <c r="AW43" s="56"/>
       <c r="AX43" s="56"/>
       <c r="AY43" s="56"/>
@@ -6171,10 +6191,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G44" s="99"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
-      <c r="J44" s="102"/>
+      <c r="J44" s="101"/>
       <c r="K44" s="56"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
@@ -6193,7 +6213,7 @@
       <c r="W44" s="37">
         <v>1000</v>
       </c>
-      <c r="X44" s="124">
+      <c r="X44" s="123">
         <v>1000</v>
       </c>
       <c r="Z44" s="47">
@@ -6220,7 +6240,7 @@
       <c r="AH44">
         <v>100</v>
       </c>
-      <c r="AI44" s="100" t="s">
+      <c r="AI44" s="99" t="s">
         <v>152</v>
       </c>
       <c r="AJ44" s="56" t="s">
@@ -6242,8 +6262,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AV44" s="102"/>
-      <c r="AW44" s="102"/>
+      <c r="AV44" s="101"/>
+      <c r="AW44" s="101"/>
       <c r="AX44" s="56"/>
       <c r="AY44" s="56"/>
       <c r="AZ44" s="56">
@@ -6263,11 +6283,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G45" s="99"/>
+      <c r="G45" s="98"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
-      <c r="K45" s="103"/>
+      <c r="K45" s="102"/>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
@@ -6277,11 +6297,19 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T45" s="36"/>
-      <c r="U45" s="35"/>
+      <c r="T45" s="36">
+        <v>43213</v>
+      </c>
+      <c r="U45" s="35" t="s">
+        <v>342</v>
+      </c>
       <c r="V45" s="35"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="37"/>
+      <c r="W45" s="123">
+        <v>1000</v>
+      </c>
+      <c r="X45" s="37">
+        <v>1000</v>
+      </c>
       <c r="Z45" s="47">
         <v>43149</v>
       </c>
@@ -6301,9 +6329,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI45" s="100"/>
+      <c r="AI45" s="99"/>
       <c r="AJ45" s="56"/>
-      <c r="AK45" s="102"/>
+      <c r="AK45" s="101"/>
       <c r="AL45" s="56"/>
       <c r="AM45" s="56"/>
       <c r="AN45" s="56"/>
@@ -6337,11 +6365,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G46" s="99"/>
+      <c r="G46" s="98"/>
       <c r="H46" s="56"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="103"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="102"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
@@ -6351,10 +6379,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T46" s="36"/>
-      <c r="U46" s="35"/>
+      <c r="T46" s="36">
+        <v>43212</v>
+      </c>
+      <c r="U46" s="35" t="s">
+        <v>318</v>
+      </c>
       <c r="V46" s="35"/>
-      <c r="W46" s="37"/>
+      <c r="W46" s="37">
+        <v>400</v>
+      </c>
       <c r="X46" s="37"/>
       <c r="Z46" s="47">
         <v>43150</v>
@@ -6380,10 +6414,10 @@
       <c r="AH46">
         <v>70</v>
       </c>
-      <c r="AI46" s="100" t="s">
+      <c r="AI46" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="AJ46" s="100" t="s">
+      <c r="AJ46" s="99" t="s">
         <v>205</v>
       </c>
       <c r="AK46" s="56">
@@ -6436,11 +6470,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G47" s="99"/>
+      <c r="G47" s="98"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="103"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="102"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
@@ -6479,7 +6513,7 @@
       <c r="AH47">
         <v>70</v>
       </c>
-      <c r="AI47" s="100" t="s">
+      <c r="AI47" s="99" t="s">
         <v>142</v>
       </c>
       <c r="AJ47" s="56"/>
@@ -6521,11 +6555,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G48" s="99"/>
+      <c r="G48" s="98"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="103"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="102"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
@@ -6610,11 +6644,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G49" s="99"/>
+      <c r="G49" s="98"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="103"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="102"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
@@ -6697,11 +6731,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G50" s="99"/>
+      <c r="G50" s="98"/>
       <c r="H50" s="56"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="103"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="102"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
@@ -6998,7 +7032,7 @@
         <v>13</v>
       </c>
       <c r="AL53" s="56"/>
-      <c r="AM53" s="102"/>
+      <c r="AM53" s="101"/>
       <c r="AN53" s="56"/>
       <c r="AO53" s="56"/>
       <c r="AP53" s="56"/>
@@ -7253,7 +7287,7 @@
       <c r="AJ56" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="AK56" s="102">
+      <c r="AK56" s="101">
         <v>1500</v>
       </c>
       <c r="AL56" s="56">
@@ -7344,7 +7378,7 @@
         <v>235</v>
       </c>
       <c r="AJ57" s="56"/>
-      <c r="AK57" s="102">
+      <c r="AK57" s="101">
         <v>1100</v>
       </c>
       <c r="AL57" s="56"/>
@@ -7773,7 +7807,7 @@
       <c r="AK62" s="56">
         <v>23</v>
       </c>
-      <c r="AL62" s="95"/>
+      <c r="AL62" s="94"/>
       <c r="AM62" s="56"/>
       <c r="AN62" s="56"/>
       <c r="AO62" s="56"/>
@@ -9850,8 +9884,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD87" s="107"/>
-      <c r="AE87" s="107"/>
+      <c r="AD87" s="106"/>
+      <c r="AE87" s="106"/>
       <c r="AF87" s="56"/>
       <c r="AG87" s="51">
         <f t="shared" si="10"/>
@@ -9929,10 +9963,10 @@
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="AD88" s="107">
+      <c r="AD88" s="106">
         <v>120</v>
       </c>
-      <c r="AE88" s="107"/>
+      <c r="AE88" s="106"/>
       <c r="AF88" s="56"/>
       <c r="AG88" s="51">
         <f t="shared" si="10"/>
@@ -9948,7 +9982,7 @@
       <c r="AK88" s="56"/>
       <c r="AL88" s="56"/>
       <c r="AM88" s="56"/>
-      <c r="AN88" s="101"/>
+      <c r="AN88" s="100"/>
       <c r="AO88" s="56"/>
       <c r="AP88" s="56"/>
       <c r="AQ88" s="56"/>
@@ -10016,10 +10050,10 @@
         <f t="shared" si="12"/>
         <v>-61</v>
       </c>
-      <c r="AD89" s="107">
+      <c r="AD89" s="106">
         <v>80</v>
       </c>
-      <c r="AE89" s="107"/>
+      <c r="AE89" s="106"/>
       <c r="AF89" s="56"/>
       <c r="AG89" s="51">
         <f t="shared" si="10"/>
@@ -10113,10 +10147,10 @@
         <f t="shared" si="12"/>
         <v>-55</v>
       </c>
-      <c r="AD90" s="107">
+      <c r="AD90" s="106">
         <v>80</v>
       </c>
-      <c r="AE90" s="107">
+      <c r="AE90" s="106">
         <v>20</v>
       </c>
       <c r="AF90" s="56" t="s">
@@ -10206,10 +10240,10 @@
         <f t="shared" si="12"/>
         <v>-11</v>
       </c>
-      <c r="AD91" s="107">
+      <c r="AD91" s="106">
         <v>80</v>
       </c>
-      <c r="AE91" s="107"/>
+      <c r="AE91" s="106"/>
       <c r="AF91" s="56"/>
       <c r="AG91" s="51">
         <f t="shared" si="10"/>
@@ -10301,10 +10335,10 @@
         <f t="shared" si="12"/>
         <v>134</v>
       </c>
-      <c r="AD92" s="107">
+      <c r="AD92" s="106">
         <v>80</v>
       </c>
-      <c r="AE92" s="107">
+      <c r="AE92" s="106">
         <v>150</v>
       </c>
       <c r="AF92" s="56" t="s">
@@ -10392,10 +10426,10 @@
         <f t="shared" si="12"/>
         <v>-70</v>
       </c>
-      <c r="AD93" s="107">
+      <c r="AD93" s="106">
         <v>120</v>
       </c>
-      <c r="AE93" s="107"/>
+      <c r="AE93" s="106"/>
       <c r="AF93" s="56"/>
       <c r="AG93" s="51">
         <f t="shared" si="10"/>
@@ -10408,7 +10442,7 @@
       <c r="AJ93" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="AK93" s="95">
+      <c r="AK93" s="94">
         <v>50</v>
       </c>
       <c r="AL93" s="56">
@@ -10483,8 +10517,8 @@
         <f t="shared" si="12"/>
         <v>-77</v>
       </c>
-      <c r="AD94" s="107"/>
-      <c r="AE94" s="107"/>
+      <c r="AD94" s="106"/>
+      <c r="AE94" s="106"/>
       <c r="AF94" s="56"/>
       <c r="AG94" s="51">
         <f t="shared" si="10"/>
@@ -10492,10 +10526,10 @@
       </c>
       <c r="AH94" s="56"/>
       <c r="AI94" s="56"/>
-      <c r="AJ94" s="122" t="s">
+      <c r="AJ94" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="AK94" s="122">
+      <c r="AK94" s="121">
         <v>60</v>
       </c>
       <c r="AL94" s="56">
@@ -10568,10 +10602,10 @@
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="AD95" s="107">
+      <c r="AD95" s="106">
         <v>120</v>
       </c>
-      <c r="AE95" s="107"/>
+      <c r="AE95" s="106"/>
       <c r="AF95" s="56"/>
       <c r="AG95" s="51">
         <f t="shared" si="10"/>
@@ -10657,10 +10691,10 @@
         <f t="shared" si="12"/>
         <v>-860</v>
       </c>
-      <c r="AD96" s="107">
+      <c r="AD96" s="106">
         <v>80</v>
       </c>
-      <c r="AE96" s="107"/>
+      <c r="AE96" s="106"/>
       <c r="AF96" s="56"/>
       <c r="AG96" s="51">
         <f t="shared" si="10"/>
@@ -10752,10 +10786,10 @@
         <f t="shared" si="12"/>
         <v>-990</v>
       </c>
-      <c r="AD97" s="107">
+      <c r="AD97" s="106">
         <v>80</v>
       </c>
-      <c r="AE97" s="107"/>
+      <c r="AE97" s="106"/>
       <c r="AF97" s="56"/>
       <c r="AG97" s="51">
         <f t="shared" si="10"/>
@@ -10768,7 +10802,7 @@
       <c r="AJ97" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="AK97" s="123">
+      <c r="AK97" s="122">
         <v>1000</v>
       </c>
       <c r="AL97" s="56"/>
@@ -10843,10 +10877,10 @@
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="AD98" s="107">
+      <c r="AD98" s="106">
         <v>80</v>
       </c>
-      <c r="AE98" s="107"/>
+      <c r="AE98" s="106"/>
       <c r="AF98" s="56"/>
       <c r="AG98" s="51">
         <f t="shared" si="10"/>
@@ -10924,10 +10958,10 @@
         <f t="shared" si="12"/>
         <v>-67</v>
       </c>
-      <c r="AD99" s="107">
+      <c r="AD99" s="106">
         <v>80</v>
       </c>
-      <c r="AE99" s="107"/>
+      <c r="AE99" s="106"/>
       <c r="AF99" s="56"/>
       <c r="AG99" s="51">
         <f t="shared" si="10"/>
@@ -11015,10 +11049,10 @@
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AD100" s="107">
+      <c r="AD100" s="106">
         <v>150</v>
       </c>
-      <c r="AE100" s="107"/>
+      <c r="AE100" s="106"/>
       <c r="AF100" s="56"/>
       <c r="AG100" s="51">
         <f t="shared" si="10"/>
@@ -11106,10 +11140,10 @@
         <f t="shared" si="12"/>
         <v>-22</v>
       </c>
-      <c r="AD101" s="107">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="107"/>
+      <c r="AD101" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="106"/>
       <c r="AF101" s="56"/>
       <c r="AG101" s="51">
         <f t="shared" si="10"/>
@@ -11191,10 +11225,10 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AD102" s="107">
+      <c r="AD102" s="106">
         <v>120</v>
       </c>
-      <c r="AE102" s="107"/>
+      <c r="AE102" s="106"/>
       <c r="AF102" s="56"/>
       <c r="AG102" s="51">
         <f t="shared" si="10"/>
@@ -11284,10 +11318,10 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AD103" s="107">
+      <c r="AD103" s="106">
         <v>80</v>
       </c>
-      <c r="AE103" s="107"/>
+      <c r="AE103" s="106"/>
       <c r="AF103" s="56"/>
       <c r="AG103" s="51">
         <f t="shared" si="10"/>
@@ -11373,10 +11407,10 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AD104" s="107">
+      <c r="AD104" s="106">
         <v>80</v>
       </c>
-      <c r="AE104" s="107"/>
+      <c r="AE104" s="106"/>
       <c r="AF104" s="56"/>
       <c r="AG104" s="51">
         <f t="shared" si="10"/>
@@ -11408,10 +11442,12 @@
       <c r="AV104" s="56"/>
       <c r="AW104" s="56"/>
       <c r="AX104" s="56"/>
-      <c r="AY104" s="56"/>
+      <c r="AY104" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ104" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA104" s="56"/>
       <c r="BB104">
@@ -11460,10 +11496,10 @@
         <f t="shared" si="12"/>
         <v>-60</v>
       </c>
-      <c r="AD105" s="107">
+      <c r="AD105" s="106">
         <v>80</v>
       </c>
-      <c r="AE105" s="107"/>
+      <c r="AE105" s="106"/>
       <c r="AF105" s="56"/>
       <c r="AG105" s="51">
         <f t="shared" si="10"/>
@@ -11497,10 +11533,12 @@
       <c r="AV105" s="56"/>
       <c r="AW105" s="56"/>
       <c r="AX105" s="56"/>
-      <c r="AY105" s="56"/>
+      <c r="AY105" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ105" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA105" s="56"/>
       <c r="BB105">
@@ -11542,24 +11580,32 @@
       <c r="AA106" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB106" s="49"/>
+      <c r="AB106" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="AC106" s="41">
         <f t="shared" si="12"/>
+        <v>-520</v>
+      </c>
+      <c r="AD106" s="106">
         <v>80</v>
       </c>
-      <c r="AD106" s="107">
-        <v>80</v>
-      </c>
-      <c r="AE106" s="107"/>
+      <c r="AE106" s="106"/>
       <c r="AF106" s="56"/>
       <c r="AG106" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH106" s="56"/>
+        <v>600</v>
+      </c>
+      <c r="AH106" s="56">
+        <v>100</v>
+      </c>
       <c r="AI106" s="56"/>
-      <c r="AJ106" s="56"/>
-      <c r="AK106" s="56"/>
+      <c r="AJ106" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK106" s="56">
+        <v>500</v>
+      </c>
       <c r="AL106" s="56"/>
       <c r="AM106" s="56"/>
       <c r="AN106" s="56"/>
@@ -11576,10 +11622,12 @@
       <c r="AV106" s="56"/>
       <c r="AW106" s="56"/>
       <c r="AX106" s="56"/>
-      <c r="AY106" s="56"/>
+      <c r="AY106" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ106" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA106" s="56"/>
       <c r="BB106">
@@ -11621,13 +11669,15 @@
       <c r="AA107" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB107" s="49"/>
+      <c r="AB107" s="49" t="s">
+        <v>343</v>
+      </c>
       <c r="AC107" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD107" s="107"/>
-      <c r="AE107" s="107"/>
+      <c r="AD107" s="106"/>
+      <c r="AE107" s="106"/>
       <c r="AF107" s="56"/>
       <c r="AG107" s="51">
         <f t="shared" si="10"/>
@@ -11701,19 +11751,25 @@
       <c r="AB108" s="49"/>
       <c r="AC108" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD108" s="107"/>
-      <c r="AE108" s="107"/>
+        <v>-460</v>
+      </c>
+      <c r="AD108" s="106">
+        <v>50</v>
+      </c>
+      <c r="AE108" s="106"/>
       <c r="AF108" s="56"/>
       <c r="AG108" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="AH108" s="56"/>
       <c r="AI108" s="56"/>
-      <c r="AJ108" s="56"/>
-      <c r="AK108" s="56"/>
+      <c r="AJ108" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK108" s="56">
+        <v>500</v>
+      </c>
       <c r="AL108" s="56"/>
       <c r="AM108" s="56"/>
       <c r="AN108" s="56"/>
@@ -11725,7 +11781,7 @@
       <c r="AT108" s="56"/>
       <c r="AU108">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV108" s="56"/>
       <c r="AW108" s="56"/>
@@ -11735,10 +11791,12 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA108" s="56"/>
+      <c r="BA108" s="56">
+        <v>2</v>
+      </c>
       <c r="BB108">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC108" s="56"/>
       <c r="BD108" s="56"/>
@@ -11775,17 +11833,21 @@
       <c r="AA109" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="AB109" s="49"/>
+      <c r="AB109" s="49" t="s">
+        <v>344</v>
+      </c>
       <c r="AC109" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD109" s="107"/>
-      <c r="AE109" s="107"/>
+        <v>90</v>
+      </c>
+      <c r="AD109" s="106">
+        <v>120</v>
+      </c>
+      <c r="AE109" s="106"/>
       <c r="AF109" s="56"/>
       <c r="AG109" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH109" s="56"/>
       <c r="AI109" s="56"/>
@@ -11802,22 +11864,30 @@
       <c r="AT109" s="56"/>
       <c r="AU109">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV109" s="56"/>
+        <v>30</v>
+      </c>
+      <c r="AV109" s="56">
+        <v>10</v>
+      </c>
       <c r="AW109" s="56"/>
       <c r="AX109" s="56"/>
-      <c r="AY109" s="56"/>
+      <c r="AY109" s="56">
+        <v>1</v>
+      </c>
       <c r="AZ109" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BA109" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="BA109" s="56">
+        <v>2</v>
+      </c>
       <c r="BB109">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BC109" s="56"/>
+        <v>10</v>
+      </c>
+      <c r="BC109" s="56">
+        <v>10</v>
+      </c>
       <c r="BD109" s="56"/>
       <c r="BE109" s="56"/>
       <c r="BF109" s="56"/>
@@ -11857,8 +11927,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD110" s="107"/>
-      <c r="AE110" s="107"/>
+      <c r="AD110" s="106"/>
+      <c r="AE110" s="106"/>
       <c r="AF110" s="56"/>
       <c r="AG110" s="51">
         <f t="shared" si="10"/>
@@ -11934,8 +12004,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD111" s="107"/>
-      <c r="AE111" s="107"/>
+      <c r="AD111" s="106"/>
+      <c r="AE111" s="106"/>
       <c r="AF111" s="56"/>
       <c r="AG111" s="51">
         <f t="shared" si="10"/>
@@ -12011,8 +12081,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD112" s="107"/>
-      <c r="AE112" s="107"/>
+      <c r="AD112" s="106"/>
+      <c r="AE112" s="106"/>
       <c r="AF112" s="56"/>
       <c r="AG112" s="51">
         <f t="shared" si="10"/>
@@ -12088,8 +12158,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD113" s="107"/>
-      <c r="AE113" s="107"/>
+      <c r="AD113" s="106"/>
+      <c r="AE113" s="106"/>
       <c r="AF113" s="56"/>
       <c r="AG113" s="51">
         <f t="shared" si="10"/>
@@ -12165,8 +12235,8 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD114" s="107"/>
-      <c r="AE114" s="107"/>
+      <c r="AD114" s="106"/>
+      <c r="AE114" s="106"/>
       <c r="AF114" s="56"/>
       <c r="AG114" s="51">
         <f t="shared" si="10"/>
@@ -12231,14 +12301,14 @@
       <c r="V115" s="35"/>
       <c r="W115" s="37"/>
       <c r="X115" s="37"/>
-      <c r="Z115" s="106"/>
-      <c r="AA115" s="107"/>
+      <c r="Z115" s="105"/>
+      <c r="AA115" s="106"/>
       <c r="AB115" s="56"/>
-      <c r="AC115" s="108"/>
-      <c r="AD115" s="107"/>
-      <c r="AE115" s="107"/>
+      <c r="AC115" s="107"/>
+      <c r="AD115" s="106"/>
+      <c r="AE115" s="106"/>
       <c r="AF115" s="56"/>
-      <c r="AG115" s="107"/>
+      <c r="AG115" s="106"/>
       <c r="AH115" s="56"/>
       <c r="AI115" s="56"/>
       <c r="AJ115" s="56"/>
@@ -12298,14 +12368,14 @@
       <c r="V116" s="35"/>
       <c r="W116" s="37"/>
       <c r="X116" s="37"/>
-      <c r="Z116" s="106"/>
-      <c r="AA116" s="107"/>
+      <c r="Z116" s="105"/>
+      <c r="AA116" s="106"/>
       <c r="AB116" s="56"/>
-      <c r="AC116" s="108"/>
-      <c r="AD116" s="107"/>
-      <c r="AE116" s="107"/>
+      <c r="AC116" s="107"/>
+      <c r="AD116" s="106"/>
+      <c r="AE116" s="106"/>
       <c r="AF116" s="56"/>
-      <c r="AG116" s="107"/>
+      <c r="AG116" s="106"/>
       <c r="AH116" s="56"/>
       <c r="AI116" s="56"/>
       <c r="AJ116" s="56"/>
@@ -12365,14 +12435,14 @@
       <c r="V117" s="35"/>
       <c r="W117" s="37"/>
       <c r="X117" s="37"/>
-      <c r="Z117" s="106"/>
-      <c r="AA117" s="107"/>
+      <c r="Z117" s="105"/>
+      <c r="AA117" s="106"/>
       <c r="AB117" s="56"/>
-      <c r="AC117" s="108"/>
-      <c r="AD117" s="107"/>
-      <c r="AE117" s="107"/>
+      <c r="AC117" s="107"/>
+      <c r="AD117" s="106"/>
+      <c r="AE117" s="106"/>
       <c r="AF117" s="56"/>
-      <c r="AG117" s="107"/>
+      <c r="AG117" s="106"/>
       <c r="AH117" s="56"/>
       <c r="AI117" s="56"/>
       <c r="AJ117" s="56"/>
@@ -12432,14 +12502,14 @@
       <c r="V118" s="35"/>
       <c r="W118" s="37"/>
       <c r="X118" s="37"/>
-      <c r="Z118" s="106"/>
-      <c r="AA118" s="107"/>
+      <c r="Z118" s="105"/>
+      <c r="AA118" s="106"/>
       <c r="AB118" s="56"/>
-      <c r="AC118" s="108"/>
-      <c r="AD118" s="107"/>
-      <c r="AE118" s="107"/>
+      <c r="AC118" s="107"/>
+      <c r="AD118" s="106"/>
+      <c r="AE118" s="106"/>
       <c r="AF118" s="56"/>
-      <c r="AG118" s="107"/>
+      <c r="AG118" s="106"/>
       <c r="AH118" s="56"/>
       <c r="AI118" s="56"/>
       <c r="AJ118" s="56"/>
@@ -12499,14 +12569,14 @@
       <c r="V119" s="35"/>
       <c r="W119" s="37"/>
       <c r="X119" s="37"/>
-      <c r="Z119" s="106"/>
-      <c r="AA119" s="107"/>
+      <c r="Z119" s="105"/>
+      <c r="AA119" s="106"/>
       <c r="AB119" s="56"/>
-      <c r="AC119" s="108"/>
-      <c r="AD119" s="107"/>
-      <c r="AE119" s="107"/>
+      <c r="AC119" s="107"/>
+      <c r="AD119" s="106"/>
+      <c r="AE119" s="106"/>
       <c r="AF119" s="56"/>
-      <c r="AG119" s="107"/>
+      <c r="AG119" s="106"/>
       <c r="AH119" s="56"/>
       <c r="AI119" s="56"/>
       <c r="AJ119" s="56"/>
@@ -12566,14 +12636,14 @@
       <c r="V120" s="35"/>
       <c r="W120" s="37"/>
       <c r="X120" s="37"/>
-      <c r="Z120" s="106"/>
-      <c r="AA120" s="107"/>
+      <c r="Z120" s="105"/>
+      <c r="AA120" s="106"/>
       <c r="AB120" s="56"/>
-      <c r="AC120" s="108"/>
-      <c r="AD120" s="107"/>
-      <c r="AE120" s="107"/>
+      <c r="AC120" s="107"/>
+      <c r="AD120" s="106"/>
+      <c r="AE120" s="106"/>
       <c r="AF120" s="56"/>
-      <c r="AG120" s="107"/>
+      <c r="AG120" s="106"/>
       <c r="AH120" s="56"/>
       <c r="AI120" s="56"/>
       <c r="AJ120" s="56"/>
@@ -12633,14 +12703,14 @@
       <c r="V121" s="35"/>
       <c r="W121" s="37"/>
       <c r="X121" s="37"/>
-      <c r="Z121" s="106"/>
-      <c r="AA121" s="107"/>
+      <c r="Z121" s="105"/>
+      <c r="AA121" s="106"/>
       <c r="AB121" s="56"/>
-      <c r="AC121" s="108"/>
-      <c r="AD121" s="107"/>
-      <c r="AE121" s="107"/>
+      <c r="AC121" s="107"/>
+      <c r="AD121" s="106"/>
+      <c r="AE121" s="106"/>
       <c r="AF121" s="56"/>
-      <c r="AG121" s="107"/>
+      <c r="AG121" s="106"/>
       <c r="AH121" s="56"/>
       <c r="AI121" s="56"/>
       <c r="AJ121" s="56"/>
@@ -12691,14 +12761,14 @@
       <c r="V122" s="35"/>
       <c r="W122" s="37"/>
       <c r="X122" s="37"/>
-      <c r="Z122" s="106"/>
-      <c r="AA122" s="107"/>
+      <c r="Z122" s="105"/>
+      <c r="AA122" s="106"/>
       <c r="AB122" s="56"/>
-      <c r="AC122" s="108"/>
-      <c r="AD122" s="107"/>
-      <c r="AE122" s="107"/>
+      <c r="AC122" s="107"/>
+      <c r="AD122" s="106"/>
+      <c r="AE122" s="106"/>
       <c r="AF122" s="56"/>
-      <c r="AG122" s="107"/>
+      <c r="AG122" s="106"/>
       <c r="AH122" s="56"/>
       <c r="AI122" s="56"/>
       <c r="AJ122" s="56"/>
@@ -12749,14 +12819,14 @@
       <c r="V123" s="35"/>
       <c r="W123" s="37"/>
       <c r="X123" s="37"/>
-      <c r="Z123" s="106"/>
-      <c r="AA123" s="107"/>
+      <c r="Z123" s="105"/>
+      <c r="AA123" s="106"/>
       <c r="AB123" s="56"/>
-      <c r="AC123" s="108"/>
-      <c r="AD123" s="107"/>
-      <c r="AE123" s="107"/>
+      <c r="AC123" s="107"/>
+      <c r="AD123" s="106"/>
+      <c r="AE123" s="106"/>
       <c r="AF123" s="56"/>
-      <c r="AG123" s="107"/>
+      <c r="AG123" s="106"/>
       <c r="AH123" s="56"/>
       <c r="AI123" s="56"/>
       <c r="AJ123" s="56"/>
@@ -12807,14 +12877,14 @@
       <c r="V124" s="35"/>
       <c r="W124" s="37"/>
       <c r="X124" s="37"/>
-      <c r="Z124" s="106"/>
-      <c r="AA124" s="107"/>
+      <c r="Z124" s="105"/>
+      <c r="AA124" s="106"/>
       <c r="AB124" s="56"/>
-      <c r="AC124" s="108"/>
-      <c r="AD124" s="107"/>
-      <c r="AE124" s="107"/>
+      <c r="AC124" s="107"/>
+      <c r="AD124" s="106"/>
+      <c r="AE124" s="106"/>
       <c r="AF124" s="56"/>
-      <c r="AG124" s="107"/>
+      <c r="AG124" s="106"/>
       <c r="AH124" s="56"/>
       <c r="AI124" s="56"/>
       <c r="AJ124" s="56"/>
@@ -12865,14 +12935,14 @@
       <c r="V125" s="35"/>
       <c r="W125" s="37"/>
       <c r="X125" s="37"/>
-      <c r="Z125" s="106"/>
-      <c r="AA125" s="107"/>
+      <c r="Z125" s="105"/>
+      <c r="AA125" s="106"/>
       <c r="AB125" s="56"/>
-      <c r="AC125" s="108"/>
-      <c r="AD125" s="107"/>
-      <c r="AE125" s="107"/>
+      <c r="AC125" s="107"/>
+      <c r="AD125" s="106"/>
+      <c r="AE125" s="106"/>
       <c r="AF125" s="56"/>
-      <c r="AG125" s="107"/>
+      <c r="AG125" s="106"/>
       <c r="AH125" s="56"/>
       <c r="AI125" s="56"/>
       <c r="AJ125" s="56"/>
@@ -12923,14 +12993,14 @@
       <c r="V126" s="35"/>
       <c r="W126" s="37"/>
       <c r="X126" s="37"/>
-      <c r="Z126" s="106"/>
-      <c r="AA126" s="107"/>
+      <c r="Z126" s="105"/>
+      <c r="AA126" s="106"/>
       <c r="AB126" s="56"/>
-      <c r="AC126" s="108"/>
-      <c r="AD126" s="107"/>
-      <c r="AE126" s="107"/>
+      <c r="AC126" s="107"/>
+      <c r="AD126" s="106"/>
+      <c r="AE126" s="106"/>
       <c r="AF126" s="56"/>
-      <c r="AG126" s="107"/>
+      <c r="AG126" s="106"/>
       <c r="AH126" s="56"/>
       <c r="AI126" s="56"/>
       <c r="AJ126" s="56"/>
@@ -12981,14 +13051,14 @@
       <c r="V127" s="35"/>
       <c r="W127" s="37"/>
       <c r="X127" s="37"/>
-      <c r="Z127" s="106"/>
-      <c r="AA127" s="107"/>
+      <c r="Z127" s="105"/>
+      <c r="AA127" s="106"/>
       <c r="AB127" s="56"/>
-      <c r="AC127" s="108"/>
-      <c r="AD127" s="107"/>
-      <c r="AE127" s="107"/>
+      <c r="AC127" s="107"/>
+      <c r="AD127" s="106"/>
+      <c r="AE127" s="106"/>
       <c r="AF127" s="56"/>
-      <c r="AG127" s="107"/>
+      <c r="AG127" s="106"/>
       <c r="AH127" s="56"/>
       <c r="AI127" s="56"/>
       <c r="AJ127" s="56"/>
@@ -13039,14 +13109,14 @@
       <c r="V128" s="35"/>
       <c r="W128" s="37"/>
       <c r="X128" s="37"/>
-      <c r="Z128" s="106"/>
-      <c r="AA128" s="107"/>
+      <c r="Z128" s="105"/>
+      <c r="AA128" s="106"/>
       <c r="AB128" s="56"/>
-      <c r="AC128" s="108"/>
-      <c r="AD128" s="107"/>
-      <c r="AE128" s="107"/>
+      <c r="AC128" s="107"/>
+      <c r="AD128" s="106"/>
+      <c r="AE128" s="106"/>
       <c r="AF128" s="56"/>
-      <c r="AG128" s="107"/>
+      <c r="AG128" s="106"/>
       <c r="AH128" s="56"/>
       <c r="AI128" s="56"/>
       <c r="AJ128" s="56"/>
@@ -13097,14 +13167,14 @@
       <c r="V129" s="35"/>
       <c r="W129" s="37"/>
       <c r="X129" s="37"/>
-      <c r="Z129" s="106"/>
-      <c r="AA129" s="107"/>
+      <c r="Z129" s="105"/>
+      <c r="AA129" s="106"/>
       <c r="AB129" s="56"/>
-      <c r="AC129" s="108"/>
-      <c r="AD129" s="107"/>
-      <c r="AE129" s="107"/>
+      <c r="AC129" s="107"/>
+      <c r="AD129" s="106"/>
+      <c r="AE129" s="106"/>
       <c r="AF129" s="56"/>
-      <c r="AG129" s="107"/>
+      <c r="AG129" s="106"/>
       <c r="AH129" s="56"/>
       <c r="AI129" s="56"/>
       <c r="AJ129" s="56"/>
@@ -13141,12 +13211,12 @@
       <c r="I130" s="13"/>
       <c r="J130" s="12"/>
       <c r="K130" s="14"/>
-      <c r="M130" s="91"/>
-      <c r="N130" s="91"/>
-      <c r="O130" s="91"/>
-      <c r="P130" s="92"/>
-      <c r="Q130" s="90"/>
-      <c r="R130" s="93">
+      <c r="M130" s="90"/>
+      <c r="N130" s="90"/>
+      <c r="O130" s="90"/>
+      <c r="P130" s="91"/>
+      <c r="Q130" s="89"/>
+      <c r="R130" s="92">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13155,14 +13225,14 @@
       <c r="V130" s="35"/>
       <c r="W130" s="37"/>
       <c r="X130" s="37"/>
-      <c r="Z130" s="106"/>
-      <c r="AA130" s="107"/>
+      <c r="Z130" s="105"/>
+      <c r="AA130" s="106"/>
       <c r="AB130" s="56"/>
-      <c r="AC130" s="108"/>
-      <c r="AD130" s="107"/>
-      <c r="AE130" s="107"/>
+      <c r="AC130" s="107"/>
+      <c r="AD130" s="106"/>
+      <c r="AE130" s="106"/>
       <c r="AF130" s="56"/>
-      <c r="AG130" s="107"/>
+      <c r="AG130" s="106"/>
       <c r="AH130" s="56"/>
       <c r="AI130" s="56"/>
       <c r="AJ130" s="56"/>
@@ -13199,12 +13269,12 @@
       <c r="I131" s="13"/>
       <c r="J131" s="12"/>
       <c r="K131" s="14"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="91"/>
-      <c r="O131" s="91"/>
-      <c r="P131" s="92"/>
-      <c r="Q131" s="90"/>
-      <c r="R131" s="93">
+      <c r="M131" s="90"/>
+      <c r="N131" s="90"/>
+      <c r="O131" s="90"/>
+      <c r="P131" s="91"/>
+      <c r="Q131" s="89"/>
+      <c r="R131" s="92">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13213,14 +13283,14 @@
       <c r="V131" s="35"/>
       <c r="W131" s="37"/>
       <c r="X131" s="37"/>
-      <c r="Z131" s="106"/>
-      <c r="AA131" s="107"/>
+      <c r="Z131" s="105"/>
+      <c r="AA131" s="106"/>
       <c r="AB131" s="56"/>
-      <c r="AC131" s="108"/>
-      <c r="AD131" s="107"/>
-      <c r="AE131" s="107"/>
+      <c r="AC131" s="107"/>
+      <c r="AD131" s="106"/>
+      <c r="AE131" s="106"/>
       <c r="AF131" s="56"/>
-      <c r="AG131" s="107"/>
+      <c r="AG131" s="106"/>
       <c r="AH131" s="56"/>
       <c r="AI131" s="56"/>
       <c r="AJ131" s="56"/>
@@ -13257,12 +13327,12 @@
       <c r="I132" s="13"/>
       <c r="J132" s="12"/>
       <c r="K132" s="14"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="91"/>
-      <c r="O132" s="91"/>
-      <c r="P132" s="92"/>
-      <c r="Q132" s="90"/>
-      <c r="R132" s="93">
+      <c r="M132" s="90"/>
+      <c r="N132" s="90"/>
+      <c r="O132" s="90"/>
+      <c r="P132" s="91"/>
+      <c r="Q132" s="89"/>
+      <c r="R132" s="92">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13271,14 +13341,14 @@
       <c r="V132" s="35"/>
       <c r="W132" s="37"/>
       <c r="X132" s="37"/>
-      <c r="Z132" s="106"/>
-      <c r="AA132" s="107"/>
+      <c r="Z132" s="105"/>
+      <c r="AA132" s="106"/>
       <c r="AB132" s="56"/>
-      <c r="AC132" s="108"/>
-      <c r="AD132" s="107"/>
-      <c r="AE132" s="107"/>
+      <c r="AC132" s="107"/>
+      <c r="AD132" s="106"/>
+      <c r="AE132" s="106"/>
       <c r="AF132" s="56"/>
-      <c r="AG132" s="107"/>
+      <c r="AG132" s="106"/>
       <c r="AH132" s="56"/>
       <c r="AI132" s="56"/>
       <c r="AJ132" s="56"/>
@@ -13315,12 +13385,12 @@
       <c r="I133" s="13"/>
       <c r="J133" s="12"/>
       <c r="K133" s="14"/>
-      <c r="M133" s="91"/>
-      <c r="N133" s="91"/>
-      <c r="O133" s="91"/>
-      <c r="P133" s="92"/>
-      <c r="Q133" s="90"/>
-      <c r="R133" s="93">
+      <c r="M133" s="90"/>
+      <c r="N133" s="90"/>
+      <c r="O133" s="90"/>
+      <c r="P133" s="91"/>
+      <c r="Q133" s="89"/>
+      <c r="R133" s="92">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13329,14 +13399,14 @@
       <c r="V133" s="35"/>
       <c r="W133" s="37"/>
       <c r="X133" s="37"/>
-      <c r="Z133" s="106"/>
-      <c r="AA133" s="107"/>
+      <c r="Z133" s="105"/>
+      <c r="AA133" s="106"/>
       <c r="AB133" s="56"/>
-      <c r="AC133" s="108"/>
-      <c r="AD133" s="107"/>
-      <c r="AE133" s="107"/>
+      <c r="AC133" s="107"/>
+      <c r="AD133" s="106"/>
+      <c r="AE133" s="106"/>
       <c r="AF133" s="56"/>
-      <c r="AG133" s="107"/>
+      <c r="AG133" s="106"/>
       <c r="AH133" s="56"/>
       <c r="AI133" s="56"/>
       <c r="AJ133" s="56"/>
@@ -13373,12 +13443,12 @@
       <c r="I134" s="13"/>
       <c r="J134" s="12"/>
       <c r="K134" s="14"/>
-      <c r="M134" s="91"/>
-      <c r="N134" s="91"/>
-      <c r="O134" s="91"/>
-      <c r="P134" s="92"/>
-      <c r="Q134" s="90"/>
-      <c r="R134" s="93">
+      <c r="M134" s="90"/>
+      <c r="N134" s="90"/>
+      <c r="O134" s="90"/>
+      <c r="P134" s="91"/>
+      <c r="Q134" s="89"/>
+      <c r="R134" s="92">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -13387,14 +13457,14 @@
       <c r="V134" s="35"/>
       <c r="W134" s="37"/>
       <c r="X134" s="37"/>
-      <c r="Z134" s="106"/>
-      <c r="AA134" s="107"/>
+      <c r="Z134" s="105"/>
+      <c r="AA134" s="106"/>
       <c r="AB134" s="56"/>
-      <c r="AC134" s="108"/>
-      <c r="AD134" s="107"/>
-      <c r="AE134" s="107"/>
+      <c r="AC134" s="107"/>
+      <c r="AD134" s="106"/>
+      <c r="AE134" s="106"/>
       <c r="AF134" s="56"/>
-      <c r="AG134" s="107"/>
+      <c r="AG134" s="106"/>
       <c r="AH134" s="56"/>
       <c r="AI134" s="56"/>
       <c r="AJ134" s="56"/>
@@ -13431,25 +13501,25 @@
       <c r="I135" s="13"/>
       <c r="J135" s="12"/>
       <c r="K135" s="14"/>
-      <c r="M135" s="95"/>
-      <c r="N135" s="95"/>
-      <c r="O135" s="95"/>
-      <c r="P135" s="95"/>
-      <c r="Q135" s="95"/>
-      <c r="R135" s="95"/>
+      <c r="M135" s="94"/>
+      <c r="N135" s="94"/>
+      <c r="O135" s="94"/>
+      <c r="P135" s="94"/>
+      <c r="Q135" s="94"/>
+      <c r="R135" s="94"/>
       <c r="T135" s="35"/>
       <c r="U135" s="35"/>
       <c r="V135" s="35"/>
       <c r="W135" s="37"/>
       <c r="X135" s="37"/>
-      <c r="Z135" s="106"/>
-      <c r="AA135" s="107"/>
+      <c r="Z135" s="105"/>
+      <c r="AA135" s="106"/>
       <c r="AB135" s="56"/>
-      <c r="AC135" s="108"/>
-      <c r="AD135" s="107"/>
-      <c r="AE135" s="107"/>
+      <c r="AC135" s="107"/>
+      <c r="AD135" s="106"/>
+      <c r="AE135" s="106"/>
       <c r="AF135" s="56"/>
-      <c r="AG135" s="107"/>
+      <c r="AG135" s="106"/>
       <c r="AH135" s="56"/>
       <c r="AI135" s="56"/>
       <c r="AJ135" s="56"/>
@@ -13486,25 +13556,25 @@
       <c r="I136" s="13"/>
       <c r="J136" s="12"/>
       <c r="K136" s="14"/>
-      <c r="M136" s="95"/>
-      <c r="N136" s="95"/>
-      <c r="O136" s="95"/>
-      <c r="P136" s="95"/>
-      <c r="Q136" s="95"/>
-      <c r="R136" s="95"/>
+      <c r="M136" s="94"/>
+      <c r="N136" s="94"/>
+      <c r="O136" s="94"/>
+      <c r="P136" s="94"/>
+      <c r="Q136" s="94"/>
+      <c r="R136" s="94"/>
       <c r="T136" s="35"/>
       <c r="U136" s="35"/>
       <c r="V136" s="35"/>
       <c r="W136" s="37"/>
       <c r="X136" s="37"/>
-      <c r="Z136" s="106"/>
-      <c r="AA136" s="107"/>
+      <c r="Z136" s="105"/>
+      <c r="AA136" s="106"/>
       <c r="AB136" s="56"/>
-      <c r="AC136" s="108"/>
-      <c r="AD136" s="107"/>
-      <c r="AE136" s="107"/>
+      <c r="AC136" s="107"/>
+      <c r="AD136" s="106"/>
+      <c r="AE136" s="106"/>
       <c r="AF136" s="56"/>
-      <c r="AG136" s="107"/>
+      <c r="AG136" s="106"/>
       <c r="AH136" s="56"/>
       <c r="AI136" s="56"/>
       <c r="AJ136" s="56"/>
@@ -13541,25 +13611,25 @@
       <c r="I137" s="13"/>
       <c r="J137" s="12"/>
       <c r="K137" s="14"/>
-      <c r="M137" s="95"/>
-      <c r="N137" s="95"/>
-      <c r="O137" s="95"/>
-      <c r="P137" s="95"/>
-      <c r="Q137" s="95"/>
-      <c r="R137" s="95"/>
+      <c r="M137" s="94"/>
+      <c r="N137" s="94"/>
+      <c r="O137" s="94"/>
+      <c r="P137" s="94"/>
+      <c r="Q137" s="94"/>
+      <c r="R137" s="94"/>
       <c r="T137" s="35"/>
       <c r="U137" s="35"/>
       <c r="V137" s="35"/>
       <c r="W137" s="37"/>
       <c r="X137" s="37"/>
-      <c r="Z137" s="106"/>
-      <c r="AA137" s="107"/>
+      <c r="Z137" s="105"/>
+      <c r="AA137" s="106"/>
       <c r="AB137" s="56"/>
-      <c r="AC137" s="108"/>
-      <c r="AD137" s="107"/>
-      <c r="AE137" s="107"/>
+      <c r="AC137" s="107"/>
+      <c r="AD137" s="106"/>
+      <c r="AE137" s="106"/>
       <c r="AF137" s="56"/>
-      <c r="AG137" s="107"/>
+      <c r="AG137" s="106"/>
       <c r="AH137" s="56"/>
       <c r="AI137" s="56"/>
       <c r="AJ137" s="56"/>
@@ -13596,25 +13666,25 @@
       <c r="I138" s="13"/>
       <c r="J138" s="12"/>
       <c r="K138" s="14"/>
-      <c r="M138" s="95"/>
-      <c r="N138" s="95"/>
-      <c r="O138" s="95"/>
-      <c r="P138" s="95"/>
-      <c r="Q138" s="95"/>
-      <c r="R138" s="95"/>
+      <c r="M138" s="94"/>
+      <c r="N138" s="94"/>
+      <c r="O138" s="94"/>
+      <c r="P138" s="94"/>
+      <c r="Q138" s="94"/>
+      <c r="R138" s="94"/>
       <c r="T138" s="35"/>
       <c r="U138" s="35"/>
       <c r="V138" s="35"/>
       <c r="W138" s="37"/>
       <c r="X138" s="37"/>
-      <c r="Z138" s="106"/>
-      <c r="AA138" s="107"/>
+      <c r="Z138" s="105"/>
+      <c r="AA138" s="106"/>
       <c r="AB138" s="56"/>
-      <c r="AC138" s="108"/>
-      <c r="AD138" s="107"/>
-      <c r="AE138" s="107"/>
+      <c r="AC138" s="107"/>
+      <c r="AD138" s="106"/>
+      <c r="AE138" s="106"/>
       <c r="AF138" s="56"/>
-      <c r="AG138" s="107"/>
+      <c r="AG138" s="106"/>
       <c r="AH138" s="56"/>
       <c r="AI138" s="56"/>
       <c r="AJ138" s="56"/>
@@ -13651,25 +13721,25 @@
       <c r="I139" s="13"/>
       <c r="J139" s="12"/>
       <c r="K139" s="14"/>
-      <c r="M139" s="95"/>
-      <c r="N139" s="95"/>
-      <c r="O139" s="95"/>
-      <c r="P139" s="95"/>
-      <c r="Q139" s="95"/>
-      <c r="R139" s="95"/>
+      <c r="M139" s="94"/>
+      <c r="N139" s="94"/>
+      <c r="O139" s="94"/>
+      <c r="P139" s="94"/>
+      <c r="Q139" s="94"/>
+      <c r="R139" s="94"/>
       <c r="T139" s="35"/>
       <c r="U139" s="35"/>
       <c r="V139" s="35"/>
       <c r="W139" s="37"/>
       <c r="X139" s="37"/>
-      <c r="Z139" s="106"/>
-      <c r="AA139" s="107"/>
+      <c r="Z139" s="105"/>
+      <c r="AA139" s="106"/>
       <c r="AB139" s="56"/>
-      <c r="AC139" s="108"/>
-      <c r="AD139" s="107"/>
-      <c r="AE139" s="107"/>
+      <c r="AC139" s="107"/>
+      <c r="AD139" s="106"/>
+      <c r="AE139" s="106"/>
       <c r="AF139" s="56"/>
-      <c r="AG139" s="107"/>
+      <c r="AG139" s="106"/>
       <c r="AH139" s="56"/>
       <c r="AI139" s="56"/>
       <c r="AJ139" s="56"/>
@@ -13706,25 +13776,25 @@
       <c r="I140" s="13"/>
       <c r="J140" s="12"/>
       <c r="K140" s="14"/>
-      <c r="M140" s="95"/>
-      <c r="N140" s="95"/>
-      <c r="O140" s="95"/>
-      <c r="P140" s="95"/>
-      <c r="Q140" s="95"/>
-      <c r="R140" s="95"/>
+      <c r="M140" s="94"/>
+      <c r="N140" s="94"/>
+      <c r="O140" s="94"/>
+      <c r="P140" s="94"/>
+      <c r="Q140" s="94"/>
+      <c r="R140" s="94"/>
       <c r="T140" s="35"/>
       <c r="U140" s="35"/>
       <c r="V140" s="35"/>
       <c r="W140" s="37"/>
       <c r="X140" s="37"/>
-      <c r="Z140" s="106"/>
-      <c r="AA140" s="107"/>
+      <c r="Z140" s="105"/>
+      <c r="AA140" s="106"/>
       <c r="AB140" s="56"/>
-      <c r="AC140" s="108"/>
-      <c r="AD140" s="107"/>
-      <c r="AE140" s="107"/>
+      <c r="AC140" s="107"/>
+      <c r="AD140" s="106"/>
+      <c r="AE140" s="106"/>
       <c r="AF140" s="56"/>
-      <c r="AG140" s="107"/>
+      <c r="AG140" s="106"/>
       <c r="AH140" s="56"/>
       <c r="AI140" s="56"/>
       <c r="AJ140" s="56"/>
@@ -13761,25 +13831,25 @@
       <c r="I141" s="13"/>
       <c r="J141" s="12"/>
       <c r="K141" s="14"/>
-      <c r="M141" s="95"/>
-      <c r="N141" s="95"/>
-      <c r="O141" s="95"/>
-      <c r="P141" s="95"/>
-      <c r="Q141" s="95"/>
-      <c r="R141" s="95"/>
+      <c r="M141" s="94"/>
+      <c r="N141" s="94"/>
+      <c r="O141" s="94"/>
+      <c r="P141" s="94"/>
+      <c r="Q141" s="94"/>
+      <c r="R141" s="94"/>
       <c r="T141" s="35"/>
       <c r="U141" s="35"/>
       <c r="V141" s="35"/>
       <c r="W141" s="37"/>
       <c r="X141" s="37"/>
-      <c r="Z141" s="106"/>
-      <c r="AA141" s="107"/>
+      <c r="Z141" s="105"/>
+      <c r="AA141" s="106"/>
       <c r="AB141" s="56"/>
-      <c r="AC141" s="108"/>
-      <c r="AD141" s="107"/>
-      <c r="AE141" s="107"/>
+      <c r="AC141" s="107"/>
+      <c r="AD141" s="106"/>
+      <c r="AE141" s="106"/>
       <c r="AF141" s="56"/>
-      <c r="AG141" s="107"/>
+      <c r="AG141" s="106"/>
       <c r="AH141" s="56"/>
       <c r="AI141" s="56"/>
       <c r="AJ141" s="56"/>
@@ -13816,25 +13886,25 @@
       <c r="I142" s="13"/>
       <c r="J142" s="12"/>
       <c r="K142" s="14"/>
-      <c r="M142" s="95"/>
-      <c r="N142" s="95"/>
-      <c r="O142" s="95"/>
-      <c r="P142" s="95"/>
-      <c r="Q142" s="95"/>
-      <c r="R142" s="95"/>
+      <c r="M142" s="94"/>
+      <c r="N142" s="94"/>
+      <c r="O142" s="94"/>
+      <c r="P142" s="94"/>
+      <c r="Q142" s="94"/>
+      <c r="R142" s="94"/>
       <c r="T142" s="35"/>
       <c r="U142" s="35"/>
       <c r="V142" s="35"/>
       <c r="W142" s="37"/>
       <c r="X142" s="37"/>
-      <c r="Z142" s="106"/>
-      <c r="AA142" s="107"/>
+      <c r="Z142" s="105"/>
+      <c r="AA142" s="106"/>
       <c r="AB142" s="56"/>
-      <c r="AC142" s="108"/>
-      <c r="AD142" s="107"/>
-      <c r="AE142" s="107"/>
+      <c r="AC142" s="107"/>
+      <c r="AD142" s="106"/>
+      <c r="AE142" s="106"/>
       <c r="AF142" s="56"/>
-      <c r="AG142" s="107"/>
+      <c r="AG142" s="106"/>
       <c r="AH142" s="56"/>
       <c r="AI142" s="56"/>
       <c r="AJ142" s="56"/>
@@ -13871,25 +13941,25 @@
       <c r="I143" s="13"/>
       <c r="J143" s="12"/>
       <c r="K143" s="14"/>
-      <c r="M143" s="95"/>
-      <c r="N143" s="95"/>
-      <c r="O143" s="95"/>
-      <c r="P143" s="95"/>
-      <c r="Q143" s="95"/>
-      <c r="R143" s="95"/>
+      <c r="M143" s="94"/>
+      <c r="N143" s="94"/>
+      <c r="O143" s="94"/>
+      <c r="P143" s="94"/>
+      <c r="Q143" s="94"/>
+      <c r="R143" s="94"/>
       <c r="T143" s="35"/>
       <c r="U143" s="35"/>
       <c r="V143" s="35"/>
       <c r="W143" s="37"/>
       <c r="X143" s="37"/>
-      <c r="Z143" s="106"/>
-      <c r="AA143" s="107"/>
+      <c r="Z143" s="105"/>
+      <c r="AA143" s="106"/>
       <c r="AB143" s="56"/>
-      <c r="AC143" s="108"/>
-      <c r="AD143" s="107"/>
-      <c r="AE143" s="107"/>
+      <c r="AC143" s="107"/>
+      <c r="AD143" s="106"/>
+      <c r="AE143" s="106"/>
       <c r="AF143" s="56"/>
-      <c r="AG143" s="107"/>
+      <c r="AG143" s="106"/>
       <c r="AH143" s="56"/>
       <c r="AI143" s="56"/>
       <c r="AJ143" s="56"/>
@@ -13926,25 +13996,25 @@
       <c r="I144" s="13"/>
       <c r="J144" s="12"/>
       <c r="K144" s="14"/>
-      <c r="M144" s="95"/>
-      <c r="N144" s="95"/>
-      <c r="O144" s="95"/>
-      <c r="P144" s="95"/>
-      <c r="Q144" s="95"/>
-      <c r="R144" s="95"/>
+      <c r="M144" s="94"/>
+      <c r="N144" s="94"/>
+      <c r="O144" s="94"/>
+      <c r="P144" s="94"/>
+      <c r="Q144" s="94"/>
+      <c r="R144" s="94"/>
       <c r="T144" s="35"/>
       <c r="U144" s="35"/>
       <c r="V144" s="35"/>
       <c r="W144" s="37"/>
       <c r="X144" s="37"/>
-      <c r="Z144" s="106"/>
-      <c r="AA144" s="107"/>
+      <c r="Z144" s="105"/>
+      <c r="AA144" s="106"/>
       <c r="AB144" s="56"/>
-      <c r="AC144" s="108"/>
-      <c r="AD144" s="107"/>
-      <c r="AE144" s="107"/>
+      <c r="AC144" s="107"/>
+      <c r="AD144" s="106"/>
+      <c r="AE144" s="106"/>
       <c r="AF144" s="56"/>
-      <c r="AG144" s="107"/>
+      <c r="AG144" s="106"/>
       <c r="AH144" s="56"/>
       <c r="AI144" s="56"/>
       <c r="AJ144" s="56"/>
@@ -13981,25 +14051,25 @@
       <c r="I145" s="13"/>
       <c r="J145" s="12"/>
       <c r="K145" s="14"/>
-      <c r="M145" s="95"/>
-      <c r="N145" s="95"/>
-      <c r="O145" s="95"/>
-      <c r="P145" s="95"/>
-      <c r="Q145" s="95"/>
-      <c r="R145" s="95"/>
+      <c r="M145" s="94"/>
+      <c r="N145" s="94"/>
+      <c r="O145" s="94"/>
+      <c r="P145" s="94"/>
+      <c r="Q145" s="94"/>
+      <c r="R145" s="94"/>
       <c r="T145" s="35"/>
       <c r="U145" s="35"/>
       <c r="V145" s="35"/>
       <c r="W145" s="37"/>
       <c r="X145" s="37"/>
-      <c r="Z145" s="106"/>
-      <c r="AA145" s="107"/>
+      <c r="Z145" s="105"/>
+      <c r="AA145" s="106"/>
       <c r="AB145" s="56"/>
-      <c r="AC145" s="108"/>
-      <c r="AD145" s="107"/>
-      <c r="AE145" s="107"/>
+      <c r="AC145" s="107"/>
+      <c r="AD145" s="106"/>
+      <c r="AE145" s="106"/>
       <c r="AF145" s="56"/>
-      <c r="AG145" s="107"/>
+      <c r="AG145" s="106"/>
       <c r="AH145" s="56"/>
       <c r="AI145" s="56"/>
       <c r="AJ145" s="56"/>
@@ -14036,25 +14106,25 @@
       <c r="I146" s="13"/>
       <c r="J146" s="12"/>
       <c r="K146" s="14"/>
-      <c r="M146" s="95"/>
-      <c r="N146" s="95"/>
-      <c r="O146" s="95"/>
-      <c r="P146" s="95"/>
-      <c r="Q146" s="95"/>
-      <c r="R146" s="95"/>
+      <c r="M146" s="94"/>
+      <c r="N146" s="94"/>
+      <c r="O146" s="94"/>
+      <c r="P146" s="94"/>
+      <c r="Q146" s="94"/>
+      <c r="R146" s="94"/>
       <c r="T146" s="35"/>
       <c r="U146" s="35"/>
       <c r="V146" s="35"/>
       <c r="W146" s="37"/>
       <c r="X146" s="37"/>
-      <c r="Z146" s="106"/>
-      <c r="AA146" s="107"/>
+      <c r="Z146" s="105"/>
+      <c r="AA146" s="106"/>
       <c r="AB146" s="56"/>
-      <c r="AC146" s="108"/>
-      <c r="AD146" s="107"/>
-      <c r="AE146" s="107"/>
+      <c r="AC146" s="107"/>
+      <c r="AD146" s="106"/>
+      <c r="AE146" s="106"/>
       <c r="AF146" s="56"/>
-      <c r="AG146" s="107"/>
+      <c r="AG146" s="106"/>
       <c r="AH146" s="56"/>
       <c r="AI146" s="56"/>
       <c r="AJ146" s="56"/>
@@ -14091,25 +14161,25 @@
       <c r="I147" s="13"/>
       <c r="J147" s="12"/>
       <c r="K147" s="14"/>
-      <c r="M147" s="95"/>
-      <c r="N147" s="95"/>
-      <c r="O147" s="95"/>
-      <c r="P147" s="95"/>
-      <c r="Q147" s="95"/>
-      <c r="R147" s="95"/>
+      <c r="M147" s="94"/>
+      <c r="N147" s="94"/>
+      <c r="O147" s="94"/>
+      <c r="P147" s="94"/>
+      <c r="Q147" s="94"/>
+      <c r="R147" s="94"/>
       <c r="T147" s="35"/>
       <c r="U147" s="35"/>
       <c r="V147" s="35"/>
       <c r="W147" s="37"/>
       <c r="X147" s="37"/>
-      <c r="Z147" s="106"/>
-      <c r="AA147" s="107"/>
+      <c r="Z147" s="105"/>
+      <c r="AA147" s="106"/>
       <c r="AB147" s="56"/>
-      <c r="AC147" s="108"/>
-      <c r="AD147" s="107"/>
-      <c r="AE147" s="107"/>
+      <c r="AC147" s="107"/>
+      <c r="AD147" s="106"/>
+      <c r="AE147" s="106"/>
       <c r="AF147" s="56"/>
-      <c r="AG147" s="107"/>
+      <c r="AG147" s="106"/>
       <c r="AH147" s="56"/>
       <c r="AI147" s="56"/>
       <c r="AJ147" s="56"/>
@@ -14146,25 +14216,25 @@
       <c r="I148" s="13"/>
       <c r="J148" s="12"/>
       <c r="K148" s="14"/>
-      <c r="M148" s="95"/>
-      <c r="N148" s="95"/>
-      <c r="O148" s="95"/>
-      <c r="P148" s="95"/>
-      <c r="Q148" s="95"/>
-      <c r="R148" s="95"/>
+      <c r="M148" s="94"/>
+      <c r="N148" s="94"/>
+      <c r="O148" s="94"/>
+      <c r="P148" s="94"/>
+      <c r="Q148" s="94"/>
+      <c r="R148" s="94"/>
       <c r="T148" s="35"/>
       <c r="U148" s="35"/>
       <c r="V148" s="35"/>
       <c r="W148" s="37"/>
       <c r="X148" s="37"/>
-      <c r="Z148" s="106"/>
-      <c r="AA148" s="107"/>
+      <c r="Z148" s="105"/>
+      <c r="AA148" s="106"/>
       <c r="AB148" s="56"/>
-      <c r="AC148" s="108"/>
-      <c r="AD148" s="107"/>
-      <c r="AE148" s="107"/>
+      <c r="AC148" s="107"/>
+      <c r="AD148" s="106"/>
+      <c r="AE148" s="106"/>
       <c r="AF148" s="56"/>
-      <c r="AG148" s="107"/>
+      <c r="AG148" s="106"/>
       <c r="AH148" s="56"/>
       <c r="AI148" s="56"/>
       <c r="AJ148" s="56"/>
@@ -14201,25 +14271,25 @@
       <c r="I149" s="13"/>
       <c r="J149" s="12"/>
       <c r="K149" s="14"/>
-      <c r="M149" s="95"/>
-      <c r="N149" s="95"/>
-      <c r="O149" s="95"/>
-      <c r="P149" s="95"/>
-      <c r="Q149" s="95"/>
-      <c r="R149" s="95"/>
+      <c r="M149" s="94"/>
+      <c r="N149" s="94"/>
+      <c r="O149" s="94"/>
+      <c r="P149" s="94"/>
+      <c r="Q149" s="94"/>
+      <c r="R149" s="94"/>
       <c r="T149" s="35"/>
       <c r="U149" s="35"/>
       <c r="V149" s="35"/>
       <c r="W149" s="37"/>
       <c r="X149" s="37"/>
-      <c r="Z149" s="106"/>
-      <c r="AA149" s="107"/>
+      <c r="Z149" s="105"/>
+      <c r="AA149" s="106"/>
       <c r="AB149" s="56"/>
-      <c r="AC149" s="108"/>
-      <c r="AD149" s="107"/>
-      <c r="AE149" s="107"/>
+      <c r="AC149" s="107"/>
+      <c r="AD149" s="106"/>
+      <c r="AE149" s="106"/>
       <c r="AF149" s="56"/>
-      <c r="AG149" s="107"/>
+      <c r="AG149" s="106"/>
       <c r="AH149" s="56"/>
       <c r="AI149" s="56"/>
       <c r="AJ149" s="56"/>
@@ -14248,30 +14318,30 @@
       <c r="BG149" s="56"/>
       <c r="BH149" s="56"/>
     </row>
-    <row r="150" spans="5:60" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:60" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E150">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I150" s="88"/>
-      <c r="J150" s="89"/>
-      <c r="K150" s="90"/>
-      <c r="M150" s="95"/>
-      <c r="N150" s="95"/>
-      <c r="O150" s="95"/>
-      <c r="P150" s="95"/>
-      <c r="Q150" s="95"/>
-      <c r="R150" s="95"/>
-      <c r="W150" s="94"/>
-      <c r="X150" s="94"/>
-      <c r="Z150" s="106"/>
+      <c r="I150" s="87"/>
+      <c r="J150" s="88"/>
+      <c r="K150" s="89"/>
+      <c r="M150" s="94"/>
+      <c r="N150" s="94"/>
+      <c r="O150" s="94"/>
+      <c r="P150" s="94"/>
+      <c r="Q150" s="94"/>
+      <c r="R150" s="94"/>
+      <c r="W150" s="93"/>
+      <c r="X150" s="93"/>
+      <c r="Z150" s="105"/>
       <c r="AA150" s="56"/>
-      <c r="AB150" s="107"/>
-      <c r="AC150" s="108"/>
-      <c r="AD150" s="107"/>
-      <c r="AE150" s="107"/>
+      <c r="AB150" s="106"/>
+      <c r="AC150" s="107"/>
+      <c r="AD150" s="106"/>
+      <c r="AE150" s="106"/>
       <c r="AF150" s="56"/>
-      <c r="AG150" s="107"/>
+      <c r="AG150" s="106"/>
       <c r="AH150" s="56"/>
       <c r="AI150" s="56"/>
       <c r="AJ150" s="56"/>
@@ -14300,30 +14370,30 @@
       <c r="BG150" s="56"/>
       <c r="BH150" s="56"/>
     </row>
-    <row r="151" spans="5:60" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:60" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E151">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I151" s="88"/>
-      <c r="J151" s="89"/>
-      <c r="K151" s="90"/>
-      <c r="M151" s="95"/>
-      <c r="N151" s="95"/>
-      <c r="O151" s="95"/>
-      <c r="P151" s="95"/>
-      <c r="Q151" s="95"/>
-      <c r="R151" s="95"/>
-      <c r="W151" s="94"/>
-      <c r="X151" s="94"/>
-      <c r="Z151" s="106"/>
+      <c r="I151" s="87"/>
+      <c r="J151" s="88"/>
+      <c r="K151" s="89"/>
+      <c r="M151" s="94"/>
+      <c r="N151" s="94"/>
+      <c r="O151" s="94"/>
+      <c r="P151" s="94"/>
+      <c r="Q151" s="94"/>
+      <c r="R151" s="94"/>
+      <c r="W151" s="93"/>
+      <c r="X151" s="93"/>
+      <c r="Z151" s="105"/>
       <c r="AA151" s="56"/>
-      <c r="AB151" s="107"/>
-      <c r="AC151" s="108"/>
-      <c r="AD151" s="107"/>
-      <c r="AE151" s="107"/>
+      <c r="AB151" s="106"/>
+      <c r="AC151" s="107"/>
+      <c r="AD151" s="106"/>
+      <c r="AE151" s="106"/>
       <c r="AF151" s="56"/>
-      <c r="AG151" s="107"/>
+      <c r="AG151" s="106"/>
       <c r="AH151" s="56"/>
       <c r="AI151" s="56"/>
       <c r="AJ151" s="56"/>
@@ -14352,30 +14422,30 @@
       <c r="BG151" s="56"/>
       <c r="BH151" s="56"/>
     </row>
-    <row r="152" spans="5:60" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:60" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E152">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I152" s="88"/>
-      <c r="J152" s="89"/>
-      <c r="K152" s="90"/>
-      <c r="M152" s="95"/>
-      <c r="N152" s="95"/>
-      <c r="O152" s="95"/>
-      <c r="P152" s="95"/>
-      <c r="Q152" s="95"/>
-      <c r="R152" s="95"/>
-      <c r="W152" s="94"/>
-      <c r="X152" s="94"/>
-      <c r="Z152" s="106"/>
+      <c r="I152" s="87"/>
+      <c r="J152" s="88"/>
+      <c r="K152" s="89"/>
+      <c r="M152" s="94"/>
+      <c r="N152" s="94"/>
+      <c r="O152" s="94"/>
+      <c r="P152" s="94"/>
+      <c r="Q152" s="94"/>
+      <c r="R152" s="94"/>
+      <c r="W152" s="93"/>
+      <c r="X152" s="93"/>
+      <c r="Z152" s="105"/>
       <c r="AA152" s="56"/>
-      <c r="AB152" s="107"/>
-      <c r="AC152" s="108"/>
-      <c r="AD152" s="107"/>
-      <c r="AE152" s="107"/>
+      <c r="AB152" s="106"/>
+      <c r="AC152" s="107"/>
+      <c r="AD152" s="106"/>
+      <c r="AE152" s="106"/>
       <c r="AF152" s="56"/>
-      <c r="AG152" s="107"/>
+      <c r="AG152" s="106"/>
       <c r="AH152" s="56"/>
       <c r="AI152" s="56"/>
       <c r="AJ152" s="56"/>
@@ -14404,30 +14474,30 @@
       <c r="BG152" s="56"/>
       <c r="BH152" s="56"/>
     </row>
-    <row r="153" spans="5:60" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:60" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E153">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I153" s="88"/>
-      <c r="J153" s="89"/>
-      <c r="K153" s="90"/>
-      <c r="M153" s="95"/>
-      <c r="N153" s="95"/>
-      <c r="O153" s="95"/>
-      <c r="P153" s="95"/>
-      <c r="Q153" s="95"/>
-      <c r="R153" s="95"/>
-      <c r="W153" s="94"/>
-      <c r="X153" s="94"/>
-      <c r="Z153" s="106"/>
+      <c r="I153" s="87"/>
+      <c r="J153" s="88"/>
+      <c r="K153" s="89"/>
+      <c r="M153" s="94"/>
+      <c r="N153" s="94"/>
+      <c r="O153" s="94"/>
+      <c r="P153" s="94"/>
+      <c r="Q153" s="94"/>
+      <c r="R153" s="94"/>
+      <c r="W153" s="93"/>
+      <c r="X153" s="93"/>
+      <c r="Z153" s="105"/>
       <c r="AA153" s="56"/>
-      <c r="AB153" s="107"/>
-      <c r="AC153" s="108"/>
-      <c r="AD153" s="107"/>
-      <c r="AE153" s="107"/>
+      <c r="AB153" s="106"/>
+      <c r="AC153" s="107"/>
+      <c r="AD153" s="106"/>
+      <c r="AE153" s="106"/>
       <c r="AF153" s="56"/>
-      <c r="AG153" s="107"/>
+      <c r="AG153" s="106"/>
       <c r="AH153" s="56"/>
       <c r="AI153" s="56"/>
       <c r="AJ153" s="56"/>
@@ -14456,30 +14526,30 @@
       <c r="BG153" s="56"/>
       <c r="BH153" s="56"/>
     </row>
-    <row r="154" spans="5:60" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:60" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E154">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I154" s="88"/>
-      <c r="J154" s="89"/>
-      <c r="K154" s="90"/>
-      <c r="M154" s="95"/>
-      <c r="N154" s="95"/>
-      <c r="O154" s="95"/>
-      <c r="P154" s="95"/>
-      <c r="Q154" s="95"/>
-      <c r="R154" s="95"/>
-      <c r="W154" s="94"/>
-      <c r="X154" s="94"/>
-      <c r="Z154" s="106"/>
+      <c r="I154" s="87"/>
+      <c r="J154" s="88"/>
+      <c r="K154" s="89"/>
+      <c r="M154" s="94"/>
+      <c r="N154" s="94"/>
+      <c r="O154" s="94"/>
+      <c r="P154" s="94"/>
+      <c r="Q154" s="94"/>
+      <c r="R154" s="94"/>
+      <c r="W154" s="93"/>
+      <c r="X154" s="93"/>
+      <c r="Z154" s="105"/>
       <c r="AA154" s="56"/>
-      <c r="AB154" s="107"/>
-      <c r="AC154" s="108"/>
-      <c r="AD154" s="107"/>
-      <c r="AE154" s="107"/>
+      <c r="AB154" s="106"/>
+      <c r="AC154" s="107"/>
+      <c r="AD154" s="106"/>
+      <c r="AE154" s="106"/>
       <c r="AF154" s="56"/>
-      <c r="AG154" s="107"/>
+      <c r="AG154" s="106"/>
       <c r="AH154" s="56"/>
       <c r="AI154" s="56"/>
       <c r="AJ154" s="56"/>
@@ -14508,2045 +14578,2045 @@
       <c r="BG154" s="56"/>
       <c r="BH154" s="56"/>
     </row>
-    <row r="155" spans="5:60" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:60" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E155">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z155" s="96"/>
-      <c r="AA155" s="97"/>
-      <c r="AC155" s="97"/>
-      <c r="AD155" s="97"/>
-      <c r="AE155" s="97"/>
-      <c r="AG155" s="97"/>
-    </row>
-    <row r="156" spans="5:60" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z155" s="95"/>
+      <c r="AA155" s="96"/>
+      <c r="AC155" s="96"/>
+      <c r="AD155" s="96"/>
+      <c r="AE155" s="96"/>
+      <c r="AG155" s="96"/>
+    </row>
+    <row r="156" spans="5:60" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E156">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z156" s="96"/>
-      <c r="AA156" s="97"/>
-      <c r="AC156" s="97"/>
-      <c r="AD156" s="97"/>
-      <c r="AE156" s="97"/>
-      <c r="AG156" s="97"/>
-    </row>
-    <row r="157" spans="5:60" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z157" s="96"/>
-      <c r="AA157" s="97"/>
-      <c r="AC157" s="97"/>
-      <c r="AD157" s="97"/>
-      <c r="AE157" s="97"/>
-      <c r="AG157" s="97"/>
-    </row>
-    <row r="158" spans="5:60" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z158" s="96"/>
-      <c r="AA158" s="97"/>
-      <c r="AC158" s="97"/>
-      <c r="AD158" s="97"/>
-      <c r="AE158" s="97"/>
-      <c r="AG158" s="97"/>
-    </row>
-    <row r="159" spans="5:60" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z159" s="96"/>
-      <c r="AA159" s="97"/>
-      <c r="AC159" s="97"/>
-      <c r="AD159" s="97"/>
-      <c r="AE159" s="97"/>
-      <c r="AG159" s="97"/>
-    </row>
-    <row r="160" spans="5:60" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z160" s="96"/>
-      <c r="AA160" s="97"/>
-      <c r="AC160" s="97"/>
-      <c r="AD160" s="97"/>
-      <c r="AE160" s="97"/>
-      <c r="AG160" s="97"/>
-    </row>
-    <row r="161" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z161" s="96"/>
-      <c r="AA161" s="97"/>
-      <c r="AC161" s="97"/>
-      <c r="AD161" s="97"/>
-      <c r="AE161" s="97"/>
-      <c r="AG161" s="97"/>
-    </row>
-    <row r="162" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z162" s="96"/>
-      <c r="AA162" s="97"/>
-      <c r="AC162" s="97"/>
-      <c r="AD162" s="97"/>
-      <c r="AE162" s="97"/>
-      <c r="AG162" s="97"/>
-    </row>
-    <row r="163" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z163" s="96"/>
-      <c r="AA163" s="97"/>
-      <c r="AC163" s="97"/>
-      <c r="AD163" s="97"/>
-      <c r="AE163" s="97"/>
-      <c r="AG163" s="97"/>
-    </row>
-    <row r="164" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z164" s="96"/>
-      <c r="AA164" s="97"/>
-      <c r="AC164" s="97"/>
-      <c r="AD164" s="97"/>
-      <c r="AE164" s="97"/>
-      <c r="AG164" s="97"/>
-    </row>
-    <row r="165" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z165" s="96"/>
-      <c r="AA165" s="97"/>
-      <c r="AC165" s="97"/>
-      <c r="AD165" s="97"/>
-      <c r="AE165" s="97"/>
-      <c r="AG165" s="97"/>
-    </row>
-    <row r="166" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z166" s="96"/>
-      <c r="AA166" s="97"/>
-      <c r="AC166" s="97"/>
-      <c r="AD166" s="97"/>
-      <c r="AE166" s="97"/>
-      <c r="AG166" s="97"/>
-    </row>
-    <row r="167" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z167" s="96"/>
-      <c r="AA167" s="97"/>
-      <c r="AC167" s="97"/>
-      <c r="AD167" s="97"/>
-      <c r="AE167" s="97"/>
-      <c r="AG167" s="97"/>
-    </row>
-    <row r="168" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z168" s="96"/>
-      <c r="AA168" s="97"/>
-      <c r="AC168" s="97"/>
-      <c r="AD168" s="97"/>
-      <c r="AE168" s="97"/>
-      <c r="AG168" s="97"/>
-    </row>
-    <row r="169" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z169" s="96"/>
-      <c r="AA169" s="97"/>
-      <c r="AC169" s="97"/>
-      <c r="AD169" s="97"/>
-      <c r="AE169" s="97"/>
-      <c r="AG169" s="97"/>
-    </row>
-    <row r="170" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z170" s="96"/>
-      <c r="AA170" s="97"/>
-      <c r="AC170" s="97"/>
-      <c r="AD170" s="97"/>
-      <c r="AE170" s="97"/>
-      <c r="AG170" s="97"/>
-    </row>
-    <row r="171" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z171" s="96"/>
-      <c r="AA171" s="97"/>
-      <c r="AC171" s="97"/>
-      <c r="AD171" s="97"/>
-      <c r="AE171" s="97"/>
-      <c r="AG171" s="97"/>
-    </row>
-    <row r="172" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z172" s="96"/>
-      <c r="AA172" s="97"/>
-      <c r="AC172" s="97"/>
-      <c r="AD172" s="97"/>
-      <c r="AE172" s="97"/>
-      <c r="AG172" s="97"/>
-    </row>
-    <row r="173" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z173" s="96"/>
-      <c r="AA173" s="97"/>
-      <c r="AC173" s="97"/>
-      <c r="AD173" s="97"/>
-      <c r="AE173" s="97"/>
-      <c r="AG173" s="97"/>
-    </row>
-    <row r="174" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z174" s="96"/>
-      <c r="AA174" s="97"/>
-      <c r="AC174" s="97"/>
-      <c r="AD174" s="97"/>
-      <c r="AE174" s="97"/>
-      <c r="AG174" s="97"/>
-    </row>
-    <row r="175" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z175" s="96"/>
-      <c r="AA175" s="97"/>
-      <c r="AC175" s="97"/>
-      <c r="AD175" s="97"/>
-      <c r="AE175" s="97"/>
-      <c r="AG175" s="97"/>
-    </row>
-    <row r="176" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z176" s="96"/>
-      <c r="AA176" s="97"/>
-      <c r="AC176" s="97"/>
-      <c r="AD176" s="97"/>
-      <c r="AE176" s="97"/>
-      <c r="AG176" s="97"/>
-    </row>
-    <row r="177" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z177" s="96"/>
-      <c r="AA177" s="97"/>
-      <c r="AC177" s="97"/>
-      <c r="AD177" s="97"/>
-      <c r="AE177" s="97"/>
-      <c r="AG177" s="97"/>
-    </row>
-    <row r="178" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z178" s="96"/>
-      <c r="AA178" s="97"/>
-      <c r="AC178" s="97"/>
-      <c r="AD178" s="97"/>
-      <c r="AE178" s="97"/>
-      <c r="AG178" s="97"/>
-    </row>
-    <row r="179" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z179" s="96"/>
-      <c r="AA179" s="97"/>
-      <c r="AC179" s="97"/>
-      <c r="AD179" s="97"/>
-      <c r="AE179" s="97"/>
-      <c r="AG179" s="97"/>
-    </row>
-    <row r="180" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z180" s="96"/>
-      <c r="AA180" s="97"/>
-      <c r="AC180" s="97"/>
-      <c r="AD180" s="97"/>
-      <c r="AE180" s="97"/>
-      <c r="AG180" s="97"/>
-    </row>
-    <row r="181" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z181" s="96"/>
-      <c r="AA181" s="97"/>
-      <c r="AC181" s="97"/>
-      <c r="AD181" s="97"/>
-      <c r="AE181" s="97"/>
-      <c r="AG181" s="97"/>
-    </row>
-    <row r="182" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z182" s="96"/>
-      <c r="AA182" s="97"/>
-      <c r="AC182" s="97"/>
-      <c r="AD182" s="97"/>
-      <c r="AE182" s="97"/>
-      <c r="AG182" s="97"/>
-    </row>
-    <row r="183" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z183" s="96"/>
-      <c r="AA183" s="97"/>
-      <c r="AC183" s="97"/>
-      <c r="AD183" s="97"/>
-      <c r="AE183" s="97"/>
-      <c r="AG183" s="97"/>
-    </row>
-    <row r="184" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z184" s="96"/>
-      <c r="AA184" s="97"/>
-      <c r="AC184" s="97"/>
-      <c r="AD184" s="97"/>
-      <c r="AE184" s="97"/>
-      <c r="AG184" s="97"/>
-    </row>
-    <row r="185" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z185" s="96"/>
-      <c r="AA185" s="97"/>
-      <c r="AC185" s="97"/>
-      <c r="AD185" s="97"/>
-      <c r="AE185" s="97"/>
-      <c r="AG185" s="97"/>
-    </row>
-    <row r="186" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z186" s="96"/>
-      <c r="AA186" s="97"/>
-      <c r="AC186" s="97"/>
-      <c r="AD186" s="97"/>
-      <c r="AE186" s="97"/>
-      <c r="AG186" s="97"/>
-    </row>
-    <row r="187" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z187" s="96"/>
-      <c r="AA187" s="97"/>
-      <c r="AC187" s="97"/>
-      <c r="AD187" s="97"/>
-      <c r="AE187" s="97"/>
-      <c r="AG187" s="97"/>
-    </row>
-    <row r="188" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z188" s="96"/>
-      <c r="AA188" s="97"/>
-      <c r="AC188" s="97"/>
-      <c r="AD188" s="97"/>
-      <c r="AE188" s="97"/>
-      <c r="AG188" s="97"/>
-    </row>
-    <row r="189" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z189" s="96"/>
-      <c r="AA189" s="97"/>
-      <c r="AC189" s="97"/>
-      <c r="AD189" s="97"/>
-      <c r="AE189" s="97"/>
-      <c r="AG189" s="97"/>
-    </row>
-    <row r="190" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z190" s="96"/>
-      <c r="AA190" s="97"/>
-      <c r="AC190" s="97"/>
-      <c r="AD190" s="97"/>
-      <c r="AE190" s="97"/>
-      <c r="AG190" s="97"/>
-    </row>
-    <row r="191" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z191" s="96"/>
-      <c r="AA191" s="97"/>
-      <c r="AC191" s="97"/>
-      <c r="AD191" s="97"/>
-      <c r="AE191" s="97"/>
-      <c r="AG191" s="97"/>
-    </row>
-    <row r="192" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z192" s="96"/>
-      <c r="AA192" s="97"/>
-      <c r="AC192" s="97"/>
-      <c r="AD192" s="97"/>
-      <c r="AE192" s="97"/>
-      <c r="AG192" s="97"/>
-    </row>
-    <row r="193" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z193" s="96"/>
-      <c r="AA193" s="97"/>
-      <c r="AC193" s="97"/>
-      <c r="AD193" s="97"/>
-      <c r="AE193" s="97"/>
-      <c r="AG193" s="97"/>
-    </row>
-    <row r="194" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z194" s="96"/>
-      <c r="AA194" s="97"/>
-      <c r="AC194" s="97"/>
-      <c r="AD194" s="97"/>
-      <c r="AE194" s="97"/>
-      <c r="AG194" s="97"/>
-    </row>
-    <row r="195" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z195" s="96"/>
-      <c r="AA195" s="97"/>
-      <c r="AC195" s="97"/>
-      <c r="AD195" s="97"/>
-      <c r="AE195" s="97"/>
-      <c r="AG195" s="97"/>
-    </row>
-    <row r="196" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z196" s="96"/>
-      <c r="AA196" s="97"/>
-      <c r="AC196" s="97"/>
-      <c r="AD196" s="97"/>
-      <c r="AE196" s="97"/>
-      <c r="AG196" s="97"/>
-    </row>
-    <row r="197" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z197" s="96"/>
-      <c r="AA197" s="97"/>
-      <c r="AC197" s="97"/>
-      <c r="AD197" s="97"/>
-      <c r="AE197" s="97"/>
-      <c r="AG197" s="97"/>
-    </row>
-    <row r="198" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z198" s="96"/>
-      <c r="AA198" s="97"/>
-      <c r="AC198" s="97"/>
-      <c r="AD198" s="97"/>
-      <c r="AE198" s="97"/>
-      <c r="AG198" s="97"/>
-    </row>
-    <row r="199" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z199" s="96"/>
-      <c r="AA199" s="97"/>
-      <c r="AC199" s="97"/>
-      <c r="AD199" s="97"/>
-      <c r="AE199" s="97"/>
-      <c r="AG199" s="97"/>
-    </row>
-    <row r="200" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z200" s="96"/>
-      <c r="AA200" s="97"/>
-      <c r="AC200" s="97"/>
-      <c r="AD200" s="97"/>
-      <c r="AE200" s="97"/>
-      <c r="AG200" s="97"/>
-    </row>
-    <row r="201" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z201" s="96"/>
-      <c r="AA201" s="97"/>
-      <c r="AC201" s="97"/>
-      <c r="AD201" s="97"/>
-      <c r="AE201" s="97"/>
-      <c r="AG201" s="97"/>
-    </row>
-    <row r="202" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z202" s="96"/>
-      <c r="AA202" s="97"/>
-      <c r="AC202" s="97"/>
-      <c r="AD202" s="97"/>
-      <c r="AE202" s="97"/>
-      <c r="AG202" s="97"/>
-    </row>
-    <row r="203" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z203" s="96"/>
-      <c r="AA203" s="97"/>
-      <c r="AC203" s="97"/>
-      <c r="AD203" s="97"/>
-      <c r="AE203" s="97"/>
-      <c r="AG203" s="97"/>
-    </row>
-    <row r="204" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z204" s="96"/>
-      <c r="AA204" s="97"/>
-      <c r="AC204" s="97"/>
-      <c r="AD204" s="97"/>
-      <c r="AE204" s="97"/>
-      <c r="AG204" s="97"/>
-    </row>
-    <row r="205" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z205" s="96"/>
-      <c r="AA205" s="97"/>
-      <c r="AC205" s="97"/>
-      <c r="AD205" s="97"/>
-      <c r="AE205" s="97"/>
-      <c r="AG205" s="97"/>
-    </row>
-    <row r="206" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z206" s="96"/>
-      <c r="AA206" s="97"/>
-      <c r="AC206" s="97"/>
-      <c r="AD206" s="97"/>
-      <c r="AE206" s="97"/>
-      <c r="AG206" s="97"/>
-    </row>
-    <row r="207" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z207" s="96"/>
-      <c r="AA207" s="97"/>
-      <c r="AC207" s="97"/>
-      <c r="AD207" s="97"/>
-      <c r="AE207" s="97"/>
-      <c r="AG207" s="97"/>
-    </row>
-    <row r="208" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z208" s="96"/>
-      <c r="AA208" s="97"/>
-      <c r="AC208" s="97"/>
-      <c r="AD208" s="97"/>
-      <c r="AE208" s="97"/>
-      <c r="AG208" s="97"/>
-    </row>
-    <row r="209" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z209" s="96"/>
-      <c r="AA209" s="97"/>
-      <c r="AC209" s="97"/>
-      <c r="AD209" s="97"/>
-      <c r="AE209" s="97"/>
-      <c r="AG209" s="97"/>
-    </row>
-    <row r="210" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z210" s="96"/>
-      <c r="AA210" s="97"/>
-      <c r="AC210" s="97"/>
-      <c r="AD210" s="97"/>
-      <c r="AE210" s="97"/>
-      <c r="AG210" s="97"/>
-    </row>
-    <row r="211" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z211" s="96"/>
-      <c r="AA211" s="97"/>
-      <c r="AC211" s="97"/>
-      <c r="AD211" s="97"/>
-      <c r="AE211" s="97"/>
-      <c r="AG211" s="97"/>
-    </row>
-    <row r="212" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z212" s="96"/>
-      <c r="AA212" s="97"/>
-      <c r="AC212" s="97"/>
-      <c r="AD212" s="97"/>
-      <c r="AE212" s="97"/>
-      <c r="AG212" s="97"/>
-    </row>
-    <row r="213" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z213" s="96"/>
-      <c r="AA213" s="97"/>
-      <c r="AC213" s="97"/>
-      <c r="AD213" s="97"/>
-      <c r="AE213" s="97"/>
-      <c r="AG213" s="97"/>
-    </row>
-    <row r="214" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z214" s="96"/>
-      <c r="AA214" s="97"/>
-      <c r="AC214" s="97"/>
-      <c r="AD214" s="97"/>
-      <c r="AE214" s="97"/>
-      <c r="AG214" s="97"/>
-    </row>
-    <row r="215" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z215" s="96"/>
-      <c r="AA215" s="97"/>
-      <c r="AC215" s="97"/>
-      <c r="AD215" s="97"/>
-      <c r="AE215" s="97"/>
-      <c r="AG215" s="97"/>
-    </row>
-    <row r="216" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z216" s="96"/>
-      <c r="AA216" s="97"/>
-      <c r="AC216" s="97"/>
-      <c r="AD216" s="97"/>
-      <c r="AE216" s="97"/>
-      <c r="AG216" s="97"/>
-    </row>
-    <row r="217" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z217" s="96"/>
-      <c r="AA217" s="97"/>
-      <c r="AC217" s="97"/>
-      <c r="AD217" s="97"/>
-      <c r="AE217" s="97"/>
-      <c r="AG217" s="97"/>
-    </row>
-    <row r="218" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z218" s="96"/>
-      <c r="AA218" s="97"/>
-      <c r="AC218" s="97"/>
-      <c r="AD218" s="97"/>
-      <c r="AE218" s="97"/>
-      <c r="AG218" s="97"/>
-    </row>
-    <row r="219" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z219" s="96"/>
-      <c r="AA219" s="97"/>
-      <c r="AC219" s="97"/>
-      <c r="AD219" s="97"/>
-      <c r="AE219" s="97"/>
-      <c r="AG219" s="97"/>
-    </row>
-    <row r="220" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z220" s="96"/>
-      <c r="AA220" s="97"/>
-      <c r="AC220" s="97"/>
-      <c r="AD220" s="97"/>
-      <c r="AE220" s="97"/>
-      <c r="AG220" s="97"/>
-    </row>
-    <row r="221" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z221" s="96"/>
-      <c r="AA221" s="97"/>
-      <c r="AC221" s="97"/>
-      <c r="AD221" s="97"/>
-      <c r="AE221" s="97"/>
-      <c r="AG221" s="97"/>
-    </row>
-    <row r="222" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z222" s="96"/>
-      <c r="AA222" s="97"/>
-      <c r="AC222" s="97"/>
-      <c r="AD222" s="97"/>
-      <c r="AE222" s="97"/>
-      <c r="AG222" s="97"/>
-    </row>
-    <row r="223" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z223" s="96"/>
-      <c r="AA223" s="97"/>
-      <c r="AC223" s="97"/>
-      <c r="AD223" s="97"/>
-      <c r="AE223" s="97"/>
-      <c r="AG223" s="97"/>
-    </row>
-    <row r="224" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z224" s="96"/>
-      <c r="AA224" s="97"/>
-      <c r="AC224" s="97"/>
-      <c r="AD224" s="97"/>
-      <c r="AE224" s="97"/>
-      <c r="AG224" s="97"/>
-    </row>
-    <row r="225" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z225" s="96"/>
-      <c r="AA225" s="97"/>
-      <c r="AC225" s="97"/>
-      <c r="AD225" s="97"/>
-      <c r="AE225" s="97"/>
-      <c r="AG225" s="97"/>
-    </row>
-    <row r="226" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z226" s="96"/>
-      <c r="AA226" s="97"/>
-      <c r="AC226" s="97"/>
-      <c r="AD226" s="97"/>
-      <c r="AE226" s="97"/>
-      <c r="AG226" s="97"/>
-    </row>
-    <row r="227" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z227" s="96"/>
-      <c r="AA227" s="97"/>
-      <c r="AC227" s="97"/>
-      <c r="AD227" s="97"/>
-      <c r="AE227" s="97"/>
-      <c r="AG227" s="97"/>
-    </row>
-    <row r="228" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z228" s="96"/>
-      <c r="AA228" s="97"/>
-      <c r="AC228" s="97"/>
-      <c r="AD228" s="97"/>
-      <c r="AE228" s="97"/>
-      <c r="AG228" s="97"/>
-    </row>
-    <row r="229" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z229" s="96"/>
-      <c r="AA229" s="97"/>
-      <c r="AC229" s="97"/>
-      <c r="AD229" s="97"/>
-      <c r="AE229" s="97"/>
-      <c r="AG229" s="97"/>
-    </row>
-    <row r="230" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z230" s="96"/>
-      <c r="AA230" s="97"/>
-      <c r="AC230" s="97"/>
-      <c r="AD230" s="97"/>
-      <c r="AE230" s="97"/>
-      <c r="AG230" s="97"/>
-    </row>
-    <row r="231" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z231" s="96"/>
-      <c r="AA231" s="97"/>
-      <c r="AC231" s="97"/>
-      <c r="AD231" s="97"/>
-      <c r="AE231" s="97"/>
-      <c r="AG231" s="97"/>
-    </row>
-    <row r="232" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z232" s="96"/>
-      <c r="AA232" s="97"/>
-      <c r="AC232" s="97"/>
-      <c r="AD232" s="97"/>
-      <c r="AE232" s="97"/>
-      <c r="AG232" s="97"/>
-    </row>
-    <row r="233" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z233" s="96"/>
-      <c r="AA233" s="97"/>
-      <c r="AC233" s="97"/>
-      <c r="AD233" s="97"/>
-      <c r="AE233" s="97"/>
-      <c r="AG233" s="97"/>
-    </row>
-    <row r="234" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z234" s="96"/>
-      <c r="AA234" s="97"/>
-      <c r="AC234" s="97"/>
-      <c r="AD234" s="97"/>
-      <c r="AE234" s="97"/>
-      <c r="AG234" s="97"/>
-    </row>
-    <row r="235" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z235" s="96"/>
-      <c r="AA235" s="97"/>
-      <c r="AC235" s="97"/>
-      <c r="AD235" s="97"/>
-      <c r="AE235" s="97"/>
-      <c r="AG235" s="97"/>
-    </row>
-    <row r="236" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z236" s="96"/>
-      <c r="AA236" s="97"/>
-      <c r="AC236" s="97"/>
-      <c r="AD236" s="97"/>
-      <c r="AE236" s="97"/>
-      <c r="AG236" s="97"/>
-    </row>
-    <row r="237" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z237" s="96"/>
-      <c r="AA237" s="97"/>
-      <c r="AC237" s="97"/>
-      <c r="AD237" s="97"/>
-      <c r="AE237" s="97"/>
-      <c r="AG237" s="97"/>
-    </row>
-    <row r="238" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z238" s="96"/>
-      <c r="AA238" s="97"/>
-      <c r="AC238" s="97"/>
-      <c r="AD238" s="97"/>
-      <c r="AE238" s="97"/>
-      <c r="AG238" s="97"/>
-    </row>
-    <row r="239" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z239" s="97"/>
-      <c r="AA239" s="97"/>
-      <c r="AC239" s="97"/>
-      <c r="AD239" s="97"/>
-      <c r="AE239" s="97"/>
-      <c r="AG239" s="97"/>
-    </row>
-    <row r="240" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z240" s="97"/>
-      <c r="AA240" s="97"/>
-      <c r="AC240" s="97"/>
-      <c r="AD240" s="97"/>
-      <c r="AE240" s="97"/>
-      <c r="AG240" s="97"/>
-    </row>
-    <row r="241" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z241" s="97"/>
-      <c r="AA241" s="97"/>
-      <c r="AC241" s="97"/>
-      <c r="AD241" s="97"/>
-      <c r="AE241" s="97"/>
-      <c r="AG241" s="97"/>
-    </row>
-    <row r="242" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z242" s="97"/>
-      <c r="AA242" s="97"/>
-      <c r="AC242" s="97"/>
-      <c r="AD242" s="97"/>
-      <c r="AE242" s="97"/>
-      <c r="AG242" s="97"/>
-    </row>
-    <row r="243" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z243" s="97"/>
-      <c r="AA243" s="97"/>
-      <c r="AC243" s="97"/>
-      <c r="AD243" s="97"/>
-      <c r="AE243" s="97"/>
-      <c r="AG243" s="97"/>
-    </row>
-    <row r="244" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z244" s="97"/>
-      <c r="AA244" s="97"/>
-      <c r="AC244" s="97"/>
-      <c r="AD244" s="97"/>
-      <c r="AE244" s="97"/>
-      <c r="AG244" s="97"/>
-    </row>
-    <row r="245" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z245" s="97"/>
-      <c r="AA245" s="97"/>
-      <c r="AC245" s="97"/>
-      <c r="AD245" s="97"/>
-      <c r="AE245" s="97"/>
-      <c r="AG245" s="97"/>
-    </row>
-    <row r="246" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z246" s="97"/>
-      <c r="AA246" s="97"/>
-      <c r="AC246" s="97"/>
-      <c r="AD246" s="97"/>
-      <c r="AE246" s="97"/>
-      <c r="AG246" s="97"/>
-    </row>
-    <row r="247" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z247" s="97"/>
-      <c r="AA247" s="97"/>
-      <c r="AC247" s="97"/>
-      <c r="AD247" s="97"/>
-      <c r="AE247" s="97"/>
-      <c r="AG247" s="97"/>
-    </row>
-    <row r="248" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z248" s="97"/>
-      <c r="AA248" s="97"/>
-      <c r="AC248" s="97"/>
-      <c r="AD248" s="97"/>
-      <c r="AE248" s="97"/>
-      <c r="AG248" s="97"/>
-    </row>
-    <row r="249" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z249" s="97"/>
-      <c r="AA249" s="97"/>
-      <c r="AC249" s="97"/>
-      <c r="AD249" s="97"/>
-      <c r="AE249" s="97"/>
-      <c r="AG249" s="97"/>
-    </row>
-    <row r="250" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z250" s="97"/>
-      <c r="AA250" s="97"/>
-      <c r="AC250" s="97"/>
-      <c r="AD250" s="97"/>
-      <c r="AE250" s="97"/>
-      <c r="AG250" s="97"/>
-    </row>
-    <row r="251" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z251" s="97"/>
-      <c r="AA251" s="97"/>
-      <c r="AC251" s="97"/>
-      <c r="AD251" s="97"/>
-      <c r="AE251" s="97"/>
-      <c r="AG251" s="97"/>
-    </row>
-    <row r="252" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z252" s="97"/>
-      <c r="AA252" s="97"/>
-      <c r="AC252" s="97"/>
-      <c r="AD252" s="97"/>
-      <c r="AE252" s="97"/>
-      <c r="AG252" s="97"/>
-    </row>
-    <row r="253" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z253" s="97"/>
-      <c r="AA253" s="97"/>
-      <c r="AC253" s="97"/>
-      <c r="AD253" s="97"/>
-      <c r="AE253" s="97"/>
-      <c r="AG253" s="97"/>
-    </row>
-    <row r="254" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z254" s="97"/>
-      <c r="AA254" s="97"/>
-      <c r="AC254" s="97"/>
-      <c r="AD254" s="97"/>
-      <c r="AE254" s="97"/>
-      <c r="AG254" s="97"/>
-    </row>
-    <row r="255" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z255" s="97"/>
-      <c r="AA255" s="97"/>
-      <c r="AC255" s="97"/>
-      <c r="AD255" s="97"/>
-      <c r="AE255" s="97"/>
-      <c r="AG255" s="97"/>
-    </row>
-    <row r="256" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z256" s="97"/>
-      <c r="AA256" s="97"/>
-      <c r="AC256" s="97"/>
-      <c r="AD256" s="97"/>
-      <c r="AE256" s="97"/>
-      <c r="AG256" s="97"/>
-    </row>
-    <row r="257" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z257" s="97"/>
-      <c r="AA257" s="97"/>
-      <c r="AC257" s="97"/>
-      <c r="AD257" s="97"/>
-      <c r="AE257" s="97"/>
-      <c r="AG257" s="97"/>
-    </row>
-    <row r="258" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z258" s="97"/>
-      <c r="AA258" s="97"/>
-      <c r="AC258" s="97"/>
-      <c r="AD258" s="97"/>
-      <c r="AE258" s="97"/>
-      <c r="AG258" s="97"/>
-    </row>
-    <row r="259" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z259" s="97"/>
-      <c r="AA259" s="97"/>
-      <c r="AC259" s="97"/>
-      <c r="AD259" s="97"/>
-      <c r="AE259" s="97"/>
-      <c r="AG259" s="97"/>
-    </row>
-    <row r="260" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z260" s="97"/>
-      <c r="AA260" s="97"/>
-      <c r="AC260" s="97"/>
-      <c r="AD260" s="97"/>
-      <c r="AE260" s="97"/>
-      <c r="AG260" s="97"/>
-    </row>
-    <row r="261" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z261" s="97"/>
-      <c r="AA261" s="97"/>
-      <c r="AC261" s="97"/>
-      <c r="AD261" s="97"/>
-      <c r="AE261" s="97"/>
-      <c r="AG261" s="97"/>
-    </row>
-    <row r="262" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z262" s="97"/>
-      <c r="AA262" s="97"/>
-      <c r="AC262" s="97"/>
-      <c r="AD262" s="97"/>
-      <c r="AE262" s="97"/>
-      <c r="AG262" s="97"/>
-    </row>
-    <row r="263" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z263" s="97"/>
-      <c r="AA263" s="97"/>
-      <c r="AC263" s="97"/>
-      <c r="AD263" s="97"/>
-      <c r="AE263" s="97"/>
-      <c r="AG263" s="97"/>
-    </row>
-    <row r="264" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z264" s="97"/>
-      <c r="AA264" s="97"/>
-      <c r="AC264" s="97"/>
-      <c r="AD264" s="97"/>
-      <c r="AE264" s="97"/>
-      <c r="AG264" s="97"/>
-    </row>
-    <row r="265" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z265" s="97"/>
-      <c r="AA265" s="97"/>
-      <c r="AC265" s="97"/>
-      <c r="AD265" s="97"/>
-      <c r="AE265" s="97"/>
-      <c r="AG265" s="97"/>
-    </row>
-    <row r="266" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z266" s="97"/>
-      <c r="AA266" s="97"/>
-      <c r="AC266" s="97"/>
-      <c r="AD266" s="97"/>
-      <c r="AE266" s="97"/>
-      <c r="AG266" s="97"/>
-    </row>
-    <row r="267" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z267" s="97"/>
-      <c r="AA267" s="97"/>
-      <c r="AC267" s="97"/>
-      <c r="AD267" s="97"/>
-      <c r="AE267" s="97"/>
-      <c r="AG267" s="97"/>
-    </row>
-    <row r="268" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z268" s="97"/>
-      <c r="AA268" s="97"/>
-      <c r="AC268" s="97"/>
-      <c r="AD268" s="97"/>
-      <c r="AE268" s="97"/>
-      <c r="AG268" s="97"/>
-    </row>
-    <row r="269" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z269" s="97"/>
-      <c r="AA269" s="97"/>
-      <c r="AC269" s="97"/>
-      <c r="AD269" s="97"/>
-      <c r="AE269" s="97"/>
-      <c r="AG269" s="97"/>
-    </row>
-    <row r="270" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z270" s="97"/>
-      <c r="AA270" s="97"/>
-      <c r="AC270" s="97"/>
-      <c r="AD270" s="97"/>
-      <c r="AE270" s="97"/>
-      <c r="AG270" s="97"/>
-    </row>
-    <row r="271" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z271" s="97"/>
-      <c r="AA271" s="97"/>
-      <c r="AC271" s="97"/>
-      <c r="AD271" s="97"/>
-      <c r="AE271" s="97"/>
-      <c r="AG271" s="97"/>
-    </row>
-    <row r="272" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z272" s="97"/>
-      <c r="AA272" s="97"/>
-      <c r="AC272" s="97"/>
-      <c r="AD272" s="97"/>
-      <c r="AE272" s="97"/>
-      <c r="AG272" s="97"/>
-    </row>
-    <row r="273" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z273" s="97"/>
-      <c r="AA273" s="97"/>
-      <c r="AC273" s="97"/>
-      <c r="AD273" s="97"/>
-      <c r="AE273" s="97"/>
-      <c r="AG273" s="97"/>
-    </row>
-    <row r="274" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z274" s="97"/>
-      <c r="AA274" s="97"/>
-      <c r="AC274" s="97"/>
-      <c r="AD274" s="97"/>
-      <c r="AE274" s="97"/>
-      <c r="AG274" s="97"/>
-    </row>
-    <row r="275" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z275" s="97"/>
-      <c r="AA275" s="97"/>
-      <c r="AC275" s="97"/>
-      <c r="AD275" s="97"/>
-      <c r="AE275" s="97"/>
-      <c r="AG275" s="97"/>
-    </row>
-    <row r="276" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z276" s="97"/>
-      <c r="AA276" s="97"/>
-      <c r="AC276" s="97"/>
-      <c r="AD276" s="97"/>
-      <c r="AE276" s="97"/>
-      <c r="AG276" s="97"/>
-    </row>
-    <row r="277" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z277" s="97"/>
-      <c r="AA277" s="97"/>
-      <c r="AC277" s="97"/>
-      <c r="AD277" s="97"/>
-      <c r="AE277" s="97"/>
-      <c r="AG277" s="97"/>
-    </row>
-    <row r="278" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z278" s="97"/>
-      <c r="AA278" s="97"/>
-      <c r="AC278" s="97"/>
-      <c r="AD278" s="97"/>
-      <c r="AE278" s="97"/>
-      <c r="AG278" s="97"/>
-    </row>
-    <row r="279" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z279" s="97"/>
-      <c r="AA279" s="97"/>
-      <c r="AC279" s="97"/>
-      <c r="AD279" s="97"/>
-      <c r="AE279" s="97"/>
-      <c r="AG279" s="97"/>
-    </row>
-    <row r="280" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z280" s="97"/>
-      <c r="AA280" s="97"/>
-      <c r="AC280" s="97"/>
-      <c r="AD280" s="97"/>
-      <c r="AE280" s="97"/>
-      <c r="AG280" s="97"/>
-    </row>
-    <row r="281" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z281" s="97"/>
-      <c r="AA281" s="97"/>
-      <c r="AC281" s="97"/>
-      <c r="AD281" s="97"/>
-      <c r="AE281" s="97"/>
-      <c r="AG281" s="97"/>
-    </row>
-    <row r="282" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z282" s="97"/>
-      <c r="AA282" s="97"/>
-      <c r="AC282" s="97"/>
-      <c r="AD282" s="97"/>
-      <c r="AE282" s="97"/>
-      <c r="AG282" s="97"/>
-    </row>
-    <row r="283" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z283" s="97"/>
-      <c r="AA283" s="97"/>
-      <c r="AC283" s="97"/>
-      <c r="AD283" s="97"/>
-      <c r="AE283" s="97"/>
-      <c r="AG283" s="97"/>
-    </row>
-    <row r="284" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z284" s="97"/>
-      <c r="AA284" s="97"/>
-      <c r="AC284" s="97"/>
-      <c r="AD284" s="97"/>
-      <c r="AE284" s="97"/>
-      <c r="AG284" s="97"/>
-    </row>
-    <row r="285" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z285" s="97"/>
-      <c r="AA285" s="97"/>
-      <c r="AC285" s="97"/>
-      <c r="AD285" s="97"/>
-      <c r="AE285" s="97"/>
-      <c r="AG285" s="97"/>
-    </row>
-    <row r="286" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z286" s="97"/>
-      <c r="AA286" s="97"/>
-      <c r="AC286" s="97"/>
-      <c r="AD286" s="97"/>
-      <c r="AE286" s="97"/>
-      <c r="AG286" s="97"/>
-    </row>
-    <row r="287" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z287" s="97"/>
-      <c r="AA287" s="97"/>
-      <c r="AC287" s="97"/>
-      <c r="AD287" s="97"/>
-      <c r="AE287" s="97"/>
-      <c r="AG287" s="97"/>
-    </row>
-    <row r="288" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z288" s="97"/>
-      <c r="AA288" s="97"/>
-      <c r="AC288" s="97"/>
-      <c r="AD288" s="97"/>
-      <c r="AE288" s="97"/>
-      <c r="AG288" s="97"/>
-    </row>
-    <row r="289" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z289" s="97"/>
-      <c r="AA289" s="97"/>
-      <c r="AC289" s="97"/>
-      <c r="AD289" s="97"/>
-      <c r="AE289" s="97"/>
-      <c r="AG289" s="97"/>
-    </row>
-    <row r="290" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z290" s="97"/>
-      <c r="AA290" s="97"/>
-      <c r="AC290" s="97"/>
-      <c r="AD290" s="97"/>
-      <c r="AE290" s="97"/>
-      <c r="AG290" s="97"/>
-    </row>
-    <row r="291" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z291" s="97"/>
-      <c r="AA291" s="97"/>
-      <c r="AC291" s="97"/>
-      <c r="AD291" s="97"/>
-      <c r="AE291" s="97"/>
-      <c r="AG291" s="97"/>
-    </row>
-    <row r="292" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z292" s="97"/>
-      <c r="AA292" s="97"/>
-      <c r="AC292" s="97"/>
-      <c r="AD292" s="97"/>
-      <c r="AE292" s="97"/>
-      <c r="AG292" s="97"/>
-    </row>
-    <row r="293" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z293" s="97"/>
-      <c r="AA293" s="97"/>
-      <c r="AC293" s="97"/>
-      <c r="AD293" s="97"/>
-      <c r="AE293" s="97"/>
-      <c r="AG293" s="97"/>
-    </row>
-    <row r="294" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z294" s="97"/>
-      <c r="AA294" s="97"/>
-      <c r="AC294" s="97"/>
-      <c r="AD294" s="97"/>
-      <c r="AE294" s="97"/>
-      <c r="AG294" s="97"/>
-    </row>
-    <row r="295" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z295" s="97"/>
-      <c r="AA295" s="97"/>
-      <c r="AC295" s="97"/>
-      <c r="AD295" s="97"/>
-      <c r="AE295" s="97"/>
-      <c r="AG295" s="97"/>
-    </row>
-    <row r="296" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z296" s="97"/>
-      <c r="AA296" s="97"/>
-      <c r="AC296" s="97"/>
-      <c r="AD296" s="97"/>
-      <c r="AE296" s="97"/>
-      <c r="AG296" s="97"/>
-    </row>
-    <row r="297" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z297" s="97"/>
-      <c r="AA297" s="97"/>
-      <c r="AC297" s="97"/>
-      <c r="AD297" s="97"/>
-      <c r="AE297" s="97"/>
-      <c r="AG297" s="97"/>
-    </row>
-    <row r="298" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z298" s="97"/>
-      <c r="AA298" s="97"/>
-      <c r="AC298" s="97"/>
-      <c r="AD298" s="97"/>
-      <c r="AE298" s="97"/>
-      <c r="AG298" s="97"/>
-    </row>
-    <row r="299" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z299" s="97"/>
-      <c r="AA299" s="97"/>
-      <c r="AC299" s="97"/>
-      <c r="AD299" s="97"/>
-      <c r="AE299" s="97"/>
-      <c r="AG299" s="97"/>
-    </row>
-    <row r="300" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z300" s="97"/>
-      <c r="AA300" s="97"/>
-      <c r="AC300" s="97"/>
-      <c r="AD300" s="97"/>
-      <c r="AE300" s="97"/>
-      <c r="AG300" s="97"/>
-    </row>
-    <row r="301" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z301" s="97"/>
-      <c r="AA301" s="97"/>
-      <c r="AC301" s="97"/>
-      <c r="AD301" s="97"/>
-      <c r="AE301" s="97"/>
-      <c r="AG301" s="97"/>
-    </row>
-    <row r="302" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z302" s="97"/>
-      <c r="AA302" s="97"/>
-      <c r="AC302" s="97"/>
-      <c r="AD302" s="97"/>
-      <c r="AE302" s="97"/>
-      <c r="AG302" s="97"/>
-    </row>
-    <row r="303" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z303" s="97"/>
-      <c r="AA303" s="97"/>
-      <c r="AC303" s="97"/>
-      <c r="AD303" s="97"/>
-      <c r="AE303" s="97"/>
-      <c r="AG303" s="97"/>
-    </row>
-    <row r="304" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z304" s="97"/>
-      <c r="AA304" s="97"/>
-      <c r="AC304" s="97"/>
-      <c r="AD304" s="97"/>
-      <c r="AE304" s="97"/>
-      <c r="AG304" s="97"/>
-    </row>
-    <row r="305" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z305" s="97"/>
-      <c r="AA305" s="97"/>
-      <c r="AC305" s="97"/>
-      <c r="AD305" s="97"/>
-      <c r="AE305" s="97"/>
-      <c r="AG305" s="97"/>
-    </row>
-    <row r="306" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z306" s="97"/>
-      <c r="AA306" s="97"/>
-      <c r="AC306" s="97"/>
-      <c r="AD306" s="97"/>
-      <c r="AE306" s="97"/>
-      <c r="AG306" s="97"/>
-    </row>
-    <row r="307" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z307" s="97"/>
-      <c r="AA307" s="97"/>
-      <c r="AC307" s="97"/>
-      <c r="AD307" s="97"/>
-      <c r="AE307" s="97"/>
-      <c r="AG307" s="97"/>
-    </row>
-    <row r="308" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z308" s="97"/>
-      <c r="AA308" s="97"/>
-      <c r="AC308" s="97"/>
-      <c r="AD308" s="97"/>
-      <c r="AE308" s="97"/>
-      <c r="AG308" s="97"/>
-    </row>
-    <row r="309" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z309" s="97"/>
-      <c r="AA309" s="97"/>
-      <c r="AC309" s="97"/>
-      <c r="AD309" s="97"/>
-      <c r="AE309" s="97"/>
-      <c r="AG309" s="97"/>
-    </row>
-    <row r="310" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z310" s="97"/>
-      <c r="AA310" s="97"/>
-      <c r="AC310" s="97"/>
-      <c r="AD310" s="97"/>
-      <c r="AE310" s="97"/>
-      <c r="AG310" s="97"/>
-    </row>
-    <row r="311" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z311" s="97"/>
-      <c r="AA311" s="97"/>
-      <c r="AC311" s="97"/>
-      <c r="AD311" s="97"/>
-      <c r="AE311" s="97"/>
-      <c r="AG311" s="97"/>
-    </row>
-    <row r="312" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z312" s="97"/>
-      <c r="AA312" s="97"/>
-      <c r="AC312" s="97"/>
-      <c r="AD312" s="97"/>
-      <c r="AE312" s="97"/>
-      <c r="AG312" s="97"/>
-    </row>
-    <row r="313" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z313" s="97"/>
-      <c r="AA313" s="97"/>
-      <c r="AC313" s="97"/>
-      <c r="AD313" s="97"/>
-      <c r="AE313" s="97"/>
-      <c r="AG313" s="97"/>
-    </row>
-    <row r="314" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z314" s="97"/>
-      <c r="AA314" s="97"/>
-      <c r="AC314" s="97"/>
-      <c r="AD314" s="97"/>
-      <c r="AE314" s="97"/>
-      <c r="AG314" s="97"/>
-    </row>
-    <row r="315" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z315" s="97"/>
-      <c r="AA315" s="97"/>
-      <c r="AC315" s="97"/>
-      <c r="AD315" s="97"/>
-      <c r="AE315" s="97"/>
-      <c r="AG315" s="97"/>
-    </row>
-    <row r="316" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z316" s="97"/>
-      <c r="AA316" s="97"/>
-      <c r="AC316" s="97"/>
-      <c r="AD316" s="97"/>
-      <c r="AE316" s="97"/>
-      <c r="AG316" s="97"/>
-    </row>
-    <row r="317" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z317" s="97"/>
-      <c r="AA317" s="97"/>
-      <c r="AC317" s="97"/>
-      <c r="AD317" s="97"/>
-      <c r="AE317" s="97"/>
-      <c r="AG317" s="97"/>
-    </row>
-    <row r="318" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z318" s="97"/>
-      <c r="AA318" s="97"/>
-      <c r="AC318" s="97"/>
-      <c r="AD318" s="97"/>
-      <c r="AE318" s="97"/>
-      <c r="AG318" s="97"/>
-    </row>
-    <row r="319" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z319" s="97"/>
-      <c r="AA319" s="97"/>
-      <c r="AC319" s="97"/>
-      <c r="AD319" s="97"/>
-      <c r="AE319" s="97"/>
-      <c r="AG319" s="97"/>
-    </row>
-    <row r="320" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z320" s="97"/>
-      <c r="AA320" s="97"/>
-      <c r="AC320" s="97"/>
-      <c r="AD320" s="97"/>
-      <c r="AE320" s="97"/>
-      <c r="AG320" s="97"/>
-    </row>
-    <row r="321" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z321" s="97"/>
-      <c r="AA321" s="97"/>
-      <c r="AC321" s="97"/>
-      <c r="AD321" s="97"/>
-      <c r="AE321" s="97"/>
-      <c r="AG321" s="97"/>
-    </row>
-    <row r="322" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z322" s="97"/>
-      <c r="AA322" s="97"/>
-      <c r="AC322" s="97"/>
-      <c r="AD322" s="97"/>
-      <c r="AE322" s="97"/>
-      <c r="AG322" s="97"/>
-    </row>
-    <row r="323" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z323" s="97"/>
-      <c r="AA323" s="97"/>
-      <c r="AC323" s="97"/>
-      <c r="AD323" s="97"/>
-      <c r="AE323" s="97"/>
-      <c r="AG323" s="97"/>
-    </row>
-    <row r="324" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z324" s="97"/>
-      <c r="AA324" s="97"/>
-      <c r="AC324" s="97"/>
-      <c r="AD324" s="97"/>
-      <c r="AE324" s="97"/>
-      <c r="AG324" s="97"/>
-    </row>
-    <row r="325" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z325" s="97"/>
-      <c r="AA325" s="97"/>
-      <c r="AC325" s="97"/>
-      <c r="AD325" s="97"/>
-      <c r="AE325" s="97"/>
-      <c r="AG325" s="97"/>
-    </row>
-    <row r="326" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z326" s="97"/>
-      <c r="AA326" s="97"/>
-      <c r="AC326" s="97"/>
-      <c r="AD326" s="97"/>
-      <c r="AE326" s="97"/>
-      <c r="AG326" s="97"/>
-    </row>
-    <row r="327" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z327" s="97"/>
-      <c r="AA327" s="97"/>
-      <c r="AC327" s="97"/>
-      <c r="AD327" s="97"/>
-      <c r="AE327" s="97"/>
-      <c r="AG327" s="97"/>
-    </row>
-    <row r="328" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z328" s="97"/>
-      <c r="AA328" s="97"/>
-      <c r="AC328" s="97"/>
-      <c r="AD328" s="97"/>
-      <c r="AE328" s="97"/>
-      <c r="AG328" s="97"/>
-    </row>
-    <row r="329" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z329" s="97"/>
-      <c r="AA329" s="97"/>
-      <c r="AC329" s="97"/>
-      <c r="AD329" s="97"/>
-      <c r="AE329" s="97"/>
-      <c r="AG329" s="97"/>
-    </row>
-    <row r="330" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z330" s="97"/>
-      <c r="AA330" s="97"/>
-      <c r="AC330" s="97"/>
-      <c r="AD330" s="97"/>
-      <c r="AE330" s="97"/>
-      <c r="AG330" s="97"/>
-    </row>
-    <row r="331" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z331" s="97"/>
-      <c r="AA331" s="97"/>
-      <c r="AC331" s="97"/>
-      <c r="AD331" s="97"/>
-      <c r="AE331" s="97"/>
-      <c r="AG331" s="97"/>
-    </row>
-    <row r="332" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z332" s="97"/>
-      <c r="AA332" s="97"/>
-      <c r="AC332" s="97"/>
-      <c r="AD332" s="97"/>
-      <c r="AE332" s="97"/>
-      <c r="AG332" s="97"/>
-    </row>
-    <row r="333" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z333" s="97"/>
-      <c r="AA333" s="97"/>
-      <c r="AC333" s="97"/>
-      <c r="AD333" s="97"/>
-      <c r="AE333" s="97"/>
-      <c r="AG333" s="97"/>
-    </row>
-    <row r="334" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z334" s="97"/>
-      <c r="AA334" s="97"/>
-      <c r="AC334" s="97"/>
-      <c r="AD334" s="97"/>
-      <c r="AE334" s="97"/>
-      <c r="AG334" s="97"/>
-    </row>
-    <row r="335" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z335" s="97"/>
-      <c r="AA335" s="97"/>
-      <c r="AC335" s="97"/>
-      <c r="AD335" s="97"/>
-      <c r="AE335" s="97"/>
-      <c r="AG335" s="97"/>
-    </row>
-    <row r="336" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z336" s="97"/>
-      <c r="AA336" s="97"/>
-      <c r="AC336" s="97"/>
-      <c r="AD336" s="97"/>
-      <c r="AE336" s="97"/>
-      <c r="AG336" s="97"/>
-    </row>
-    <row r="337" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z337" s="97"/>
-      <c r="AA337" s="97"/>
-      <c r="AC337" s="97"/>
-      <c r="AD337" s="97"/>
-      <c r="AE337" s="97"/>
-      <c r="AG337" s="97"/>
-    </row>
-    <row r="338" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z338" s="97"/>
-      <c r="AA338" s="97"/>
-      <c r="AC338" s="97"/>
-      <c r="AD338" s="97"/>
-      <c r="AE338" s="97"/>
-      <c r="AG338" s="97"/>
-    </row>
-    <row r="339" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z339" s="97"/>
-      <c r="AA339" s="97"/>
-      <c r="AC339" s="97"/>
-      <c r="AD339" s="97"/>
-      <c r="AE339" s="97"/>
-      <c r="AG339" s="97"/>
-    </row>
-    <row r="340" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z340" s="97"/>
-      <c r="AA340" s="97"/>
-      <c r="AC340" s="97"/>
-      <c r="AD340" s="97"/>
-      <c r="AE340" s="97"/>
-      <c r="AG340" s="97"/>
-    </row>
-    <row r="341" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z341" s="97"/>
-      <c r="AA341" s="97"/>
-      <c r="AC341" s="97"/>
-      <c r="AD341" s="97"/>
-      <c r="AE341" s="97"/>
-      <c r="AG341" s="97"/>
-    </row>
-    <row r="342" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z342" s="97"/>
-      <c r="AA342" s="97"/>
-      <c r="AC342" s="97"/>
-      <c r="AD342" s="97"/>
-      <c r="AE342" s="97"/>
-      <c r="AG342" s="97"/>
-    </row>
-    <row r="343" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z343" s="97"/>
-      <c r="AA343" s="97"/>
-      <c r="AC343" s="97"/>
-      <c r="AD343" s="97"/>
-      <c r="AE343" s="97"/>
-      <c r="AG343" s="97"/>
-    </row>
-    <row r="344" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z344" s="97"/>
-      <c r="AA344" s="97"/>
-      <c r="AC344" s="97"/>
-      <c r="AD344" s="97"/>
-      <c r="AE344" s="97"/>
-      <c r="AG344" s="97"/>
-    </row>
-    <row r="345" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z345" s="97"/>
-      <c r="AA345" s="97"/>
-      <c r="AC345" s="97"/>
-      <c r="AD345" s="97"/>
-      <c r="AE345" s="97"/>
-      <c r="AG345" s="97"/>
-    </row>
-    <row r="346" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z346" s="97"/>
-      <c r="AA346" s="97"/>
-      <c r="AC346" s="97"/>
-      <c r="AD346" s="97"/>
-      <c r="AE346" s="97"/>
-      <c r="AG346" s="97"/>
-    </row>
-    <row r="347" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z347" s="97"/>
-      <c r="AA347" s="97"/>
-      <c r="AC347" s="97"/>
-      <c r="AD347" s="97"/>
-      <c r="AE347" s="97"/>
-      <c r="AG347" s="97"/>
-    </row>
-    <row r="348" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z348" s="97"/>
-      <c r="AA348" s="97"/>
-      <c r="AC348" s="97"/>
-      <c r="AD348" s="97"/>
-      <c r="AE348" s="97"/>
-      <c r="AG348" s="97"/>
-    </row>
-    <row r="349" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z349" s="97"/>
-      <c r="AA349" s="97"/>
-      <c r="AC349" s="97"/>
-      <c r="AD349" s="97"/>
-      <c r="AE349" s="97"/>
-      <c r="AG349" s="97"/>
-    </row>
-    <row r="350" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z350" s="97"/>
-      <c r="AA350" s="97"/>
-      <c r="AC350" s="97"/>
-      <c r="AD350" s="97"/>
-      <c r="AE350" s="97"/>
-      <c r="AG350" s="97"/>
-    </row>
-    <row r="351" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z351" s="97"/>
-      <c r="AA351" s="97"/>
-      <c r="AC351" s="97"/>
-      <c r="AD351" s="97"/>
-      <c r="AE351" s="97"/>
-      <c r="AG351" s="97"/>
-    </row>
-    <row r="352" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z352" s="97"/>
-      <c r="AA352" s="97"/>
-      <c r="AC352" s="97"/>
-      <c r="AD352" s="97"/>
-      <c r="AE352" s="97"/>
-      <c r="AG352" s="97"/>
-    </row>
-    <row r="353" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z353" s="97"/>
-      <c r="AA353" s="97"/>
-      <c r="AC353" s="97"/>
-      <c r="AD353" s="97"/>
-      <c r="AE353" s="97"/>
-      <c r="AG353" s="97"/>
-    </row>
-    <row r="354" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z354" s="97"/>
-      <c r="AA354" s="97"/>
-      <c r="AC354" s="97"/>
-      <c r="AD354" s="97"/>
-      <c r="AE354" s="97"/>
-      <c r="AG354" s="97"/>
-    </row>
-    <row r="355" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z355" s="97"/>
-      <c r="AA355" s="97"/>
-      <c r="AC355" s="97"/>
-      <c r="AD355" s="97"/>
-      <c r="AE355" s="97"/>
-      <c r="AG355" s="97"/>
-    </row>
-    <row r="356" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z356" s="97"/>
-      <c r="AA356" s="97"/>
-      <c r="AC356" s="97"/>
-      <c r="AD356" s="97"/>
-      <c r="AE356" s="97"/>
-      <c r="AG356" s="97"/>
-    </row>
-    <row r="357" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z357" s="97"/>
-      <c r="AA357" s="97"/>
-      <c r="AC357" s="97"/>
-      <c r="AD357" s="97"/>
-      <c r="AE357" s="97"/>
-      <c r="AG357" s="97"/>
-    </row>
-    <row r="358" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z358" s="97"/>
-      <c r="AA358" s="97"/>
-      <c r="AC358" s="97"/>
-      <c r="AD358" s="97"/>
-      <c r="AE358" s="97"/>
-      <c r="AG358" s="97"/>
-    </row>
-    <row r="359" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z359" s="97"/>
-      <c r="AA359" s="97"/>
-      <c r="AC359" s="97"/>
-      <c r="AD359" s="97"/>
-      <c r="AE359" s="97"/>
-      <c r="AG359" s="97"/>
-    </row>
-    <row r="360" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z360" s="97"/>
-      <c r="AA360" s="97"/>
-      <c r="AC360" s="97"/>
-      <c r="AD360" s="97"/>
-      <c r="AE360" s="97"/>
-      <c r="AG360" s="97"/>
-    </row>
-    <row r="361" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z361" s="97"/>
-      <c r="AA361" s="97"/>
-      <c r="AC361" s="97"/>
-      <c r="AD361" s="97"/>
-      <c r="AE361" s="97"/>
-      <c r="AG361" s="97"/>
-    </row>
-    <row r="362" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z362" s="97"/>
-      <c r="AA362" s="97"/>
-      <c r="AC362" s="97"/>
-      <c r="AD362" s="97"/>
-      <c r="AE362" s="97"/>
-      <c r="AG362" s="97"/>
-    </row>
-    <row r="363" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z363" s="97"/>
-      <c r="AA363" s="97"/>
-      <c r="AC363" s="97"/>
-      <c r="AD363" s="97"/>
-      <c r="AE363" s="97"/>
-      <c r="AG363" s="97"/>
-    </row>
-    <row r="364" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z364" s="97"/>
-      <c r="AA364" s="97"/>
-      <c r="AC364" s="97"/>
-      <c r="AD364" s="97"/>
-      <c r="AE364" s="97"/>
-      <c r="AG364" s="97"/>
-    </row>
-    <row r="365" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z365" s="97"/>
-      <c r="AA365" s="97"/>
-      <c r="AC365" s="97"/>
-      <c r="AD365" s="97"/>
-      <c r="AE365" s="97"/>
-      <c r="AG365" s="97"/>
-    </row>
-    <row r="366" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z366" s="97"/>
-      <c r="AA366" s="97"/>
-      <c r="AC366" s="97"/>
-      <c r="AD366" s="97"/>
-      <c r="AE366" s="97"/>
-      <c r="AG366" s="97"/>
-    </row>
-    <row r="367" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z367" s="97"/>
-      <c r="AA367" s="97"/>
-      <c r="AC367" s="97"/>
-      <c r="AD367" s="97"/>
-      <c r="AE367" s="97"/>
-      <c r="AG367" s="97"/>
-    </row>
-    <row r="368" spans="26:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z368" s="97"/>
-      <c r="AA368" s="97"/>
-      <c r="AC368" s="97"/>
-      <c r="AD368" s="97"/>
-      <c r="AE368" s="97"/>
-      <c r="AG368" s="97"/>
-    </row>
-    <row r="369" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z369" s="97"/>
-      <c r="AA369" s="97"/>
-      <c r="AC369" s="97"/>
-      <c r="AD369" s="97"/>
-      <c r="AE369" s="97"/>
-      <c r="AG369" s="97"/>
-    </row>
-    <row r="370" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z370" s="97"/>
-      <c r="AA370" s="97"/>
-      <c r="AC370" s="97"/>
-      <c r="AD370" s="97"/>
-      <c r="AE370" s="97"/>
-      <c r="AG370" s="97"/>
-    </row>
-    <row r="371" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z371" s="97"/>
-      <c r="AA371" s="97"/>
-      <c r="AC371" s="97"/>
-      <c r="AD371" s="97"/>
-      <c r="AE371" s="97"/>
-      <c r="AG371" s="97"/>
-    </row>
-    <row r="372" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z372" s="97"/>
-      <c r="AA372" s="97"/>
-      <c r="AC372" s="97"/>
-      <c r="AD372" s="97"/>
-      <c r="AE372" s="97"/>
-      <c r="AG372" s="97"/>
-    </row>
-    <row r="373" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Z373" s="97"/>
-      <c r="AA373" s="97"/>
-      <c r="AC373" s="97"/>
-      <c r="AD373" s="97"/>
-      <c r="AE373" s="97"/>
-      <c r="AG373" s="97"/>
-    </row>
-    <row r="374" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z156" s="95"/>
+      <c r="AA156" s="96"/>
+      <c r="AC156" s="96"/>
+      <c r="AD156" s="96"/>
+      <c r="AE156" s="96"/>
+      <c r="AG156" s="96"/>
+    </row>
+    <row r="157" spans="5:60" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z157" s="95"/>
+      <c r="AA157" s="96"/>
+      <c r="AC157" s="96"/>
+      <c r="AD157" s="96"/>
+      <c r="AE157" s="96"/>
+      <c r="AG157" s="96"/>
+    </row>
+    <row r="158" spans="5:60" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z158" s="95"/>
+      <c r="AA158" s="96"/>
+      <c r="AC158" s="96"/>
+      <c r="AD158" s="96"/>
+      <c r="AE158" s="96"/>
+      <c r="AG158" s="96"/>
+    </row>
+    <row r="159" spans="5:60" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z159" s="95"/>
+      <c r="AA159" s="96"/>
+      <c r="AC159" s="96"/>
+      <c r="AD159" s="96"/>
+      <c r="AE159" s="96"/>
+      <c r="AG159" s="96"/>
+    </row>
+    <row r="160" spans="5:60" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z160" s="95"/>
+      <c r="AA160" s="96"/>
+      <c r="AC160" s="96"/>
+      <c r="AD160" s="96"/>
+      <c r="AE160" s="96"/>
+      <c r="AG160" s="96"/>
+    </row>
+    <row r="161" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z161" s="95"/>
+      <c r="AA161" s="96"/>
+      <c r="AC161" s="96"/>
+      <c r="AD161" s="96"/>
+      <c r="AE161" s="96"/>
+      <c r="AG161" s="96"/>
+    </row>
+    <row r="162" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z162" s="95"/>
+      <c r="AA162" s="96"/>
+      <c r="AC162" s="96"/>
+      <c r="AD162" s="96"/>
+      <c r="AE162" s="96"/>
+      <c r="AG162" s="96"/>
+    </row>
+    <row r="163" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z163" s="95"/>
+      <c r="AA163" s="96"/>
+      <c r="AC163" s="96"/>
+      <c r="AD163" s="96"/>
+      <c r="AE163" s="96"/>
+      <c r="AG163" s="96"/>
+    </row>
+    <row r="164" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z164" s="95"/>
+      <c r="AA164" s="96"/>
+      <c r="AC164" s="96"/>
+      <c r="AD164" s="96"/>
+      <c r="AE164" s="96"/>
+      <c r="AG164" s="96"/>
+    </row>
+    <row r="165" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z165" s="95"/>
+      <c r="AA165" s="96"/>
+      <c r="AC165" s="96"/>
+      <c r="AD165" s="96"/>
+      <c r="AE165" s="96"/>
+      <c r="AG165" s="96"/>
+    </row>
+    <row r="166" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z166" s="95"/>
+      <c r="AA166" s="96"/>
+      <c r="AC166" s="96"/>
+      <c r="AD166" s="96"/>
+      <c r="AE166" s="96"/>
+      <c r="AG166" s="96"/>
+    </row>
+    <row r="167" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z167" s="95"/>
+      <c r="AA167" s="96"/>
+      <c r="AC167" s="96"/>
+      <c r="AD167" s="96"/>
+      <c r="AE167" s="96"/>
+      <c r="AG167" s="96"/>
+    </row>
+    <row r="168" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z168" s="95"/>
+      <c r="AA168" s="96"/>
+      <c r="AC168" s="96"/>
+      <c r="AD168" s="96"/>
+      <c r="AE168" s="96"/>
+      <c r="AG168" s="96"/>
+    </row>
+    <row r="169" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z169" s="95"/>
+      <c r="AA169" s="96"/>
+      <c r="AC169" s="96"/>
+      <c r="AD169" s="96"/>
+      <c r="AE169" s="96"/>
+      <c r="AG169" s="96"/>
+    </row>
+    <row r="170" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z170" s="95"/>
+      <c r="AA170" s="96"/>
+      <c r="AC170" s="96"/>
+      <c r="AD170" s="96"/>
+      <c r="AE170" s="96"/>
+      <c r="AG170" s="96"/>
+    </row>
+    <row r="171" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z171" s="95"/>
+      <c r="AA171" s="96"/>
+      <c r="AC171" s="96"/>
+      <c r="AD171" s="96"/>
+      <c r="AE171" s="96"/>
+      <c r="AG171" s="96"/>
+    </row>
+    <row r="172" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z172" s="95"/>
+      <c r="AA172" s="96"/>
+      <c r="AC172" s="96"/>
+      <c r="AD172" s="96"/>
+      <c r="AE172" s="96"/>
+      <c r="AG172" s="96"/>
+    </row>
+    <row r="173" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z173" s="95"/>
+      <c r="AA173" s="96"/>
+      <c r="AC173" s="96"/>
+      <c r="AD173" s="96"/>
+      <c r="AE173" s="96"/>
+      <c r="AG173" s="96"/>
+    </row>
+    <row r="174" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z174" s="95"/>
+      <c r="AA174" s="96"/>
+      <c r="AC174" s="96"/>
+      <c r="AD174" s="96"/>
+      <c r="AE174" s="96"/>
+      <c r="AG174" s="96"/>
+    </row>
+    <row r="175" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z175" s="95"/>
+      <c r="AA175" s="96"/>
+      <c r="AC175" s="96"/>
+      <c r="AD175" s="96"/>
+      <c r="AE175" s="96"/>
+      <c r="AG175" s="96"/>
+    </row>
+    <row r="176" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z176" s="95"/>
+      <c r="AA176" s="96"/>
+      <c r="AC176" s="96"/>
+      <c r="AD176" s="96"/>
+      <c r="AE176" s="96"/>
+      <c r="AG176" s="96"/>
+    </row>
+    <row r="177" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z177" s="95"/>
+      <c r="AA177" s="96"/>
+      <c r="AC177" s="96"/>
+      <c r="AD177" s="96"/>
+      <c r="AE177" s="96"/>
+      <c r="AG177" s="96"/>
+    </row>
+    <row r="178" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z178" s="95"/>
+      <c r="AA178" s="96"/>
+      <c r="AC178" s="96"/>
+      <c r="AD178" s="96"/>
+      <c r="AE178" s="96"/>
+      <c r="AG178" s="96"/>
+    </row>
+    <row r="179" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z179" s="95"/>
+      <c r="AA179" s="96"/>
+      <c r="AC179" s="96"/>
+      <c r="AD179" s="96"/>
+      <c r="AE179" s="96"/>
+      <c r="AG179" s="96"/>
+    </row>
+    <row r="180" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z180" s="95"/>
+      <c r="AA180" s="96"/>
+      <c r="AC180" s="96"/>
+      <c r="AD180" s="96"/>
+      <c r="AE180" s="96"/>
+      <c r="AG180" s="96"/>
+    </row>
+    <row r="181" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z181" s="95"/>
+      <c r="AA181" s="96"/>
+      <c r="AC181" s="96"/>
+      <c r="AD181" s="96"/>
+      <c r="AE181" s="96"/>
+      <c r="AG181" s="96"/>
+    </row>
+    <row r="182" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z182" s="95"/>
+      <c r="AA182" s="96"/>
+      <c r="AC182" s="96"/>
+      <c r="AD182" s="96"/>
+      <c r="AE182" s="96"/>
+      <c r="AG182" s="96"/>
+    </row>
+    <row r="183" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z183" s="95"/>
+      <c r="AA183" s="96"/>
+      <c r="AC183" s="96"/>
+      <c r="AD183" s="96"/>
+      <c r="AE183" s="96"/>
+      <c r="AG183" s="96"/>
+    </row>
+    <row r="184" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z184" s="95"/>
+      <c r="AA184" s="96"/>
+      <c r="AC184" s="96"/>
+      <c r="AD184" s="96"/>
+      <c r="AE184" s="96"/>
+      <c r="AG184" s="96"/>
+    </row>
+    <row r="185" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z185" s="95"/>
+      <c r="AA185" s="96"/>
+      <c r="AC185" s="96"/>
+      <c r="AD185" s="96"/>
+      <c r="AE185" s="96"/>
+      <c r="AG185" s="96"/>
+    </row>
+    <row r="186" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z186" s="95"/>
+      <c r="AA186" s="96"/>
+      <c r="AC186" s="96"/>
+      <c r="AD186" s="96"/>
+      <c r="AE186" s="96"/>
+      <c r="AG186" s="96"/>
+    </row>
+    <row r="187" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z187" s="95"/>
+      <c r="AA187" s="96"/>
+      <c r="AC187" s="96"/>
+      <c r="AD187" s="96"/>
+      <c r="AE187" s="96"/>
+      <c r="AG187" s="96"/>
+    </row>
+    <row r="188" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z188" s="95"/>
+      <c r="AA188" s="96"/>
+      <c r="AC188" s="96"/>
+      <c r="AD188" s="96"/>
+      <c r="AE188" s="96"/>
+      <c r="AG188" s="96"/>
+    </row>
+    <row r="189" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z189" s="95"/>
+      <c r="AA189" s="96"/>
+      <c r="AC189" s="96"/>
+      <c r="AD189" s="96"/>
+      <c r="AE189" s="96"/>
+      <c r="AG189" s="96"/>
+    </row>
+    <row r="190" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z190" s="95"/>
+      <c r="AA190" s="96"/>
+      <c r="AC190" s="96"/>
+      <c r="AD190" s="96"/>
+      <c r="AE190" s="96"/>
+      <c r="AG190" s="96"/>
+    </row>
+    <row r="191" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z191" s="95"/>
+      <c r="AA191" s="96"/>
+      <c r="AC191" s="96"/>
+      <c r="AD191" s="96"/>
+      <c r="AE191" s="96"/>
+      <c r="AG191" s="96"/>
+    </row>
+    <row r="192" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z192" s="95"/>
+      <c r="AA192" s="96"/>
+      <c r="AC192" s="96"/>
+      <c r="AD192" s="96"/>
+      <c r="AE192" s="96"/>
+      <c r="AG192" s="96"/>
+    </row>
+    <row r="193" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z193" s="95"/>
+      <c r="AA193" s="96"/>
+      <c r="AC193" s="96"/>
+      <c r="AD193" s="96"/>
+      <c r="AE193" s="96"/>
+      <c r="AG193" s="96"/>
+    </row>
+    <row r="194" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z194" s="95"/>
+      <c r="AA194" s="96"/>
+      <c r="AC194" s="96"/>
+      <c r="AD194" s="96"/>
+      <c r="AE194" s="96"/>
+      <c r="AG194" s="96"/>
+    </row>
+    <row r="195" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z195" s="95"/>
+      <c r="AA195" s="96"/>
+      <c r="AC195" s="96"/>
+      <c r="AD195" s="96"/>
+      <c r="AE195" s="96"/>
+      <c r="AG195" s="96"/>
+    </row>
+    <row r="196" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z196" s="95"/>
+      <c r="AA196" s="96"/>
+      <c r="AC196" s="96"/>
+      <c r="AD196" s="96"/>
+      <c r="AE196" s="96"/>
+      <c r="AG196" s="96"/>
+    </row>
+    <row r="197" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z197" s="95"/>
+      <c r="AA197" s="96"/>
+      <c r="AC197" s="96"/>
+      <c r="AD197" s="96"/>
+      <c r="AE197" s="96"/>
+      <c r="AG197" s="96"/>
+    </row>
+    <row r="198" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z198" s="95"/>
+      <c r="AA198" s="96"/>
+      <c r="AC198" s="96"/>
+      <c r="AD198" s="96"/>
+      <c r="AE198" s="96"/>
+      <c r="AG198" s="96"/>
+    </row>
+    <row r="199" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z199" s="95"/>
+      <c r="AA199" s="96"/>
+      <c r="AC199" s="96"/>
+      <c r="AD199" s="96"/>
+      <c r="AE199" s="96"/>
+      <c r="AG199" s="96"/>
+    </row>
+    <row r="200" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z200" s="95"/>
+      <c r="AA200" s="96"/>
+      <c r="AC200" s="96"/>
+      <c r="AD200" s="96"/>
+      <c r="AE200" s="96"/>
+      <c r="AG200" s="96"/>
+    </row>
+    <row r="201" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z201" s="95"/>
+      <c r="AA201" s="96"/>
+      <c r="AC201" s="96"/>
+      <c r="AD201" s="96"/>
+      <c r="AE201" s="96"/>
+      <c r="AG201" s="96"/>
+    </row>
+    <row r="202" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z202" s="95"/>
+      <c r="AA202" s="96"/>
+      <c r="AC202" s="96"/>
+      <c r="AD202" s="96"/>
+      <c r="AE202" s="96"/>
+      <c r="AG202" s="96"/>
+    </row>
+    <row r="203" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z203" s="95"/>
+      <c r="AA203" s="96"/>
+      <c r="AC203" s="96"/>
+      <c r="AD203" s="96"/>
+      <c r="AE203" s="96"/>
+      <c r="AG203" s="96"/>
+    </row>
+    <row r="204" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z204" s="95"/>
+      <c r="AA204" s="96"/>
+      <c r="AC204" s="96"/>
+      <c r="AD204" s="96"/>
+      <c r="AE204" s="96"/>
+      <c r="AG204" s="96"/>
+    </row>
+    <row r="205" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z205" s="95"/>
+      <c r="AA205" s="96"/>
+      <c r="AC205" s="96"/>
+      <c r="AD205" s="96"/>
+      <c r="AE205" s="96"/>
+      <c r="AG205" s="96"/>
+    </row>
+    <row r="206" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z206" s="95"/>
+      <c r="AA206" s="96"/>
+      <c r="AC206" s="96"/>
+      <c r="AD206" s="96"/>
+      <c r="AE206" s="96"/>
+      <c r="AG206" s="96"/>
+    </row>
+    <row r="207" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z207" s="95"/>
+      <c r="AA207" s="96"/>
+      <c r="AC207" s="96"/>
+      <c r="AD207" s="96"/>
+      <c r="AE207" s="96"/>
+      <c r="AG207" s="96"/>
+    </row>
+    <row r="208" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z208" s="95"/>
+      <c r="AA208" s="96"/>
+      <c r="AC208" s="96"/>
+      <c r="AD208" s="96"/>
+      <c r="AE208" s="96"/>
+      <c r="AG208" s="96"/>
+    </row>
+    <row r="209" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z209" s="95"/>
+      <c r="AA209" s="96"/>
+      <c r="AC209" s="96"/>
+      <c r="AD209" s="96"/>
+      <c r="AE209" s="96"/>
+      <c r="AG209" s="96"/>
+    </row>
+    <row r="210" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z210" s="95"/>
+      <c r="AA210" s="96"/>
+      <c r="AC210" s="96"/>
+      <c r="AD210" s="96"/>
+      <c r="AE210" s="96"/>
+      <c r="AG210" s="96"/>
+    </row>
+    <row r="211" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z211" s="95"/>
+      <c r="AA211" s="96"/>
+      <c r="AC211" s="96"/>
+      <c r="AD211" s="96"/>
+      <c r="AE211" s="96"/>
+      <c r="AG211" s="96"/>
+    </row>
+    <row r="212" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z212" s="95"/>
+      <c r="AA212" s="96"/>
+      <c r="AC212" s="96"/>
+      <c r="AD212" s="96"/>
+      <c r="AE212" s="96"/>
+      <c r="AG212" s="96"/>
+    </row>
+    <row r="213" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z213" s="95"/>
+      <c r="AA213" s="96"/>
+      <c r="AC213" s="96"/>
+      <c r="AD213" s="96"/>
+      <c r="AE213" s="96"/>
+      <c r="AG213" s="96"/>
+    </row>
+    <row r="214" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z214" s="95"/>
+      <c r="AA214" s="96"/>
+      <c r="AC214" s="96"/>
+      <c r="AD214" s="96"/>
+      <c r="AE214" s="96"/>
+      <c r="AG214" s="96"/>
+    </row>
+    <row r="215" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z215" s="95"/>
+      <c r="AA215" s="96"/>
+      <c r="AC215" s="96"/>
+      <c r="AD215" s="96"/>
+      <c r="AE215" s="96"/>
+      <c r="AG215" s="96"/>
+    </row>
+    <row r="216" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z216" s="95"/>
+      <c r="AA216" s="96"/>
+      <c r="AC216" s="96"/>
+      <c r="AD216" s="96"/>
+      <c r="AE216" s="96"/>
+      <c r="AG216" s="96"/>
+    </row>
+    <row r="217" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z217" s="95"/>
+      <c r="AA217" s="96"/>
+      <c r="AC217" s="96"/>
+      <c r="AD217" s="96"/>
+      <c r="AE217" s="96"/>
+      <c r="AG217" s="96"/>
+    </row>
+    <row r="218" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z218" s="95"/>
+      <c r="AA218" s="96"/>
+      <c r="AC218" s="96"/>
+      <c r="AD218" s="96"/>
+      <c r="AE218" s="96"/>
+      <c r="AG218" s="96"/>
+    </row>
+    <row r="219" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z219" s="95"/>
+      <c r="AA219" s="96"/>
+      <c r="AC219" s="96"/>
+      <c r="AD219" s="96"/>
+      <c r="AE219" s="96"/>
+      <c r="AG219" s="96"/>
+    </row>
+    <row r="220" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z220" s="95"/>
+      <c r="AA220" s="96"/>
+      <c r="AC220" s="96"/>
+      <c r="AD220" s="96"/>
+      <c r="AE220" s="96"/>
+      <c r="AG220" s="96"/>
+    </row>
+    <row r="221" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z221" s="95"/>
+      <c r="AA221" s="96"/>
+      <c r="AC221" s="96"/>
+      <c r="AD221" s="96"/>
+      <c r="AE221" s="96"/>
+      <c r="AG221" s="96"/>
+    </row>
+    <row r="222" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z222" s="95"/>
+      <c r="AA222" s="96"/>
+      <c r="AC222" s="96"/>
+      <c r="AD222" s="96"/>
+      <c r="AE222" s="96"/>
+      <c r="AG222" s="96"/>
+    </row>
+    <row r="223" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z223" s="95"/>
+      <c r="AA223" s="96"/>
+      <c r="AC223" s="96"/>
+      <c r="AD223" s="96"/>
+      <c r="AE223" s="96"/>
+      <c r="AG223" s="96"/>
+    </row>
+    <row r="224" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z224" s="95"/>
+      <c r="AA224" s="96"/>
+      <c r="AC224" s="96"/>
+      <c r="AD224" s="96"/>
+      <c r="AE224" s="96"/>
+      <c r="AG224" s="96"/>
+    </row>
+    <row r="225" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z225" s="95"/>
+      <c r="AA225" s="96"/>
+      <c r="AC225" s="96"/>
+      <c r="AD225" s="96"/>
+      <c r="AE225" s="96"/>
+      <c r="AG225" s="96"/>
+    </row>
+    <row r="226" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z226" s="95"/>
+      <c r="AA226" s="96"/>
+      <c r="AC226" s="96"/>
+      <c r="AD226" s="96"/>
+      <c r="AE226" s="96"/>
+      <c r="AG226" s="96"/>
+    </row>
+    <row r="227" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z227" s="95"/>
+      <c r="AA227" s="96"/>
+      <c r="AC227" s="96"/>
+      <c r="AD227" s="96"/>
+      <c r="AE227" s="96"/>
+      <c r="AG227" s="96"/>
+    </row>
+    <row r="228" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z228" s="95"/>
+      <c r="AA228" s="96"/>
+      <c r="AC228" s="96"/>
+      <c r="AD228" s="96"/>
+      <c r="AE228" s="96"/>
+      <c r="AG228" s="96"/>
+    </row>
+    <row r="229" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z229" s="95"/>
+      <c r="AA229" s="96"/>
+      <c r="AC229" s="96"/>
+      <c r="AD229" s="96"/>
+      <c r="AE229" s="96"/>
+      <c r="AG229" s="96"/>
+    </row>
+    <row r="230" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z230" s="95"/>
+      <c r="AA230" s="96"/>
+      <c r="AC230" s="96"/>
+      <c r="AD230" s="96"/>
+      <c r="AE230" s="96"/>
+      <c r="AG230" s="96"/>
+    </row>
+    <row r="231" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z231" s="95"/>
+      <c r="AA231" s="96"/>
+      <c r="AC231" s="96"/>
+      <c r="AD231" s="96"/>
+      <c r="AE231" s="96"/>
+      <c r="AG231" s="96"/>
+    </row>
+    <row r="232" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z232" s="95"/>
+      <c r="AA232" s="96"/>
+      <c r="AC232" s="96"/>
+      <c r="AD232" s="96"/>
+      <c r="AE232" s="96"/>
+      <c r="AG232" s="96"/>
+    </row>
+    <row r="233" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z233" s="95"/>
+      <c r="AA233" s="96"/>
+      <c r="AC233" s="96"/>
+      <c r="AD233" s="96"/>
+      <c r="AE233" s="96"/>
+      <c r="AG233" s="96"/>
+    </row>
+    <row r="234" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z234" s="95"/>
+      <c r="AA234" s="96"/>
+      <c r="AC234" s="96"/>
+      <c r="AD234" s="96"/>
+      <c r="AE234" s="96"/>
+      <c r="AG234" s="96"/>
+    </row>
+    <row r="235" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z235" s="95"/>
+      <c r="AA235" s="96"/>
+      <c r="AC235" s="96"/>
+      <c r="AD235" s="96"/>
+      <c r="AE235" s="96"/>
+      <c r="AG235" s="96"/>
+    </row>
+    <row r="236" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z236" s="95"/>
+      <c r="AA236" s="96"/>
+      <c r="AC236" s="96"/>
+      <c r="AD236" s="96"/>
+      <c r="AE236" s="96"/>
+      <c r="AG236" s="96"/>
+    </row>
+    <row r="237" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z237" s="95"/>
+      <c r="AA237" s="96"/>
+      <c r="AC237" s="96"/>
+      <c r="AD237" s="96"/>
+      <c r="AE237" s="96"/>
+      <c r="AG237" s="96"/>
+    </row>
+    <row r="238" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z238" s="95"/>
+      <c r="AA238" s="96"/>
+      <c r="AC238" s="96"/>
+      <c r="AD238" s="96"/>
+      <c r="AE238" s="96"/>
+      <c r="AG238" s="96"/>
+    </row>
+    <row r="239" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z239" s="96"/>
+      <c r="AA239" s="96"/>
+      <c r="AC239" s="96"/>
+      <c r="AD239" s="96"/>
+      <c r="AE239" s="96"/>
+      <c r="AG239" s="96"/>
+    </row>
+    <row r="240" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z240" s="96"/>
+      <c r="AA240" s="96"/>
+      <c r="AC240" s="96"/>
+      <c r="AD240" s="96"/>
+      <c r="AE240" s="96"/>
+      <c r="AG240" s="96"/>
+    </row>
+    <row r="241" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z241" s="96"/>
+      <c r="AA241" s="96"/>
+      <c r="AC241" s="96"/>
+      <c r="AD241" s="96"/>
+      <c r="AE241" s="96"/>
+      <c r="AG241" s="96"/>
+    </row>
+    <row r="242" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z242" s="96"/>
+      <c r="AA242" s="96"/>
+      <c r="AC242" s="96"/>
+      <c r="AD242" s="96"/>
+      <c r="AE242" s="96"/>
+      <c r="AG242" s="96"/>
+    </row>
+    <row r="243" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z243" s="96"/>
+      <c r="AA243" s="96"/>
+      <c r="AC243" s="96"/>
+      <c r="AD243" s="96"/>
+      <c r="AE243" s="96"/>
+      <c r="AG243" s="96"/>
+    </row>
+    <row r="244" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z244" s="96"/>
+      <c r="AA244" s="96"/>
+      <c r="AC244" s="96"/>
+      <c r="AD244" s="96"/>
+      <c r="AE244" s="96"/>
+      <c r="AG244" s="96"/>
+    </row>
+    <row r="245" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z245" s="96"/>
+      <c r="AA245" s="96"/>
+      <c r="AC245" s="96"/>
+      <c r="AD245" s="96"/>
+      <c r="AE245" s="96"/>
+      <c r="AG245" s="96"/>
+    </row>
+    <row r="246" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z246" s="96"/>
+      <c r="AA246" s="96"/>
+      <c r="AC246" s="96"/>
+      <c r="AD246" s="96"/>
+      <c r="AE246" s="96"/>
+      <c r="AG246" s="96"/>
+    </row>
+    <row r="247" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z247" s="96"/>
+      <c r="AA247" s="96"/>
+      <c r="AC247" s="96"/>
+      <c r="AD247" s="96"/>
+      <c r="AE247" s="96"/>
+      <c r="AG247" s="96"/>
+    </row>
+    <row r="248" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z248" s="96"/>
+      <c r="AA248" s="96"/>
+      <c r="AC248" s="96"/>
+      <c r="AD248" s="96"/>
+      <c r="AE248" s="96"/>
+      <c r="AG248" s="96"/>
+    </row>
+    <row r="249" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z249" s="96"/>
+      <c r="AA249" s="96"/>
+      <c r="AC249" s="96"/>
+      <c r="AD249" s="96"/>
+      <c r="AE249" s="96"/>
+      <c r="AG249" s="96"/>
+    </row>
+    <row r="250" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z250" s="96"/>
+      <c r="AA250" s="96"/>
+      <c r="AC250" s="96"/>
+      <c r="AD250" s="96"/>
+      <c r="AE250" s="96"/>
+      <c r="AG250" s="96"/>
+    </row>
+    <row r="251" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z251" s="96"/>
+      <c r="AA251" s="96"/>
+      <c r="AC251" s="96"/>
+      <c r="AD251" s="96"/>
+      <c r="AE251" s="96"/>
+      <c r="AG251" s="96"/>
+    </row>
+    <row r="252" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z252" s="96"/>
+      <c r="AA252" s="96"/>
+      <c r="AC252" s="96"/>
+      <c r="AD252" s="96"/>
+      <c r="AE252" s="96"/>
+      <c r="AG252" s="96"/>
+    </row>
+    <row r="253" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z253" s="96"/>
+      <c r="AA253" s="96"/>
+      <c r="AC253" s="96"/>
+      <c r="AD253" s="96"/>
+      <c r="AE253" s="96"/>
+      <c r="AG253" s="96"/>
+    </row>
+    <row r="254" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z254" s="96"/>
+      <c r="AA254" s="96"/>
+      <c r="AC254" s="96"/>
+      <c r="AD254" s="96"/>
+      <c r="AE254" s="96"/>
+      <c r="AG254" s="96"/>
+    </row>
+    <row r="255" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z255" s="96"/>
+      <c r="AA255" s="96"/>
+      <c r="AC255" s="96"/>
+      <c r="AD255" s="96"/>
+      <c r="AE255" s="96"/>
+      <c r="AG255" s="96"/>
+    </row>
+    <row r="256" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z256" s="96"/>
+      <c r="AA256" s="96"/>
+      <c r="AC256" s="96"/>
+      <c r="AD256" s="96"/>
+      <c r="AE256" s="96"/>
+      <c r="AG256" s="96"/>
+    </row>
+    <row r="257" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z257" s="96"/>
+      <c r="AA257" s="96"/>
+      <c r="AC257" s="96"/>
+      <c r="AD257" s="96"/>
+      <c r="AE257" s="96"/>
+      <c r="AG257" s="96"/>
+    </row>
+    <row r="258" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z258" s="96"/>
+      <c r="AA258" s="96"/>
+      <c r="AC258" s="96"/>
+      <c r="AD258" s="96"/>
+      <c r="AE258" s="96"/>
+      <c r="AG258" s="96"/>
+    </row>
+    <row r="259" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z259" s="96"/>
+      <c r="AA259" s="96"/>
+      <c r="AC259" s="96"/>
+      <c r="AD259" s="96"/>
+      <c r="AE259" s="96"/>
+      <c r="AG259" s="96"/>
+    </row>
+    <row r="260" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z260" s="96"/>
+      <c r="AA260" s="96"/>
+      <c r="AC260" s="96"/>
+      <c r="AD260" s="96"/>
+      <c r="AE260" s="96"/>
+      <c r="AG260" s="96"/>
+    </row>
+    <row r="261" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z261" s="96"/>
+      <c r="AA261" s="96"/>
+      <c r="AC261" s="96"/>
+      <c r="AD261" s="96"/>
+      <c r="AE261" s="96"/>
+      <c r="AG261" s="96"/>
+    </row>
+    <row r="262" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z262" s="96"/>
+      <c r="AA262" s="96"/>
+      <c r="AC262" s="96"/>
+      <c r="AD262" s="96"/>
+      <c r="AE262" s="96"/>
+      <c r="AG262" s="96"/>
+    </row>
+    <row r="263" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z263" s="96"/>
+      <c r="AA263" s="96"/>
+      <c r="AC263" s="96"/>
+      <c r="AD263" s="96"/>
+      <c r="AE263" s="96"/>
+      <c r="AG263" s="96"/>
+    </row>
+    <row r="264" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z264" s="96"/>
+      <c r="AA264" s="96"/>
+      <c r="AC264" s="96"/>
+      <c r="AD264" s="96"/>
+      <c r="AE264" s="96"/>
+      <c r="AG264" s="96"/>
+    </row>
+    <row r="265" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z265" s="96"/>
+      <c r="AA265" s="96"/>
+      <c r="AC265" s="96"/>
+      <c r="AD265" s="96"/>
+      <c r="AE265" s="96"/>
+      <c r="AG265" s="96"/>
+    </row>
+    <row r="266" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z266" s="96"/>
+      <c r="AA266" s="96"/>
+      <c r="AC266" s="96"/>
+      <c r="AD266" s="96"/>
+      <c r="AE266" s="96"/>
+      <c r="AG266" s="96"/>
+    </row>
+    <row r="267" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z267" s="96"/>
+      <c r="AA267" s="96"/>
+      <c r="AC267" s="96"/>
+      <c r="AD267" s="96"/>
+      <c r="AE267" s="96"/>
+      <c r="AG267" s="96"/>
+    </row>
+    <row r="268" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z268" s="96"/>
+      <c r="AA268" s="96"/>
+      <c r="AC268" s="96"/>
+      <c r="AD268" s="96"/>
+      <c r="AE268" s="96"/>
+      <c r="AG268" s="96"/>
+    </row>
+    <row r="269" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z269" s="96"/>
+      <c r="AA269" s="96"/>
+      <c r="AC269" s="96"/>
+      <c r="AD269" s="96"/>
+      <c r="AE269" s="96"/>
+      <c r="AG269" s="96"/>
+    </row>
+    <row r="270" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z270" s="96"/>
+      <c r="AA270" s="96"/>
+      <c r="AC270" s="96"/>
+      <c r="AD270" s="96"/>
+      <c r="AE270" s="96"/>
+      <c r="AG270" s="96"/>
+    </row>
+    <row r="271" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z271" s="96"/>
+      <c r="AA271" s="96"/>
+      <c r="AC271" s="96"/>
+      <c r="AD271" s="96"/>
+      <c r="AE271" s="96"/>
+      <c r="AG271" s="96"/>
+    </row>
+    <row r="272" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z272" s="96"/>
+      <c r="AA272" s="96"/>
+      <c r="AC272" s="96"/>
+      <c r="AD272" s="96"/>
+      <c r="AE272" s="96"/>
+      <c r="AG272" s="96"/>
+    </row>
+    <row r="273" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z273" s="96"/>
+      <c r="AA273" s="96"/>
+      <c r="AC273" s="96"/>
+      <c r="AD273" s="96"/>
+      <c r="AE273" s="96"/>
+      <c r="AG273" s="96"/>
+    </row>
+    <row r="274" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z274" s="96"/>
+      <c r="AA274" s="96"/>
+      <c r="AC274" s="96"/>
+      <c r="AD274" s="96"/>
+      <c r="AE274" s="96"/>
+      <c r="AG274" s="96"/>
+    </row>
+    <row r="275" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z275" s="96"/>
+      <c r="AA275" s="96"/>
+      <c r="AC275" s="96"/>
+      <c r="AD275" s="96"/>
+      <c r="AE275" s="96"/>
+      <c r="AG275" s="96"/>
+    </row>
+    <row r="276" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z276" s="96"/>
+      <c r="AA276" s="96"/>
+      <c r="AC276" s="96"/>
+      <c r="AD276" s="96"/>
+      <c r="AE276" s="96"/>
+      <c r="AG276" s="96"/>
+    </row>
+    <row r="277" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z277" s="96"/>
+      <c r="AA277" s="96"/>
+      <c r="AC277" s="96"/>
+      <c r="AD277" s="96"/>
+      <c r="AE277" s="96"/>
+      <c r="AG277" s="96"/>
+    </row>
+    <row r="278" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z278" s="96"/>
+      <c r="AA278" s="96"/>
+      <c r="AC278" s="96"/>
+      <c r="AD278" s="96"/>
+      <c r="AE278" s="96"/>
+      <c r="AG278" s="96"/>
+    </row>
+    <row r="279" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z279" s="96"/>
+      <c r="AA279" s="96"/>
+      <c r="AC279" s="96"/>
+      <c r="AD279" s="96"/>
+      <c r="AE279" s="96"/>
+      <c r="AG279" s="96"/>
+    </row>
+    <row r="280" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z280" s="96"/>
+      <c r="AA280" s="96"/>
+      <c r="AC280" s="96"/>
+      <c r="AD280" s="96"/>
+      <c r="AE280" s="96"/>
+      <c r="AG280" s="96"/>
+    </row>
+    <row r="281" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z281" s="96"/>
+      <c r="AA281" s="96"/>
+      <c r="AC281" s="96"/>
+      <c r="AD281" s="96"/>
+      <c r="AE281" s="96"/>
+      <c r="AG281" s="96"/>
+    </row>
+    <row r="282" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z282" s="96"/>
+      <c r="AA282" s="96"/>
+      <c r="AC282" s="96"/>
+      <c r="AD282" s="96"/>
+      <c r="AE282" s="96"/>
+      <c r="AG282" s="96"/>
+    </row>
+    <row r="283" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z283" s="96"/>
+      <c r="AA283" s="96"/>
+      <c r="AC283" s="96"/>
+      <c r="AD283" s="96"/>
+      <c r="AE283" s="96"/>
+      <c r="AG283" s="96"/>
+    </row>
+    <row r="284" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z284" s="96"/>
+      <c r="AA284" s="96"/>
+      <c r="AC284" s="96"/>
+      <c r="AD284" s="96"/>
+      <c r="AE284" s="96"/>
+      <c r="AG284" s="96"/>
+    </row>
+    <row r="285" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z285" s="96"/>
+      <c r="AA285" s="96"/>
+      <c r="AC285" s="96"/>
+      <c r="AD285" s="96"/>
+      <c r="AE285" s="96"/>
+      <c r="AG285" s="96"/>
+    </row>
+    <row r="286" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z286" s="96"/>
+      <c r="AA286" s="96"/>
+      <c r="AC286" s="96"/>
+      <c r="AD286" s="96"/>
+      <c r="AE286" s="96"/>
+      <c r="AG286" s="96"/>
+    </row>
+    <row r="287" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z287" s="96"/>
+      <c r="AA287" s="96"/>
+      <c r="AC287" s="96"/>
+      <c r="AD287" s="96"/>
+      <c r="AE287" s="96"/>
+      <c r="AG287" s="96"/>
+    </row>
+    <row r="288" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z288" s="96"/>
+      <c r="AA288" s="96"/>
+      <c r="AC288" s="96"/>
+      <c r="AD288" s="96"/>
+      <c r="AE288" s="96"/>
+      <c r="AG288" s="96"/>
+    </row>
+    <row r="289" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z289" s="96"/>
+      <c r="AA289" s="96"/>
+      <c r="AC289" s="96"/>
+      <c r="AD289" s="96"/>
+      <c r="AE289" s="96"/>
+      <c r="AG289" s="96"/>
+    </row>
+    <row r="290" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z290" s="96"/>
+      <c r="AA290" s="96"/>
+      <c r="AC290" s="96"/>
+      <c r="AD290" s="96"/>
+      <c r="AE290" s="96"/>
+      <c r="AG290" s="96"/>
+    </row>
+    <row r="291" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z291" s="96"/>
+      <c r="AA291" s="96"/>
+      <c r="AC291" s="96"/>
+      <c r="AD291" s="96"/>
+      <c r="AE291" s="96"/>
+      <c r="AG291" s="96"/>
+    </row>
+    <row r="292" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z292" s="96"/>
+      <c r="AA292" s="96"/>
+      <c r="AC292" s="96"/>
+      <c r="AD292" s="96"/>
+      <c r="AE292" s="96"/>
+      <c r="AG292" s="96"/>
+    </row>
+    <row r="293" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z293" s="96"/>
+      <c r="AA293" s="96"/>
+      <c r="AC293" s="96"/>
+      <c r="AD293" s="96"/>
+      <c r="AE293" s="96"/>
+      <c r="AG293" s="96"/>
+    </row>
+    <row r="294" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z294" s="96"/>
+      <c r="AA294" s="96"/>
+      <c r="AC294" s="96"/>
+      <c r="AD294" s="96"/>
+      <c r="AE294" s="96"/>
+      <c r="AG294" s="96"/>
+    </row>
+    <row r="295" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z295" s="96"/>
+      <c r="AA295" s="96"/>
+      <c r="AC295" s="96"/>
+      <c r="AD295" s="96"/>
+      <c r="AE295" s="96"/>
+      <c r="AG295" s="96"/>
+    </row>
+    <row r="296" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z296" s="96"/>
+      <c r="AA296" s="96"/>
+      <c r="AC296" s="96"/>
+      <c r="AD296" s="96"/>
+      <c r="AE296" s="96"/>
+      <c r="AG296" s="96"/>
+    </row>
+    <row r="297" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z297" s="96"/>
+      <c r="AA297" s="96"/>
+      <c r="AC297" s="96"/>
+      <c r="AD297" s="96"/>
+      <c r="AE297" s="96"/>
+      <c r="AG297" s="96"/>
+    </row>
+    <row r="298" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z298" s="96"/>
+      <c r="AA298" s="96"/>
+      <c r="AC298" s="96"/>
+      <c r="AD298" s="96"/>
+      <c r="AE298" s="96"/>
+      <c r="AG298" s="96"/>
+    </row>
+    <row r="299" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z299" s="96"/>
+      <c r="AA299" s="96"/>
+      <c r="AC299" s="96"/>
+      <c r="AD299" s="96"/>
+      <c r="AE299" s="96"/>
+      <c r="AG299" s="96"/>
+    </row>
+    <row r="300" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z300" s="96"/>
+      <c r="AA300" s="96"/>
+      <c r="AC300" s="96"/>
+      <c r="AD300" s="96"/>
+      <c r="AE300" s="96"/>
+      <c r="AG300" s="96"/>
+    </row>
+    <row r="301" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z301" s="96"/>
+      <c r="AA301" s="96"/>
+      <c r="AC301" s="96"/>
+      <c r="AD301" s="96"/>
+      <c r="AE301" s="96"/>
+      <c r="AG301" s="96"/>
+    </row>
+    <row r="302" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z302" s="96"/>
+      <c r="AA302" s="96"/>
+      <c r="AC302" s="96"/>
+      <c r="AD302" s="96"/>
+      <c r="AE302" s="96"/>
+      <c r="AG302" s="96"/>
+    </row>
+    <row r="303" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z303" s="96"/>
+      <c r="AA303" s="96"/>
+      <c r="AC303" s="96"/>
+      <c r="AD303" s="96"/>
+      <c r="AE303" s="96"/>
+      <c r="AG303" s="96"/>
+    </row>
+    <row r="304" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z304" s="96"/>
+      <c r="AA304" s="96"/>
+      <c r="AC304" s="96"/>
+      <c r="AD304" s="96"/>
+      <c r="AE304" s="96"/>
+      <c r="AG304" s="96"/>
+    </row>
+    <row r="305" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z305" s="96"/>
+      <c r="AA305" s="96"/>
+      <c r="AC305" s="96"/>
+      <c r="AD305" s="96"/>
+      <c r="AE305" s="96"/>
+      <c r="AG305" s="96"/>
+    </row>
+    <row r="306" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z306" s="96"/>
+      <c r="AA306" s="96"/>
+      <c r="AC306" s="96"/>
+      <c r="AD306" s="96"/>
+      <c r="AE306" s="96"/>
+      <c r="AG306" s="96"/>
+    </row>
+    <row r="307" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z307" s="96"/>
+      <c r="AA307" s="96"/>
+      <c r="AC307" s="96"/>
+      <c r="AD307" s="96"/>
+      <c r="AE307" s="96"/>
+      <c r="AG307" s="96"/>
+    </row>
+    <row r="308" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z308" s="96"/>
+      <c r="AA308" s="96"/>
+      <c r="AC308" s="96"/>
+      <c r="AD308" s="96"/>
+      <c r="AE308" s="96"/>
+      <c r="AG308" s="96"/>
+    </row>
+    <row r="309" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z309" s="96"/>
+      <c r="AA309" s="96"/>
+      <c r="AC309" s="96"/>
+      <c r="AD309" s="96"/>
+      <c r="AE309" s="96"/>
+      <c r="AG309" s="96"/>
+    </row>
+    <row r="310" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z310" s="96"/>
+      <c r="AA310" s="96"/>
+      <c r="AC310" s="96"/>
+      <c r="AD310" s="96"/>
+      <c r="AE310" s="96"/>
+      <c r="AG310" s="96"/>
+    </row>
+    <row r="311" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z311" s="96"/>
+      <c r="AA311" s="96"/>
+      <c r="AC311" s="96"/>
+      <c r="AD311" s="96"/>
+      <c r="AE311" s="96"/>
+      <c r="AG311" s="96"/>
+    </row>
+    <row r="312" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z312" s="96"/>
+      <c r="AA312" s="96"/>
+      <c r="AC312" s="96"/>
+      <c r="AD312" s="96"/>
+      <c r="AE312" s="96"/>
+      <c r="AG312" s="96"/>
+    </row>
+    <row r="313" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z313" s="96"/>
+      <c r="AA313" s="96"/>
+      <c r="AC313" s="96"/>
+      <c r="AD313" s="96"/>
+      <c r="AE313" s="96"/>
+      <c r="AG313" s="96"/>
+    </row>
+    <row r="314" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z314" s="96"/>
+      <c r="AA314" s="96"/>
+      <c r="AC314" s="96"/>
+      <c r="AD314" s="96"/>
+      <c r="AE314" s="96"/>
+      <c r="AG314" s="96"/>
+    </row>
+    <row r="315" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z315" s="96"/>
+      <c r="AA315" s="96"/>
+      <c r="AC315" s="96"/>
+      <c r="AD315" s="96"/>
+      <c r="AE315" s="96"/>
+      <c r="AG315" s="96"/>
+    </row>
+    <row r="316" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z316" s="96"/>
+      <c r="AA316" s="96"/>
+      <c r="AC316" s="96"/>
+      <c r="AD316" s="96"/>
+      <c r="AE316" s="96"/>
+      <c r="AG316" s="96"/>
+    </row>
+    <row r="317" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z317" s="96"/>
+      <c r="AA317" s="96"/>
+      <c r="AC317" s="96"/>
+      <c r="AD317" s="96"/>
+      <c r="AE317" s="96"/>
+      <c r="AG317" s="96"/>
+    </row>
+    <row r="318" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z318" s="96"/>
+      <c r="AA318" s="96"/>
+      <c r="AC318" s="96"/>
+      <c r="AD318" s="96"/>
+      <c r="AE318" s="96"/>
+      <c r="AG318" s="96"/>
+    </row>
+    <row r="319" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z319" s="96"/>
+      <c r="AA319" s="96"/>
+      <c r="AC319" s="96"/>
+      <c r="AD319" s="96"/>
+      <c r="AE319" s="96"/>
+      <c r="AG319" s="96"/>
+    </row>
+    <row r="320" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z320" s="96"/>
+      <c r="AA320" s="96"/>
+      <c r="AC320" s="96"/>
+      <c r="AD320" s="96"/>
+      <c r="AE320" s="96"/>
+      <c r="AG320" s="96"/>
+    </row>
+    <row r="321" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z321" s="96"/>
+      <c r="AA321" s="96"/>
+      <c r="AC321" s="96"/>
+      <c r="AD321" s="96"/>
+      <c r="AE321" s="96"/>
+      <c r="AG321" s="96"/>
+    </row>
+    <row r="322" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z322" s="96"/>
+      <c r="AA322" s="96"/>
+      <c r="AC322" s="96"/>
+      <c r="AD322" s="96"/>
+      <c r="AE322" s="96"/>
+      <c r="AG322" s="96"/>
+    </row>
+    <row r="323" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z323" s="96"/>
+      <c r="AA323" s="96"/>
+      <c r="AC323" s="96"/>
+      <c r="AD323" s="96"/>
+      <c r="AE323" s="96"/>
+      <c r="AG323" s="96"/>
+    </row>
+    <row r="324" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z324" s="96"/>
+      <c r="AA324" s="96"/>
+      <c r="AC324" s="96"/>
+      <c r="AD324" s="96"/>
+      <c r="AE324" s="96"/>
+      <c r="AG324" s="96"/>
+    </row>
+    <row r="325" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z325" s="96"/>
+      <c r="AA325" s="96"/>
+      <c r="AC325" s="96"/>
+      <c r="AD325" s="96"/>
+      <c r="AE325" s="96"/>
+      <c r="AG325" s="96"/>
+    </row>
+    <row r="326" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z326" s="96"/>
+      <c r="AA326" s="96"/>
+      <c r="AC326" s="96"/>
+      <c r="AD326" s="96"/>
+      <c r="AE326" s="96"/>
+      <c r="AG326" s="96"/>
+    </row>
+    <row r="327" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z327" s="96"/>
+      <c r="AA327" s="96"/>
+      <c r="AC327" s="96"/>
+      <c r="AD327" s="96"/>
+      <c r="AE327" s="96"/>
+      <c r="AG327" s="96"/>
+    </row>
+    <row r="328" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z328" s="96"/>
+      <c r="AA328" s="96"/>
+      <c r="AC328" s="96"/>
+      <c r="AD328" s="96"/>
+      <c r="AE328" s="96"/>
+      <c r="AG328" s="96"/>
+    </row>
+    <row r="329" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z329" s="96"/>
+      <c r="AA329" s="96"/>
+      <c r="AC329" s="96"/>
+      <c r="AD329" s="96"/>
+      <c r="AE329" s="96"/>
+      <c r="AG329" s="96"/>
+    </row>
+    <row r="330" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z330" s="96"/>
+      <c r="AA330" s="96"/>
+      <c r="AC330" s="96"/>
+      <c r="AD330" s="96"/>
+      <c r="AE330" s="96"/>
+      <c r="AG330" s="96"/>
+    </row>
+    <row r="331" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z331" s="96"/>
+      <c r="AA331" s="96"/>
+      <c r="AC331" s="96"/>
+      <c r="AD331" s="96"/>
+      <c r="AE331" s="96"/>
+      <c r="AG331" s="96"/>
+    </row>
+    <row r="332" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z332" s="96"/>
+      <c r="AA332" s="96"/>
+      <c r="AC332" s="96"/>
+      <c r="AD332" s="96"/>
+      <c r="AE332" s="96"/>
+      <c r="AG332" s="96"/>
+    </row>
+    <row r="333" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z333" s="96"/>
+      <c r="AA333" s="96"/>
+      <c r="AC333" s="96"/>
+      <c r="AD333" s="96"/>
+      <c r="AE333" s="96"/>
+      <c r="AG333" s="96"/>
+    </row>
+    <row r="334" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z334" s="96"/>
+      <c r="AA334" s="96"/>
+      <c r="AC334" s="96"/>
+      <c r="AD334" s="96"/>
+      <c r="AE334" s="96"/>
+      <c r="AG334" s="96"/>
+    </row>
+    <row r="335" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z335" s="96"/>
+      <c r="AA335" s="96"/>
+      <c r="AC335" s="96"/>
+      <c r="AD335" s="96"/>
+      <c r="AE335" s="96"/>
+      <c r="AG335" s="96"/>
+    </row>
+    <row r="336" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z336" s="96"/>
+      <c r="AA336" s="96"/>
+      <c r="AC336" s="96"/>
+      <c r="AD336" s="96"/>
+      <c r="AE336" s="96"/>
+      <c r="AG336" s="96"/>
+    </row>
+    <row r="337" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z337" s="96"/>
+      <c r="AA337" s="96"/>
+      <c r="AC337" s="96"/>
+      <c r="AD337" s="96"/>
+      <c r="AE337" s="96"/>
+      <c r="AG337" s="96"/>
+    </row>
+    <row r="338" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z338" s="96"/>
+      <c r="AA338" s="96"/>
+      <c r="AC338" s="96"/>
+      <c r="AD338" s="96"/>
+      <c r="AE338" s="96"/>
+      <c r="AG338" s="96"/>
+    </row>
+    <row r="339" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z339" s="96"/>
+      <c r="AA339" s="96"/>
+      <c r="AC339" s="96"/>
+      <c r="AD339" s="96"/>
+      <c r="AE339" s="96"/>
+      <c r="AG339" s="96"/>
+    </row>
+    <row r="340" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z340" s="96"/>
+      <c r="AA340" s="96"/>
+      <c r="AC340" s="96"/>
+      <c r="AD340" s="96"/>
+      <c r="AE340" s="96"/>
+      <c r="AG340" s="96"/>
+    </row>
+    <row r="341" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z341" s="96"/>
+      <c r="AA341" s="96"/>
+      <c r="AC341" s="96"/>
+      <c r="AD341" s="96"/>
+      <c r="AE341" s="96"/>
+      <c r="AG341" s="96"/>
+    </row>
+    <row r="342" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z342" s="96"/>
+      <c r="AA342" s="96"/>
+      <c r="AC342" s="96"/>
+      <c r="AD342" s="96"/>
+      <c r="AE342" s="96"/>
+      <c r="AG342" s="96"/>
+    </row>
+    <row r="343" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z343" s="96"/>
+      <c r="AA343" s="96"/>
+      <c r="AC343" s="96"/>
+      <c r="AD343" s="96"/>
+      <c r="AE343" s="96"/>
+      <c r="AG343" s="96"/>
+    </row>
+    <row r="344" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z344" s="96"/>
+      <c r="AA344" s="96"/>
+      <c r="AC344" s="96"/>
+      <c r="AD344" s="96"/>
+      <c r="AE344" s="96"/>
+      <c r="AG344" s="96"/>
+    </row>
+    <row r="345" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z345" s="96"/>
+      <c r="AA345" s="96"/>
+      <c r="AC345" s="96"/>
+      <c r="AD345" s="96"/>
+      <c r="AE345" s="96"/>
+      <c r="AG345" s="96"/>
+    </row>
+    <row r="346" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z346" s="96"/>
+      <c r="AA346" s="96"/>
+      <c r="AC346" s="96"/>
+      <c r="AD346" s="96"/>
+      <c r="AE346" s="96"/>
+      <c r="AG346" s="96"/>
+    </row>
+    <row r="347" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z347" s="96"/>
+      <c r="AA347" s="96"/>
+      <c r="AC347" s="96"/>
+      <c r="AD347" s="96"/>
+      <c r="AE347" s="96"/>
+      <c r="AG347" s="96"/>
+    </row>
+    <row r="348" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z348" s="96"/>
+      <c r="AA348" s="96"/>
+      <c r="AC348" s="96"/>
+      <c r="AD348" s="96"/>
+      <c r="AE348" s="96"/>
+      <c r="AG348" s="96"/>
+    </row>
+    <row r="349" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z349" s="96"/>
+      <c r="AA349" s="96"/>
+      <c r="AC349" s="96"/>
+      <c r="AD349" s="96"/>
+      <c r="AE349" s="96"/>
+      <c r="AG349" s="96"/>
+    </row>
+    <row r="350" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z350" s="96"/>
+      <c r="AA350" s="96"/>
+      <c r="AC350" s="96"/>
+      <c r="AD350" s="96"/>
+      <c r="AE350" s="96"/>
+      <c r="AG350" s="96"/>
+    </row>
+    <row r="351" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z351" s="96"/>
+      <c r="AA351" s="96"/>
+      <c r="AC351" s="96"/>
+      <c r="AD351" s="96"/>
+      <c r="AE351" s="96"/>
+      <c r="AG351" s="96"/>
+    </row>
+    <row r="352" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z352" s="96"/>
+      <c r="AA352" s="96"/>
+      <c r="AC352" s="96"/>
+      <c r="AD352" s="96"/>
+      <c r="AE352" s="96"/>
+      <c r="AG352" s="96"/>
+    </row>
+    <row r="353" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z353" s="96"/>
+      <c r="AA353" s="96"/>
+      <c r="AC353" s="96"/>
+      <c r="AD353" s="96"/>
+      <c r="AE353" s="96"/>
+      <c r="AG353" s="96"/>
+    </row>
+    <row r="354" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z354" s="96"/>
+      <c r="AA354" s="96"/>
+      <c r="AC354" s="96"/>
+      <c r="AD354" s="96"/>
+      <c r="AE354" s="96"/>
+      <c r="AG354" s="96"/>
+    </row>
+    <row r="355" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z355" s="96"/>
+      <c r="AA355" s="96"/>
+      <c r="AC355" s="96"/>
+      <c r="AD355" s="96"/>
+      <c r="AE355" s="96"/>
+      <c r="AG355" s="96"/>
+    </row>
+    <row r="356" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z356" s="96"/>
+      <c r="AA356" s="96"/>
+      <c r="AC356" s="96"/>
+      <c r="AD356" s="96"/>
+      <c r="AE356" s="96"/>
+      <c r="AG356" s="96"/>
+    </row>
+    <row r="357" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z357" s="96"/>
+      <c r="AA357" s="96"/>
+      <c r="AC357" s="96"/>
+      <c r="AD357" s="96"/>
+      <c r="AE357" s="96"/>
+      <c r="AG357" s="96"/>
+    </row>
+    <row r="358" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z358" s="96"/>
+      <c r="AA358" s="96"/>
+      <c r="AC358" s="96"/>
+      <c r="AD358" s="96"/>
+      <c r="AE358" s="96"/>
+      <c r="AG358" s="96"/>
+    </row>
+    <row r="359" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z359" s="96"/>
+      <c r="AA359" s="96"/>
+      <c r="AC359" s="96"/>
+      <c r="AD359" s="96"/>
+      <c r="AE359" s="96"/>
+      <c r="AG359" s="96"/>
+    </row>
+    <row r="360" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z360" s="96"/>
+      <c r="AA360" s="96"/>
+      <c r="AC360" s="96"/>
+      <c r="AD360" s="96"/>
+      <c r="AE360" s="96"/>
+      <c r="AG360" s="96"/>
+    </row>
+    <row r="361" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z361" s="96"/>
+      <c r="AA361" s="96"/>
+      <c r="AC361" s="96"/>
+      <c r="AD361" s="96"/>
+      <c r="AE361" s="96"/>
+      <c r="AG361" s="96"/>
+    </row>
+    <row r="362" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z362" s="96"/>
+      <c r="AA362" s="96"/>
+      <c r="AC362" s="96"/>
+      <c r="AD362" s="96"/>
+      <c r="AE362" s="96"/>
+      <c r="AG362" s="96"/>
+    </row>
+    <row r="363" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z363" s="96"/>
+      <c r="AA363" s="96"/>
+      <c r="AC363" s="96"/>
+      <c r="AD363" s="96"/>
+      <c r="AE363" s="96"/>
+      <c r="AG363" s="96"/>
+    </row>
+    <row r="364" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z364" s="96"/>
+      <c r="AA364" s="96"/>
+      <c r="AC364" s="96"/>
+      <c r="AD364" s="96"/>
+      <c r="AE364" s="96"/>
+      <c r="AG364" s="96"/>
+    </row>
+    <row r="365" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z365" s="96"/>
+      <c r="AA365" s="96"/>
+      <c r="AC365" s="96"/>
+      <c r="AD365" s="96"/>
+      <c r="AE365" s="96"/>
+      <c r="AG365" s="96"/>
+    </row>
+    <row r="366" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z366" s="96"/>
+      <c r="AA366" s="96"/>
+      <c r="AC366" s="96"/>
+      <c r="AD366" s="96"/>
+      <c r="AE366" s="96"/>
+      <c r="AG366" s="96"/>
+    </row>
+    <row r="367" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z367" s="96"/>
+      <c r="AA367" s="96"/>
+      <c r="AC367" s="96"/>
+      <c r="AD367" s="96"/>
+      <c r="AE367" s="96"/>
+      <c r="AG367" s="96"/>
+    </row>
+    <row r="368" spans="26:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z368" s="96"/>
+      <c r="AA368" s="96"/>
+      <c r="AC368" s="96"/>
+      <c r="AD368" s="96"/>
+      <c r="AE368" s="96"/>
+      <c r="AG368" s="96"/>
+    </row>
+    <row r="369" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z369" s="96"/>
+      <c r="AA369" s="96"/>
+      <c r="AC369" s="96"/>
+      <c r="AD369" s="96"/>
+      <c r="AE369" s="96"/>
+      <c r="AG369" s="96"/>
+    </row>
+    <row r="370" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z370" s="96"/>
+      <c r="AA370" s="96"/>
+      <c r="AC370" s="96"/>
+      <c r="AD370" s="96"/>
+      <c r="AE370" s="96"/>
+      <c r="AG370" s="96"/>
+    </row>
+    <row r="371" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z371" s="96"/>
+      <c r="AA371" s="96"/>
+      <c r="AC371" s="96"/>
+      <c r="AD371" s="96"/>
+      <c r="AE371" s="96"/>
+      <c r="AG371" s="96"/>
+    </row>
+    <row r="372" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z372" s="96"/>
+      <c r="AA372" s="96"/>
+      <c r="AC372" s="96"/>
+      <c r="AD372" s="96"/>
+      <c r="AE372" s="96"/>
+      <c r="AG372" s="96"/>
+    </row>
+    <row r="373" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z373" s="96"/>
+      <c r="AA373" s="96"/>
+      <c r="AC373" s="96"/>
+      <c r="AD373" s="96"/>
+      <c r="AE373" s="96"/>
+      <c r="AG373" s="96"/>
+    </row>
+    <row r="374" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M374"/>
       <c r="N374"/>
       <c r="O374"/>
       <c r="P374" s="24"/>
       <c r="Q374" s="14"/>
       <c r="R374" s="21"/>
-      <c r="Z374" s="97"/>
-      <c r="AA374" s="97"/>
-      <c r="AC374" s="97"/>
-      <c r="AD374" s="97"/>
-      <c r="AE374" s="97"/>
-      <c r="AG374" s="97"/>
-    </row>
-    <row r="375" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z374" s="96"/>
+      <c r="AA374" s="96"/>
+      <c r="AC374" s="96"/>
+      <c r="AD374" s="96"/>
+      <c r="AE374" s="96"/>
+      <c r="AG374" s="96"/>
+    </row>
+    <row r="375" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M375"/>
       <c r="N375"/>
       <c r="O375"/>
       <c r="P375" s="24"/>
       <c r="Q375" s="14"/>
       <c r="R375" s="21"/>
-      <c r="Z375" s="97"/>
-      <c r="AA375" s="97"/>
-      <c r="AC375" s="97"/>
-      <c r="AD375" s="97"/>
-      <c r="AE375" s="97"/>
-      <c r="AG375" s="97"/>
-    </row>
-    <row r="376" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z375" s="96"/>
+      <c r="AA375" s="96"/>
+      <c r="AC375" s="96"/>
+      <c r="AD375" s="96"/>
+      <c r="AE375" s="96"/>
+      <c r="AG375" s="96"/>
+    </row>
+    <row r="376" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M376"/>
       <c r="N376"/>
       <c r="O376"/>
       <c r="P376" s="24"/>
       <c r="Q376" s="14"/>
       <c r="R376" s="21"/>
-      <c r="Z376" s="97"/>
-      <c r="AA376" s="97"/>
-      <c r="AC376" s="97"/>
-      <c r="AD376" s="97"/>
-      <c r="AE376" s="97"/>
-      <c r="AG376" s="97"/>
-    </row>
-    <row r="377" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z376" s="96"/>
+      <c r="AA376" s="96"/>
+      <c r="AC376" s="96"/>
+      <c r="AD376" s="96"/>
+      <c r="AE376" s="96"/>
+      <c r="AG376" s="96"/>
+    </row>
+    <row r="377" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M377"/>
       <c r="N377"/>
       <c r="O377"/>
       <c r="P377" s="24"/>
       <c r="Q377" s="14"/>
       <c r="R377" s="21"/>
-      <c r="Z377" s="97"/>
-      <c r="AA377" s="97"/>
-      <c r="AC377" s="97"/>
-      <c r="AD377" s="97"/>
-      <c r="AE377" s="97"/>
-      <c r="AG377" s="97"/>
-    </row>
-    <row r="378" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z377" s="96"/>
+      <c r="AA377" s="96"/>
+      <c r="AC377" s="96"/>
+      <c r="AD377" s="96"/>
+      <c r="AE377" s="96"/>
+      <c r="AG377" s="96"/>
+    </row>
+    <row r="378" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M378"/>
       <c r="N378"/>
       <c r="O378"/>
       <c r="P378" s="24"/>
       <c r="Q378" s="14"/>
       <c r="R378" s="21"/>
-      <c r="Z378" s="97"/>
-      <c r="AA378" s="97"/>
-      <c r="AC378" s="97"/>
-      <c r="AD378" s="97"/>
-      <c r="AE378" s="97"/>
-      <c r="AG378" s="97"/>
-    </row>
-    <row r="379" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z378" s="96"/>
+      <c r="AA378" s="96"/>
+      <c r="AC378" s="96"/>
+      <c r="AD378" s="96"/>
+      <c r="AE378" s="96"/>
+      <c r="AG378" s="96"/>
+    </row>
+    <row r="379" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M379"/>
       <c r="N379"/>
       <c r="O379"/>
       <c r="P379" s="24"/>
       <c r="Q379" s="14"/>
       <c r="R379" s="21"/>
-      <c r="Z379" s="97"/>
-      <c r="AA379" s="97"/>
-      <c r="AC379" s="97"/>
-      <c r="AD379" s="97"/>
-      <c r="AE379" s="97"/>
-      <c r="AG379" s="97"/>
-    </row>
-    <row r="380" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z379" s="96"/>
+      <c r="AA379" s="96"/>
+      <c r="AC379" s="96"/>
+      <c r="AD379" s="96"/>
+      <c r="AE379" s="96"/>
+      <c r="AG379" s="96"/>
+    </row>
+    <row r="380" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M380"/>
       <c r="N380"/>
       <c r="O380"/>
       <c r="P380" s="24"/>
       <c r="Q380" s="14"/>
       <c r="R380" s="21"/>
-      <c r="Z380" s="97"/>
-      <c r="AA380" s="97"/>
-      <c r="AC380" s="97"/>
-      <c r="AD380" s="97"/>
-      <c r="AE380" s="97"/>
-      <c r="AG380" s="97"/>
-    </row>
-    <row r="381" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z380" s="96"/>
+      <c r="AA380" s="96"/>
+      <c r="AC380" s="96"/>
+      <c r="AD380" s="96"/>
+      <c r="AE380" s="96"/>
+      <c r="AG380" s="96"/>
+    </row>
+    <row r="381" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M381"/>
       <c r="N381"/>
       <c r="O381"/>
       <c r="P381" s="24"/>
       <c r="Q381" s="14"/>
       <c r="R381" s="21"/>
-      <c r="Z381" s="97"/>
-      <c r="AA381" s="97"/>
-      <c r="AC381" s="97"/>
-      <c r="AD381" s="97"/>
-      <c r="AE381" s="97"/>
-      <c r="AG381" s="97"/>
-    </row>
-    <row r="382" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z381" s="96"/>
+      <c r="AA381" s="96"/>
+      <c r="AC381" s="96"/>
+      <c r="AD381" s="96"/>
+      <c r="AE381" s="96"/>
+      <c r="AG381" s="96"/>
+    </row>
+    <row r="382" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M382"/>
       <c r="N382"/>
       <c r="O382"/>
       <c r="P382" s="24"/>
       <c r="Q382" s="14"/>
       <c r="R382" s="21"/>
-      <c r="Z382" s="97"/>
-      <c r="AA382" s="97"/>
-      <c r="AC382" s="97"/>
-      <c r="AD382" s="97"/>
-      <c r="AE382" s="97"/>
-      <c r="AG382" s="97"/>
-    </row>
-    <row r="383" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z382" s="96"/>
+      <c r="AA382" s="96"/>
+      <c r="AC382" s="96"/>
+      <c r="AD382" s="96"/>
+      <c r="AE382" s="96"/>
+      <c r="AG382" s="96"/>
+    </row>
+    <row r="383" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M383"/>
       <c r="N383"/>
       <c r="O383"/>
       <c r="P383" s="24"/>
       <c r="Q383" s="14"/>
       <c r="R383" s="21"/>
-      <c r="Z383" s="97"/>
-      <c r="AA383" s="97"/>
-      <c r="AC383" s="97"/>
-      <c r="AD383" s="97"/>
-      <c r="AE383" s="97"/>
-      <c r="AG383" s="97"/>
-    </row>
-    <row r="384" spans="13:33" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z383" s="96"/>
+      <c r="AA383" s="96"/>
+      <c r="AC383" s="96"/>
+      <c r="AD383" s="96"/>
+      <c r="AE383" s="96"/>
+      <c r="AG383" s="96"/>
+    </row>
+    <row r="384" spans="13:33" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M384"/>
       <c r="N384"/>
       <c r="O384"/>
       <c r="P384" s="24"/>
       <c r="Q384"/>
       <c r="R384" s="21"/>
-      <c r="Z384" s="97"/>
-      <c r="AA384" s="97"/>
-      <c r="AC384" s="97"/>
-      <c r="AD384" s="97"/>
-      <c r="AE384" s="97"/>
-      <c r="AG384" s="97"/>
-    </row>
-    <row r="385" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z384" s="96"/>
+      <c r="AA384" s="96"/>
+      <c r="AC384" s="96"/>
+      <c r="AD384" s="96"/>
+      <c r="AE384" s="96"/>
+      <c r="AG384" s="96"/>
+    </row>
+    <row r="385" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M385"/>
       <c r="N385"/>
       <c r="O385"/>
       <c r="P385" s="24"/>
       <c r="Q385"/>
       <c r="R385" s="21"/>
-      <c r="Z385" s="97"/>
-      <c r="AA385" s="97"/>
-      <c r="AC385" s="97"/>
-      <c r="AD385" s="97"/>
-      <c r="AE385" s="97"/>
-      <c r="AG385" s="97"/>
-    </row>
-    <row r="386" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z385" s="96"/>
+      <c r="AA385" s="96"/>
+      <c r="AC385" s="96"/>
+      <c r="AD385" s="96"/>
+      <c r="AE385" s="96"/>
+      <c r="AG385" s="96"/>
+    </row>
+    <row r="386" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M386"/>
       <c r="N386"/>
       <c r="O386"/>
       <c r="P386" s="24"/>
       <c r="Q386"/>
       <c r="R386" s="21"/>
-      <c r="Z386" s="97"/>
-      <c r="AA386" s="97"/>
-      <c r="AC386" s="97"/>
-      <c r="AD386" s="97"/>
-      <c r="AE386" s="97"/>
-      <c r="AG386" s="97"/>
-    </row>
-    <row r="387" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z386" s="96"/>
+      <c r="AA386" s="96"/>
+      <c r="AC386" s="96"/>
+      <c r="AD386" s="96"/>
+      <c r="AE386" s="96"/>
+      <c r="AG386" s="96"/>
+    </row>
+    <row r="387" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M387"/>
       <c r="N387"/>
       <c r="O387"/>
       <c r="P387" s="24"/>
       <c r="Q387"/>
       <c r="R387" s="21"/>
-      <c r="Z387" s="97"/>
-      <c r="AA387" s="97"/>
-      <c r="AC387" s="97"/>
-      <c r="AD387" s="97"/>
-      <c r="AE387" s="97"/>
-      <c r="AG387" s="97"/>
-    </row>
-    <row r="388" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z387" s="96"/>
+      <c r="AA387" s="96"/>
+      <c r="AC387" s="96"/>
+      <c r="AD387" s="96"/>
+      <c r="AE387" s="96"/>
+      <c r="AG387" s="96"/>
+    </row>
+    <row r="388" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M388"/>
       <c r="N388"/>
       <c r="O388"/>
       <c r="P388" s="24"/>
       <c r="Q388"/>
       <c r="R388" s="21"/>
-      <c r="Z388" s="97"/>
-      <c r="AA388" s="97"/>
-      <c r="AC388" s="97"/>
-      <c r="AD388" s="97"/>
-      <c r="AE388" s="97"/>
-      <c r="AG388" s="97"/>
-    </row>
-    <row r="389" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z388" s="96"/>
+      <c r="AA388" s="96"/>
+      <c r="AC388" s="96"/>
+      <c r="AD388" s="96"/>
+      <c r="AE388" s="96"/>
+      <c r="AG388" s="96"/>
+    </row>
+    <row r="389" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M389"/>
       <c r="N389"/>
       <c r="O389"/>
       <c r="P389" s="24"/>
       <c r="Q389"/>
       <c r="R389" s="21"/>
-      <c r="Z389" s="97"/>
-      <c r="AA389" s="97"/>
-      <c r="AC389" s="97"/>
-      <c r="AD389" s="97"/>
-      <c r="AE389" s="97"/>
-      <c r="AG389" s="97"/>
-    </row>
-    <row r="390" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z389" s="96"/>
+      <c r="AA389" s="96"/>
+      <c r="AC389" s="96"/>
+      <c r="AD389" s="96"/>
+      <c r="AE389" s="96"/>
+      <c r="AG389" s="96"/>
+    </row>
+    <row r="390" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M390"/>
       <c r="N390"/>
       <c r="O390"/>
       <c r="P390" s="24"/>
       <c r="Q390"/>
       <c r="R390" s="21"/>
-      <c r="Z390" s="97"/>
-      <c r="AA390" s="97"/>
-      <c r="AC390" s="97"/>
-      <c r="AD390" s="97"/>
-      <c r="AE390" s="97"/>
-      <c r="AG390" s="97"/>
-    </row>
-    <row r="391" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z390" s="96"/>
+      <c r="AA390" s="96"/>
+      <c r="AC390" s="96"/>
+      <c r="AD390" s="96"/>
+      <c r="AE390" s="96"/>
+      <c r="AG390" s="96"/>
+    </row>
+    <row r="391" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M391"/>
       <c r="N391"/>
       <c r="O391"/>
       <c r="P391" s="24"/>
       <c r="Q391"/>
       <c r="R391" s="21"/>
-      <c r="Z391" s="97"/>
-      <c r="AA391" s="97"/>
-      <c r="AC391" s="97"/>
-      <c r="AD391" s="97"/>
-      <c r="AE391" s="97"/>
-      <c r="AG391" s="97"/>
-    </row>
-    <row r="392" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z391" s="96"/>
+      <c r="AA391" s="96"/>
+      <c r="AC391" s="96"/>
+      <c r="AD391" s="96"/>
+      <c r="AE391" s="96"/>
+      <c r="AG391" s="96"/>
+    </row>
+    <row r="392" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M392"/>
       <c r="N392"/>
       <c r="O392"/>
       <c r="P392" s="24"/>
       <c r="Q392"/>
       <c r="R392" s="21"/>
-      <c r="Z392" s="97"/>
-      <c r="AA392" s="97"/>
-      <c r="AC392" s="97"/>
-      <c r="AD392" s="97"/>
-      <c r="AE392" s="97"/>
-      <c r="AG392" s="97"/>
-    </row>
-    <row r="393" spans="9:54" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z392" s="96"/>
+      <c r="AA392" s="96"/>
+      <c r="AC392" s="96"/>
+      <c r="AD392" s="96"/>
+      <c r="AE392" s="96"/>
+      <c r="AG392" s="96"/>
+    </row>
+    <row r="393" spans="9:54" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M393"/>
       <c r="N393"/>
       <c r="O393"/>
       <c r="P393" s="24"/>
       <c r="Q393"/>
       <c r="R393" s="21"/>
-      <c r="Z393" s="97"/>
-      <c r="AA393" s="97"/>
-      <c r="AC393" s="97"/>
-      <c r="AD393" s="97"/>
-      <c r="AE393" s="97"/>
-      <c r="AG393" s="97"/>
+      <c r="Z393" s="96"/>
+      <c r="AA393" s="96"/>
+      <c r="AC393" s="96"/>
+      <c r="AD393" s="96"/>
+      <c r="AE393" s="96"/>
+      <c r="AG393" s="96"/>
     </row>
     <row r="394" spans="9:54" x14ac:dyDescent="0.25">
       <c r="I394" s="11"/>

--- a/Finanzas/1_Ene-Abr_2018.xlsx
+++ b/Finanzas/1_Ene-Abr_2018.xlsx
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB116" sqref="AB116"/>
+    <sheetView tabSelected="1" topLeftCell="Q82" workbookViewId="0">
+      <selection activeCell="AB111" sqref="AB111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Finanzas/1_Ene-Abr_2018.xlsx
+++ b/Finanzas/1_Ene-Abr_2018.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Finanzas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="360">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1058,9 +1053,6 @@
     <t>Operación!</t>
   </si>
   <si>
-    <t>Clase Janneth Lab 1 Ferula</t>
-  </si>
-  <si>
     <t>Pizzas sin alcohol</t>
   </si>
   <si>
@@ -1068,6 +1060,45 @@
   </si>
   <si>
     <t>Niño Gratitud</t>
+  </si>
+  <si>
+    <t>Taxi 1, Taxi 2, Taxi 3, Taxi 4</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Mariscos con Sol</t>
+  </si>
+  <si>
+    <t>Mariscos Sol y Jaime</t>
+  </si>
+  <si>
+    <t>Casa Reposo</t>
+  </si>
+  <si>
+    <t>Cita Revision 1</t>
+  </si>
+  <si>
+    <t>Jaime Tarde 1</t>
+  </si>
+  <si>
+    <t>Infinity War</t>
+  </si>
+  <si>
+    <t>Jaime cooperacion</t>
+  </si>
+  <si>
+    <t>Torta</t>
+  </si>
+  <si>
+    <t>Chillis Dos Dippers</t>
+  </si>
+  <si>
+    <t>Taco inn</t>
+  </si>
+  <si>
+    <t>Cafè de olla</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1935,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q82" workbookViewId="0">
-      <selection activeCell="AB111" sqref="AB111"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2247,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>42191</v>
+        <v>41812</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2289,7 +2320,7 @@
       </c>
       <c r="BG4" s="57">
         <f>(SUM((AV3:AV519)))-(SUM((AZ3:AZ519)))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH4" s="57"/>
     </row>
@@ -2395,7 +2426,7 @@
       </c>
       <c r="N6" s="52">
         <f>(SUM((W11:W299),(AC3:AC500),(I11:I499)))-(SUM((X11:X499)))</f>
-        <v>608</v>
+        <v>229</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -2483,7 +2514,7 @@
       </c>
       <c r="P7" s="78">
         <f>SUM(R7,N6)</f>
-        <v>608</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="75"/>
       <c r="R7" s="74">
@@ -11581,7 +11612,7 @@
         <v>69</v>
       </c>
       <c r="AB106" s="49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AC106" s="41">
         <f t="shared" si="12"/>
@@ -11601,7 +11632,7 @@
       </c>
       <c r="AI106" s="56"/>
       <c r="AJ106" s="56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AK106" s="56">
         <v>500</v>
@@ -11765,7 +11796,7 @@
       <c r="AH108" s="56"/>
       <c r="AI108" s="56"/>
       <c r="AJ108" s="56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK108" s="56">
         <v>500</v>
@@ -11834,11 +11865,11 @@
         <v>72</v>
       </c>
       <c r="AB109" s="49" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AC109" s="41">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AD109" s="106">
         <v>120</v>
@@ -11847,10 +11878,14 @@
       <c r="AF109" s="56"/>
       <c r="AG109" s="51">
         <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="AH109" s="56"/>
-      <c r="AI109" s="56"/>
+        <v>100</v>
+      </c>
+      <c r="AH109" s="56">
+        <v>70</v>
+      </c>
+      <c r="AI109" s="56" t="s">
+        <v>349</v>
+      </c>
       <c r="AJ109" s="56"/>
       <c r="AK109" s="56"/>
       <c r="AL109" s="56"/>
@@ -11922,12 +11957,16 @@
       <c r="AA110" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AB110" s="49"/>
+      <c r="AB110" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="AC110" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD110" s="106"/>
+        <v>80</v>
+      </c>
+      <c r="AD110" s="106">
+        <v>80</v>
+      </c>
       <c r="AE110" s="106"/>
       <c r="AF110" s="56"/>
       <c r="AG110" s="51">
@@ -11999,12 +12038,16 @@
       <c r="AA111" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="AB111" s="49"/>
+      <c r="AB111" s="49" t="s">
+        <v>351</v>
+      </c>
       <c r="AC111" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD111" s="106"/>
+      <c r="AD111" s="106">
+        <v>0</v>
+      </c>
       <c r="AE111" s="106"/>
       <c r="AF111" s="56"/>
       <c r="AG111" s="51">
@@ -12076,25 +12119,45 @@
       <c r="AA112" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AB112" s="49"/>
+      <c r="AB112" s="49" t="s">
+        <v>352</v>
+      </c>
       <c r="AC112" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD112" s="106"/>
-      <c r="AE112" s="106"/>
+        <v>14</v>
+      </c>
+      <c r="AD112" s="106">
+        <v>250</v>
+      </c>
+      <c r="AE112" s="106">
+        <v>200</v>
+      </c>
       <c r="AF112" s="56"/>
       <c r="AG112" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH112" s="56"/>
-      <c r="AI112" s="56"/>
-      <c r="AJ112" s="56"/>
-      <c r="AK112" s="56"/>
-      <c r="AL112" s="56"/>
-      <c r="AM112" s="56"/>
-      <c r="AN112" s="56"/>
+        <v>436</v>
+      </c>
+      <c r="AH112" s="56">
+        <v>210</v>
+      </c>
+      <c r="AI112" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ112" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK112" s="56">
+        <v>55</v>
+      </c>
+      <c r="AL112" s="56">
+        <v>50</v>
+      </c>
+      <c r="AM112" s="56">
+        <v>45</v>
+      </c>
+      <c r="AN112" s="56">
+        <v>50</v>
+      </c>
       <c r="AO112" s="56"/>
       <c r="AP112" s="56"/>
       <c r="AQ112" s="56"/>
@@ -12103,22 +12166,28 @@
       <c r="AT112" s="56"/>
       <c r="AU112">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV112" s="56"/>
+        <v>26</v>
+      </c>
+      <c r="AV112" s="56">
+        <v>20</v>
+      </c>
       <c r="AW112" s="56"/>
       <c r="AX112" s="56"/>
-      <c r="AY112" s="56"/>
+      <c r="AY112" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ112" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA112" s="56"/>
       <c r="BB112">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC112" s="56"/>
+      <c r="BC112" s="56">
+        <v>6</v>
+      </c>
       <c r="BD112" s="56"/>
       <c r="BE112" s="56"/>
       <c r="BF112" s="56"/>
@@ -12153,22 +12222,38 @@
       <c r="AA113" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AB113" s="49"/>
+      <c r="AB113" s="49" t="s">
+        <v>353</v>
+      </c>
       <c r="AC113" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD113" s="106"/>
-      <c r="AE113" s="106"/>
-      <c r="AF113" s="56"/>
+        <v>-296</v>
+      </c>
+      <c r="AD113" s="106">
+        <v>20</v>
+      </c>
+      <c r="AE113" s="106">
+        <v>220</v>
+      </c>
+      <c r="AF113" s="56" t="s">
+        <v>355</v>
+      </c>
       <c r="AG113" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH113" s="56"/>
-      <c r="AI113" s="56"/>
-      <c r="AJ113" s="56"/>
-      <c r="AK113" s="56"/>
+        <v>536</v>
+      </c>
+      <c r="AH113" s="56">
+        <v>500</v>
+      </c>
+      <c r="AI113" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ113" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK113" s="56">
+        <v>20</v>
+      </c>
       <c r="AL113" s="56"/>
       <c r="AM113" s="56"/>
       <c r="AN113" s="56"/>
@@ -12180,22 +12265,28 @@
       <c r="AT113" s="56"/>
       <c r="AU113">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV113" s="56"/>
+        <v>16</v>
+      </c>
+      <c r="AV113" s="56">
+        <v>10</v>
+      </c>
       <c r="AW113" s="56"/>
       <c r="AX113" s="56"/>
-      <c r="AY113" s="56"/>
+      <c r="AY113" s="56">
+        <v>2</v>
+      </c>
       <c r="AZ113" s="56">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA113" s="56"/>
       <c r="BB113">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BC113" s="56"/>
+      <c r="BC113" s="56">
+        <v>6</v>
+      </c>
       <c r="BD113" s="56"/>
       <c r="BE113" s="56"/>
       <c r="BF113" s="56"/>
@@ -12230,22 +12321,36 @@
       <c r="AA114" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AB114" s="49"/>
+      <c r="AB114" s="49" t="s">
+        <v>354</v>
+      </c>
       <c r="AC114" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD114" s="106"/>
-      <c r="AE114" s="106"/>
+        <v>-107</v>
+      </c>
+      <c r="AD114" s="106">
+        <v>120</v>
+      </c>
+      <c r="AE114" s="106">
+        <v>20</v>
+      </c>
       <c r="AF114" s="56"/>
       <c r="AG114" s="51">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH114" s="56"/>
-      <c r="AI114" s="56"/>
-      <c r="AJ114" s="56"/>
-      <c r="AK114" s="56"/>
+        <v>247</v>
+      </c>
+      <c r="AH114" s="56">
+        <v>200</v>
+      </c>
+      <c r="AI114" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ114" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK114" s="56">
+        <v>47</v>
+      </c>
       <c r="AL114" s="56"/>
       <c r="AM114" s="56"/>
       <c r="AN114" s="56"/>

--- a/Finanzas/1_Ene-Abr_2018.xlsx
+++ b/Finanzas/1_Ene-Abr_2018.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Lab25\Finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="361">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -1099,12 +1104,15 @@
   </si>
   <si>
     <t>Cafè de olla</t>
+  </si>
+  <si>
+    <t>Pantalones sol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1744,7 +1752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1779,7 +1787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1956,7 +1964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1966,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="AE76" sqref="AE76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2255,7 @@
       </c>
       <c r="P4" s="79">
         <f>SUM(N3,R9,P7)</f>
-        <v>41812</v>
+        <v>42012</v>
       </c>
       <c r="Z4" s="47">
         <v>43108</v>
@@ -2682,7 +2690,7 @@
       </c>
       <c r="R9" s="15">
         <f>SUM(R11:R481)</f>
-        <v>33820</v>
+        <v>34020</v>
       </c>
       <c r="T9" s="32" t="s">
         <v>40</v>
@@ -5603,13 +5611,19 @@
       <c r="J37" s="101"/>
       <c r="K37" s="102"/>
       <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="23"/>
+      <c r="N37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="P37" s="23">
+        <v>200</v>
+      </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T37" s="36">
         <v>43198</v>
@@ -9009,7 +9023,7 @@
       <c r="AJ76" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="AK76" s="56">
+      <c r="AK76" s="101">
         <v>200</v>
       </c>
       <c r="AL76" s="56"/>
